--- a/sheets/cosmetics.xlsx
+++ b/sheets/cosmetics.xlsx
@@ -22,6 +22,8 @@
     <sheet name="mists" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="lips-sticks" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="perfumes" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="deodorants" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Sheet16" sheetId="16" state="visible" r:id="rId17"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="241">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -466,6 +468,18 @@
     <t xml:space="preserve">https://www.amazon.com/Soltan-Clear-Protect-spray-SPF15/dp/B07BLZ5LG9</t>
   </si>
   <si>
+    <t xml:space="preserve">Christian Dior Sauvage Elixir – Spray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61XcHkyq-xL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61A-R-Gqe6L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Christian-Dior-Sauvage-Elixir-Spray/dp/B09FY38T89</t>
+  </si>
+  <si>
     <t xml:space="preserve">HASK HEMP OIL &amp; Agave Moisturizing Shampoo 355ml</t>
   </si>
   <si>
@@ -567,6 +581,226 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/Yves-Saint-Laurent-Parfum-Spray/dp/B00NBK5JHK/ref=sr_1_1?crid=Q6DVAEF5S0RJ&amp;keywords=Black+Opium+Eau+De+Parfum+Spray+By+Yves+Saint+Laurent+90+ml&amp;qid=1672234176&amp;sprefix=black+opium+eau+de+parfum+spray+by+yves+saint+laurent+90+ml%2Caps%2C364&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibrant Leather Intense Zara for men – 100ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibrant Leather Intense by Zara is a Woody fragrance for men. This is a new fragrance. Vibrant Leather Intense was launched in 2021. The nose behind this fragrance is Jérôme Epinette. Top note is Woody Notes; middle note is Papyrus; base note is Sandalwood. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fimgs.net/mdimg/secundar/o.82021.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fimgs.net/mdimg/secundar/o.82020.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fragrantica.com/perfume/Zara/Vibrant-Leather-Intense-67174.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armani Code Profumo by Giorgio Armani - 110ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	GIORGIO ARMANI
+Item Form:	Liquid
+Item Volume: 	3.7 Fluid Ounces
+Scent:	Amber Spicy
+Special Feature:	Natural Ingredients
+Alluring, powerful and fiery, the classic Code base of tonka bean has been amplified by a sensual woody fragrance and notes of cardamom and a woody amber accord </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51ywgnf2hbL._SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61CMI8ZW1YL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Giorgio-Armani-Profumo-Spray-Ounce/dp/B01BLHR8DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dior Sauvage Eau de Toilette, Cologne for Men, 100ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Dior Sauvage is a fragrance that is radically fresh, raw and noble at the same time. The composition is prevalent with carefully selected natural ingredients. Fresh top notes of Calabria bergamot encounter ambroxan, obtained from precious ambergris, and its woody trail. Inspired by the fierce plains and wild open spaces of feral lands, Sauvage would unleash your unruly side with its primal and statement scent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i5.walmartimages.com/asr/c1c8dccc-ed2d-4abf-963c-ba624a1e7290.54036d081065981f1884f14625bfaa08.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=FFFFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i5.walmartimages.com/asr/e3f6e5df-f78f-4a79-9864-f63660266ef3.31dd9ef07a360050d077f2e2da1cded7.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=FFFFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.walmart.com/ip/Dior-Sauvage-Eau-de-Toilette-Cologne-for-Men-3-4-Oz/197155802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giorgio Perfume - Black Special Edition by Giorgio - Perfume for Men - Eau de Parfum, 100ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Giorgio
+Item form: 	Spray
+Item volume: 	100 Milliliters
+Scent: 	Fruity Notes
+Age range: (description) 	Adult
+Item weight: 	100 Grams
+The Giorgio Black Special Edition Eau De Parfum is the epitome of sophistication. An absolute must-have for you, this perfume enhances that masculine charm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51cUpiLn9SL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41PADGyWutL._AC_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.eg/-/en/Giorgio-Black-Special-Parfum-100ml/dp/B076KZW4N7/ref=d_pd_day0_sccl_2_1/259-6196541-2494843?pd_rd_w=0vJtj&amp;content-id=amzn1.sym.4622247b-3c5c-4c24-9548-fdc327173136&amp;pf_rd_p=4622247b-3c5c-4c24-9548-fdc327173136&amp;pf_rd_r=0HYNKRQ7CPERRCCGHEJA&amp;pd_rd_wg=NLoEj&amp;pd_rd_r=9f452009-ecbb-4dab-9cfe-f14f2b2e391f&amp;pd_rd_i=B076KZW4N7&amp;psc=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100ML (3.38 FL. OZ). ZARA FOR HIM BLACK EDITION EAU DE TOILETTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eau de toilette. The scent reveals notes of nutmeg, orange blossom and cedar. It’s a warm, long-lasting and comfortable fragrance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.zara.net/photos///2022/S/2/2/p/0210/477/999/2/w/563/0210477999_6_3_1.jpg?ts=1669820170910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.zara.net/photos///2022/S/2/2/p/0210/477/999/2/w/563/0210477999_6_1_1.jpg?ts=1669820177728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zara.com/nz/en/for-him-black-edition-100ml---3-38-oz-p20210477.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Him Metal, Grapefurit Ginger Sandalwood – 100ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Him Metal is a perfume by Zara for men</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pimages.parfumo.de/720/154686_img-1795-zara-for-him-metal_720.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://piimages.parfumo.de/7/1/154686_96c3463b316171913e0d85f6cfcfd833_for-him-metal.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parfumo.net/Perfumes/Zara/for-him-metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100ML (3.38 FL. OZ). ZARA FOR HIM EAU DE TOILETTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eau de toilette. The scent reveals notes of bergamot, cardamom and sandalwood. It's a warm, modern and intense fragrance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.zara.net/photos///2022/I/2/2/p/0210/476/999/2/w/563/0210476999_6_3_1.jpg?ts=1664872134470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.zara.net/photos///2022/I/2/2/p/0210/476/999/2/w/563/0210476999_6_1_1.jpg?ts=1664872131119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zara.com/tr/en/for-him-100-ml-p20210476.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oud Wood by Tom Ford Eau De Parfum For Men 100ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Tom Ford
+Item form:	Liquid
+Item volume: 	100 Millilitres
+Scent:	Wood 
+Special feature:	Travel Size
+Exotic rose wood and cardamom give way to a smoky blend of rare oud wood, sandalwood and vetiver. tonka bean and amber add warmth and sensuality
+100 ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71x8C+yso0L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61iF2Hi61IL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/Tom-Ford-Wood-Parfum-Vaporisateur/dp/B00FZ7E7RK/ref=sr_1_1?crid=3K4D1T91RFQWW&amp;keywords=tom+ford+oud+100ml&amp;qid=1673431430&amp;s=beauty&amp;sprefix=tom+ford+oud+100ml%2Cbeauty%2C395&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calvin Klein CK Eternity Moment (W) EDP 100ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eternity Moment by Calvin Klein is a Floral fragrance for women. Eternity Moment was launched in 2004. Eternity Moment was created by Harry Fremont and Jacques Cavallier. Top notes are Litchi, Raspberry, Melon and Guava; middle notes are Chinese Pink Peony, Jasmine, Water Lily and Passion Flower; base notes are Musk, Brazilian Rosewood, Cashmere Wood and Sandalwood.Calvin Klein is a global lifestyle brand that exemplifies bold, progressive ideals and a seductive aesthetic. We seek to thrill and inspire our audience while using provocative imagery and striking designs to ignite the senses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://microless.com/cdn/products/a6e3eb53b2c2bb65261ad54bc9abe948-hi.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://microless.com/cdn/products/6e1d4f63f79ae1c6e7f8facd4409f858-hi.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://qatar.microless.com/product/calvin-klein-ck-eternity-moment-w-edp-100ml/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORGANZA GIVENCHY Eau de Parfum – 100ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61wpfj5eXSS._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41emqzlWS8L._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.eg/-/en/Givenchy-3274872389977-ORGANZA-EDP-100ML/dp/B07VWZYMPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dior Perfume - Jadore by Christian Dior - perfumes for women - Eau de Parfum, 100 ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Christian Dior
+Item form:	Liquid
+Item volume: 	100 Milliliters
+Scent:	Floral
+Special features: 	Fresh
+Introduced in 2000. Fragrance notes: floral orchids, violets, rose and blackberry musk, a sensual aroma. Recommended use: daytime.When applying any fragrance please consider that there are several factors which can affect the natural smell of your skin and, in turn, the way a scent smells on you. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51eOzR-UpSL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/Dior-Perfume-Jadore-Christian-perfumes/dp/B000C1UCTQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Yves Saint Laurent Eau de Cologne for Men, Pack of 1 (1 x 100 ml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Yves Saint Laurent
+Item form: 	Aerosol
+Item volume: 	100 Millilitres
+Scent: 	Aromatic.
+Age range:  (description) 	Adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61qGzNc7lXL._SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41ohThdN4kS._SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.de/-/en/Yves-Saint-Laurent-Cologne-Pack/dp/B000BTO6E6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivea Protect &amp; Care Anti-Perspirant Deodorant Stick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Nivea
+Item Volume:	40 Millilitres
+Net Quantity: 	20.0 grams
+NIVEA Protect &amp; Care anti-perspirant deodorant is strong on sweat yet soft on skin. It protects you for 48 hours against sweat and body odour, without irritation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61oNfuNbBUL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61qBrl0bh2L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/Nivea-Protect-Anti-Perspirant-Deodorant-Stick/dp/B07P4CKH36</t>
   </si>
 </sst>
 </file>
@@ -581,6 +815,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -601,6 +836,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -678,12 +914,12 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,13 +1005,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -826,6 +1062,20 @@
       </c>
       <c r="G3" s="0" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -850,7 +1100,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -877,53 +1127,53 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +1198,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -975,19 +1225,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1262,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1039,13 +1289,13 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1064,10 +1314,333 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>550000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1095,58 +1668,47 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>450000</v>
+        <v>236</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>163</v>
+        <v>238</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>239</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>200000</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1168,7 +1730,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1291,7 +1853,7 @@
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1425,10 +1987,10 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1650,7 +2212,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1728,7 +2290,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1823,7 +2385,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1895,7 +2457,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1964,7 +2526,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/sheets/cosmetics.xlsx
+++ b/sheets/cosmetics.xlsx
@@ -23,7 +23,7 @@
     <sheet name="lips-sticks" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="perfumes" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="deodorants" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Sheet16" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="hand-forming-soaps" sheetId="16" state="visible" r:id="rId17"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="371">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -575,9 +575,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://m.media-amazon.com/images/I/71HDIclRo3L._SL1000_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://t1.gstatic.com/images?q=tbn:ANd9GcSV6rPRQ-3wgJmivbXtvVrufuVwa9j-xwlhxu6LvY_hwSCanvfo</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/Yves-Saint-Laurent-Parfum-Spray/dp/B00NBK5JHK/ref=sr_1_1?crid=Q6DVAEF5S0RJ&amp;keywords=Black+Opium+Eau+De+Parfum+Spray+By+Yves+Saint+Laurent+90+ml&amp;qid=1672234176&amp;sprefix=black+opium+eau+de+parfum+spray+by+yves+saint+laurent+90+ml%2Caps%2C364&amp;sr=8-1</t>
@@ -764,8 +761,7 @@
     <t xml:space="preserve">https://www.amazon.ae/Dior-Perfume-Jadore-Christian-perfumes/dp/B000C1UCTQ</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Yves Saint Laurent Eau de Cologne for Men, Pack of 1 (1 x 100 ml)</t>
+    <t xml:space="preserve">Yves Saint Laurent Eau de Cologne for Men, Pack of 1 (1 x 100 ml)</t>
   </si>
   <si>
     <t xml:space="preserve">Brand: 	Yves Saint Laurent
@@ -784,6 +780,175 @@
     <t xml:space="preserve">https://www.amazon.de/-/en/Yves-Saint-Laurent-Cologne-Pack/dp/B000BTO6E6</t>
   </si>
   <si>
+    <t xml:space="preserve">Issey Miyake Nuit D'issey Cologne, 4.2 Ounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senses are enhanced and emotions deepened through the powerful force of natural attraction. This fresh, woody, leathery fragrance adds a powerful and mysterious note to the issey miyake collection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81AffUHp-XL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51whs1aEVWL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/Issey-Miyake-Dissey-Cologne-M-4846/dp/B014RJCS6S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajmal Kuro edp 90ml
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suitable for: Men, Type: Eau de parfum, Quantity: 90 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pricespy-75b8.kxcdn.com/product/standard/800/5509163.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pricespy.co.uk/beauty-health/perfume/ajmal-kuro-edp-90ml--p5509163</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> AVENUE Eau De Parfum spray By Elizabeth Arden 125 ml</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Created by Elizabeth Arden in 1996, Fifth Avenue is a heady floral fragrance recommended for daytime wear. A modern day American classic, it is a fragrance for the intelligent, successful woman who easily walks between luxurious showcases, feeling good in her own skin. An exciting, sophisticated fragrance, opening with top notes of black plum, bergamot, coriander and honeysuckle, flowing into a heart of muguet, jasmine sambac, saffron and Indian lotus blossom, rounded off with a smooth base of sandalwood, white birch, Tonka bean and musk. Top Notes: Lilac, linden blossom, magnolia, mandarin and bergamot. Middle Notes: Violet, ylang-ylang, jasmine, tuberose, peach, carnation and nutmeg. Base Notes: Amber, musk, sandalwood, iris and vanilla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61VY9O9I97L._AC_SL1024_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51SYJj0yRbL._AC_SL1024_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/AVENUE-Parfum-spray-Elizabeth-Arden/dp/B00733JDBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Scandal by Jean Paul Gaultier Eau de Parfum For Women, 80ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	JEAN PAUL GAULTIER
+Item form: 	Spray
+Item volume: 	2.7 Fluid Ounces
+Scent: 	Fresh
+Special feature: 	Travel Size
+JPG SCANDAL(W)EDP 80 ML. product of the house JEAN PAUL GAULTIER. perfumes. JPG SCANDAL(W)EDP 80 ML. product of the house JEAN PAUL GAULTIER. perfumes. JPG SCANDAL(W)EDP 80 ML. product of the house JEAN PAUL GAULTIER. Perfumes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61JGIgIZoSL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/Jean-Paul-Gaultier-Scandal-Women/dp/B0748GD9DD?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luice by Juvenis for Women - Eau de Parfum, 100ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Juvenis
+Scent: 	Fresh &amp; Zesty
+Age range (description): 	Adult
+Size: 100ml
+Targeted Group: Women
+Perfume Name: Luice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/810kYonAK9L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61q3-pXZFdL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/Luice-Juvenis-Women-Parfum-100ml/dp/B07MVXBQGZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIBRANT LEATHER + VIBRANT LEATHER OUD 60ML / 2.03 OZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIBRANT LEATHER + VIBRANT LEATHER OUD 60ML / 2.03 OZ
+Eau de parfum duo set. The scent reveals notes of bergamot, leather and bamboo (I) + bergamot, incense and agarwood (II).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cf.shopee.com.my/file/176fe4703a3a21add8fe37c1b213bbc5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cf.shopee.com.my/file/62f7b7ad471c8919a5a5162cde2370e9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shopee.com.my/-ORIGINAL-VIBRANT-LEATHER-VIBRANT-LEATHER-OUD-60ML-2.03-OZ-i.117359060.5055264701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boss orange smart collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a high quality perfume made from the best fragrances collected from around the world. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://skygarden.azureedge.net/media/products/1237577-6d9630d911d246639e4fdc841227d045.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sky.garden/product/PNbS048M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina Herrera 212 Men Fragrance For Men - Timeless Scent – 200ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Carolina Herrera
+Item Form: 	Spray
+Item Volume: 	200 Milliliters
+Scent: 	Wood 
+Item Weight: 	0.1 Kilograms
+212 NYC MEN combines fresh notes of energetic green with a heart of sensual, peppery spices resulting in a beautifully bright fragrance for every day. Warm sandalwood and gaiac wood accentuate its masculine base bringing hints of vibrant modernity to a timeless scent. The iconic architecture of Manhattan is translated through a sleek bottle design, metallic and cylindrical, with a magnetic closure tactfully placed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61Yqmmip7DL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51I8xGBaiQL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Carolina-Herrera-Toilette-Spray-200ml/dp/B003HUSOC6?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212 Sexy by Carolina Herrera Eau De Toilette Spray 3.3 oz / 100 ml (Men) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packaging for this product may vary from that shown in the image above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61S7G9mOFAL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.sg/Sexy-Carolina-Herrera-Toilette-Spray/dp/B001FWXHQG</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nivea Protect &amp; Care Anti-Perspirant Deodorant Stick</t>
   </si>
   <si>
@@ -801,6 +966,339 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.in/Nivea-Protect-Anti-Perspirant-Deodorant-Stick/dp/B07P4CKH36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANEL
+BLEU DE CHANEL
+Deodorant Spray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aromatic-woody notes of BLEU DE CHANEL in a deodorant spray. An instant fresh feeling. A moment of well-being that prolongs the lingering scent of the fragrance.
+The aromatic-woody notes of BLEU DE CHANEL find expression in a full range of shaving and body products. The deodorant spray procures a feeling of freshness and well-being. Ideal for everyday use, it prolongs the trail of the fragrance.
+Alcohol-based formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theperfumeshop.com/medias/sys_master/front-zoom/front-zoom/10496501317662/CHANEL-Deodorant-Spray-3145891079302-BLEU-DE-CHANEL.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theperfumeshop.com/chanel/bleu-de-chanel/deodorant-spray/p/64060DSPYBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davidoff Zino Deodorant Stick 70g
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A very special fragrance, elegant and sophisticated - the name Zino Davidoff is synonymous with ultimate pleasure, individuality and uncompromising quality. With its discreet charm the fragrance Zino is perfect for the man who with his unmistakable style knows how to enjoy life. The Eau de Toilette is with bergamot and lavender at its top note fresh and spontaneous. The heart radiates the gentle fire of geranium but retains its discreetness throughout. The base note appears in stark contrast to this. Woody-oriental and with the warmth of ambergis and musk, it gives Zino strength and originality. The flaçon with engraved lettering comes in a deep, slightly transparent violet coloured heavy glass bottle. Together with the soft colour of aged ivory for the bottle cap it perfectly reflects the sophisticated character of the fragrance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71xptACdooL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/710MWyBb9HL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parfumdreams.co.uk/Davidoff/Mens-fragrances/Zino/Deodorant-Stick/index_14128.aspx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lacoste Deodorant Stick 75ml/2.4oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Lacoste
+Item Form:	Stick
+Item Volume:	2.4 Fluid Ounces
+Item Weight:	75 Grams
+Net Quantity:	1.00 count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51pEaR5iXEL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/Lacoste-Deodorant-Stick-75ml-2-4oz/dp/B0765X5PH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean Paul Gaultier Le Male Alcohol Free Deodorant Stick for Men, 2.6 Ounce, Multicolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All our fragrances are 100% originals by their original designers.
+Packaging for this product may vary from that shown in the image above.
+Scent Name: LE BEAU MALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51VafRg5upL._SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Jean-Paul-Gaultier-Deodorant-Multicolor/dp/B0006VA62A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACO RABANNEBlack Xs / Deodorant Stick 2.2 oz (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design house: Paco Rabanne. 
+Scent name: Black Xs Men. 
+Gender: Mens. 
+Category: Perfume. 
+Type: Bath &amp; Body. 
+SubType: Deodorant. 
+Beauty group: Body. 
+Size: 2.2 oz. 
+Black Xs / Paco Rabanne Deodorant Stick 2.2 oz (M).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn2.jomashop.com/media/catalog/product/b/l/black-xs-paco-rabanne-deodorant-stick-22-oz-m-3349668165438.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISSEY MIYAKE
+L'Eau d'Issey Pour Homme
+Deodorant Stick for him</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A gentle, comfortable and delicately scented deodorant stick for maximum protection.
+Yuzu, Cypress, Coriander, Mandarin, Clary Sage, Fresh Verbena
+Tobacco Amber, Musk, Indian Sandalwood, Haitian Vetiver, Cypriol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theperfumeshop.com/medias/sys_master/front-zoom/front-zoom/8837275942942/Issey-Miyake-Deodorant-Stick-for-him-3423470311518-L-Eau-d-Issey-Pour-Homme.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theperfumeshop.com/issey-miyake/leau-dissey-pour-homme/deodorant-stick-for-him/p/70550DSTKBL?varSel=1022128&amp;tduid=7daaf971a39042bb5824d7efa40cdf60&amp;utm_source=tradedoubler&amp;utm_medium=affiliate&amp;utm_campaign=Klarna.com+%28UK%29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diesel BAD Deo Stick (75g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAD is a raw, sexy and masculine fragrance from Diesel.
+The design exudes both elegance and masculinity, where the fragrance reflects the same. The scent has nuances of tonka beans, which are combined with accords of burnt oak wood, which ends in a fresh, powerful
+Diesel BAD Deo Stick (75g).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.manlyman.dk/wp-content/uploads/2021/09/Diesel-BAD-Deo-Stick-75g-3614272048430.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.manlyman.dk/vare/diesel-bad-deo-stick-75g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franck Olivier Premium In Pink Deo Stick For Women – 75g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiperspirant is very important, especially in the summer, but many people are confused when trying to buy deodorant with many types and varied forms of it. We present to you the French brand Franck Olivier Deodorant Stick In Pink
+Floral fragrance - fruits for women. Introduction to scented Italian lemon and black currant, The fragrant heart is Moroccan rose, cyclamen, white peaches, and white lilies, The base of the scent consists of cedar wood, amber, and white musk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdnprod.mafretailproxy.com/sys-master-root/h2d/h9d/29107126894622/3516641907440_main_1700Wx1700H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franck Olivier Premium Night Touch - Deodorant Stick, 75 Gram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Franck Olivier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.frenchfragrance.com/26253-large_default/franck-olivier-premium-night-touch-deodorant-stick-75-gram.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.frenchfragrance.com/bath-body/franck-olivier-premium-night-touch-deodorant-stick-75-gram.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BURBERRY Brit Splash Deodorant Stick For Men, 75 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	BURBERRY
+Item form: 	stick
+Scent: 	Aquatic
+Special features:	Original
+Item volume: 	1 Milliliters
+    - Features crisp rosemary, a watery accord and moss
+    - Perfect for special occasions and parties
+    - Gives long lasting fragrance
+    - Made from best the best ingredients
+    - Skin type : combination
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51i8AtR5htL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71LXVTgYF6L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/BURBERRY-Brit-Splash-Deodorant-Stick/dp/B015WMTJRK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armani Code by Giorgio Armani For Men. Alcohol Free Deodorant Stick 2.6-Ounces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This smooth deodorant stick glides on easily for maximum comfort and protection from an antiperspirant. Leaves skin lightly scented with the seductive Armani Code. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41bQZpLAD7L._SL1080_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Armani-Giorgio-Alcohol-Deodorant-2-6-Ounces/dp/B001FWXHIY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franck Olivier Premium Sun Java - Deodorant Stick 75G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.brandedperfume.com/32501-medium_default/franck-olivier-premium-sun-java-deodorant-stick-75g.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.brandedperfume.com/bath-body/franck-olivier-premium-sun-java-deodorant-stick-75g.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donna Karan Cashmere Mist Deodorant Anti Perspirant Stick 1.7 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Donna Karan New York
+Size: 1.7 oz. / 50 gr.
+Product Line: Donna Karan
+Inspired by the soft, sensual feeling of cashmere against bare skin, Cashmere Mist Eau de Parfum is a fragrance light enough to wear all over your body all year long. It seduces the senses—skin, scent and spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41BFdb59HjL._AC_SL1081_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebay.com/itm/142961623960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montblanc Legend Deodorant Stick, 75 g Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Montblanc
+Item form:	Stick
+Scent:	Sandalwood
+Item volume:	2.5 Fluid Ounces
+Number of items:	1
+Legend Night is the latest reinterpretation of the Legend scent, the sensual woody fragrance that reveals the inner charisma of the man who wears it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/Montblanc-Legend-Deodorant-Stick-75/dp/B005C66X4E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calvin Klein Obsession Deo Stick 75ml for Men</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calvin Klein Obsession for men is the iconic male variant of the famous Calvin Klein Obsession for women. The oriental spicy fragrance perfectly fits the lifestyle of the rebellious gentleman.
+Its classic scent full of citrus notes and exotic spices hides a seductive mystery that is simply irresistible to the ladies who long to be conquered by a passionate man. A 1987 FiFi award winner and one of the most popular male perfumes in the 80s, Calvin Klein Obsession is a compulsory perfume for the contemporary macho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://venerafragrances.com/image/cache/catalog/data/products/Calvin-Klein-Obsession-Men-Deo-Stick-600x600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://venerafragrances.com/calvin-klein-obsession-deo-stick-75ml-for-men</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Issey Miyake L'EAU D'ISSEY HOMME deodorant stick 75 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Issey Miyake
+Item form: 	Stick
+Scent: 	No
+Is mould resistant: 	Alcohol Free,Alcohol-free
+Issey Miyake Beauty products are designed to take care of yourself, pamper you and feel beautiful every day of the Year. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41SWNfNGwvL._AC_SL1080_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/Issey-Miyake-DISSEY-HOMME-deodorant/dp/B001BSIYYO?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calvin Klein CK Reveal Deodorant Stick For Men 75ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CK Reveal Deo Stick For Men 75ml
+Manufactured By: Coty Prestige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/1895/2657/products/CalvinKleinRevealDeodorantStickForMen75ml_1800x1800.jpg?v=1597742258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.perfume24x7.com/collections/deodorant-stick/products/calvin-klein-reveal-deodorant-stick-for-men-75ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dior Fahrenheit Deo Stick 75 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Christian Dior
+Scent: 	Wood
+Non-alcoholic; Long-lasting and protective; All skin types; Woody fragrance; Harmonic strong scent of freshly elegant note; Non-alcoholic; Long-lasting and protective; All skin types; Woody fragrance; Harmonic strong scent of freshly elegant note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51d181dT8-L._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71bTqD3g28L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/Dior-Fahrenheit-Deo-Stick-75/dp/B001CT07CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CK One by Calvin Klein 2.6 oz Deodorant Stick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launched in 1994, Calvin Klein introduced the shared fragrance cK one for a new generation in fragrance. This fragrance is a revolutionary fresh and crisp scent.
+- CK One by Calvin Klein 2.6 oz Deodorant Stick
+- Deodorant , Laid Back , Trendsetter
+- Citrusy , Fresh , Jasmine , Lemon , Lily Of The Valley , Musk , Nutmeg , Rose , Sandalwood , Amber , Bergamot , Oakmoss , Mandarin Orange , Violet , Cedar , Orris , Pineapple , Papaya
+- Unisex , Adults
+- Launched in 1994, Calvin Klein introduced the shared fragrance cK one for a new generation in fragrance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i5.walmartimages.com/asr/3631e58d-65cf-4b02-9359-2771d28aa448_1.2daa83af43923335ca8ead526580d522.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=FFFFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.walmart.com/ip/CK-One-by-Calvin-Klein-2-6-oz-Deodorant-Stick/256301119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURBERRY Brit Splash Deodorant Stick For Men, 75 ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	BURBERRY
+Item form: 	stick
+Scent: 	Aquatic
+Burberry Brit Splash Deo Stick for Men features crisp rosemary, a watery accord and moss. Perfect for special occasions and parties. It gives long lasting fragrance. It is made from best the best ingredients.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Montblanc - Explorer Ultra Blue Deostick 75 gr Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspired by the blue of the sky, the seas and the ice-covered mountains, Montblanc Explorer Ultra Blue captures the adventure of the explorer who breaks up to an epic scent journey. A citrus maritime woody fragrance with a radiant top note of tingling Italian bergamot and the finest citrus fruits, a maritime chord as a beating heart of the fragrance and earthy base notes of patchouli, combined with precious woods and leathery facets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61OglUeu4eS._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/Montblanc-Explorer-Ultra-deodorant-stick/dp/B09259WZ7P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franck Olivier Premium Oud Touch Deodorant Stick 75G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oud Touch by Franck Olivier is a Woody Aromatic fragrance for men. Oud Touch was launched in 2014. Top notes are Caramel, Raspberry and Orange; . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71B88hdUpsL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71myZZbm25S._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.sa/-/en/Franck-Olivier-Premium-Touch-Deodorant/dp/B08ZPJW9H1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACQUA DI GIO by Giorgio Armani Deodorant Stick 75 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the most popular and iconic men's fragrances of the 20th and 21st century, Acqua di Gio was composed in 1996 by FiFi award winning Master Perfumer Alberto Morillas and ushered in a new age of fresh citrus/aquatic scents for men. This classic men's cologne opens with brisk and cool calabrian bergamot, green tangerine and neroli, and gradually grows deeper and richer with notes of rose, rosemary, jasmine petal, persimmon, and Indonesian patchouli. As timeless as a white tee and well worn jeans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71mJdxaJQ9L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/ACQUA-Giorgio-Armani-Deodorant-Stick/dp/B004HJT8JE</t>
   </si>
 </sst>
 </file>
@@ -810,7 +1308,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -837,6 +1335,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -881,7 +1391,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -892,6 +1402,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -917,7 +1431,7 @@
       <selection pane="topLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
   </cols>
@@ -1008,10 +1522,10 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1100,7 +1614,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1198,7 +1712,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1262,7 +1776,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1314,13 +1828,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1346,6 +1860,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3521</v>
+      </c>
       <c r="B2" s="0" t="s">
         <v>165</v>
       </c>
@@ -1362,7 +1879,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3523</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>169</v>
       </c>
@@ -1380,245 +1900,461 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3569</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>550000</v>
+      </c>
       <c r="E4" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3527</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>179</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="G5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3531</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="G6" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3534</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="n">
+        <v>700000</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="G7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3538</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3559</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>199</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>3541</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>204</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="G10" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3571</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>209</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E11" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="G11" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>3544</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1300000</v>
       </c>
       <c r="E12" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="G12" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>3547</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>219</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="G13" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>3550</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>223</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E14" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="G14" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>3552</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="0" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="G15" s="0" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>3555</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="G16" s="0" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
         <v>235</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -1637,13 +2373,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1670,19 +2406,422 @@
     </row>
     <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>237</v>
+        <v>277</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>240</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>155000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +2846,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1730,7 +2869,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1853,7 +2992,7 @@
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1990,7 +3129,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2212,7 +3351,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2290,7 +3429,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2385,7 +3524,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2457,7 +3596,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2526,7 +3665,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/sheets/cosmetics.xlsx
+++ b/sheets/cosmetics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
-    <sheet name="serum" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="cleanser" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="toner" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="serums" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="cleansers" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="toners" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="lotions" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="washes" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="oils" sheetId="6" state="visible" r:id="rId7"/>
@@ -20,7 +20,7 @@
     <sheet name="sprays" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="hair-oils" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="mists" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="lips-sticks" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="lip-sticks" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="perfumes" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="deodorants" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="hand-forming-soaps" sheetId="16" state="visible" r:id="rId17"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="387">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -64,10 +64,7 @@
     <t xml:space="preserve">Nature Secrete with Pure Argan Oil Lightening Serum 100ml</t>
   </si>
   <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/W/WEBP_402378-T2/images/I/51h004xMqyL._SL1100_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/W/WEBP_402378-T2/images/I/51IrX83VVfL._SL1100_.jpg</t>
+    <t xml:space="preserve">https://i5.walmartimages.com/asr/48b5f144-360c-475b-ad67-27d8d45d5756_1.ad73944e47eccc0c409b7c70de43187d.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Nature Secrete with Pure Argan Oil Cream Tube, 100ml</t>
@@ -127,6 +124,13 @@
     <t xml:space="preserve">Garnier Cleansingwater Micellar 400Ml</t>
   </si>
   <si>
+    <t xml:space="preserve">Brand: 	Garnier
+Item form: 	Gel
+Unit count: 	1 count
+Number of Items: 	1
+Skin type: 	All</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://m.media-amazon.com/images/I/617HVWPFLML._AC_SL1500_.jpg</t>
   </si>
   <si>
@@ -160,6 +164,9 @@
     <t xml:space="preserve">SEBAMED FACE CLEANSING TONER 150ML</t>
   </si>
   <si>
+    <t xml:space="preserve">The Sebamed Clear Face Deep Cleansing Toner helps purify your pores without drying out your facial skin. Balance and rejuvenate oily skin with our Clear Face Deep Cleansing Facial Toner. It fully clarifies your pores of the impurities that cause acne. Many toners can actually strip away your skin's protective layer over time, but ours is different. Because it's made with a special complex of moisturizing ingredients and pH 5.5, it deeply cleanses, soothes and restores the natural barrier of your skin. Sebamed Clear Face Deep Cleansing Facial Toner (150mL) gently cleanses the face and removes excess sebum, oil and dirt. Panthenol encourages skin regeneration and hamamelis soothes it. Silk proteins and allantoin act as moisturizers. The pH value of 5.5 supports the natural protective acid mantle and takes biological action against bacteria-causing acne. </t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.emcoop.ae/wp-content/uploads/2021/04/4103040143136.jpg</t>
   </si>
   <si>
@@ -169,6 +176,14 @@
     <t xml:space="preserve">Enzyme Pore Refining Tonner 100ml</t>
   </si>
   <si>
+    <t xml:space="preserve">- Helps refresh and refine pores without dryness
+- Controls Pore and Sebum
+- Cleans and Tones your face
+- For all skin types
+- Uses Natural Ingrdients
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://i.ebayimg.com/images/g/LOIAAOSw-wtifYC9/s-l1600.jpg</t>
   </si>
   <si>
@@ -364,7 +379,10 @@
     <t xml:space="preserve">Bio-Oil Skincare Oil, Body Oil for Stretchmarks and Scars, Hydrates and Tones Skin, Dermatologist Recommended, Non-Comedogenic, Non-Greasy, For All Skin Types, with Vitamin A, E</t>
   </si>
   <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/W/WEBP_402378-T2/images/I/71yl5mKbEnL._SL1500_.jpg</t>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71yl5mKbEnL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71XAN18xTDL._SL1500_.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.in/Bio-Oil-Specialist-Skincare-Oil-60ml/dp/B00GMC04BK?th=1</t>
@@ -385,15 +403,49 @@
     <t xml:space="preserve">Replenishes Skin And Locks In Moisture, For Healthy, Glowing Skin,  With Pure Cocoa Butter</t>
   </si>
   <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/W/WEBP_402378-T2/images/I/71yPHK5WOaL._SL1500_.jpg</t>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71yPHK5WOaL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71wABZd+yaL._SL1500_.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.in/Vaseline-Total-Moisture-Cocoa-Radiant/dp/B0059MUJR8</t>
   </si>
   <si>
+    <t xml:space="preserve">Bio Oil 125ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bio-Oil Skincare Oil helps improve the appearance of scars, stretch marks and uneven skin tone.
+Bio-Oil Skincare Oil helps improve the appearance of scars, stretch marks and uneven skin tone. The clinically proven formulation is a combination of plant extracts and vitamins suspended in an oil base that work together to help improve the skins texture and increase its elasticity.
+Non-comedogenic
+Suitable for sensitive skin
+Can be ideal for use in a daily skincare regime
+Bio-Oil Skincare Oil is the UK’s No.1 selling scar and stretch product.⁺
+95% saw an improvement in the appearance of stretch marks after 2 weeks.*
+92% saw an improvement in the appearance of scars after 8 weeks.*
+The product most recommended by pharmacists for scars and stretch marks.**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lemon.mt/wp-content/uploads/2021/11/Untitled-design-72.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lemon.mt/wp-content/uploads/2021/11/Untitled-design-69.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lemon.mt/product/bio-oil-125ml/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dr Clinic Pitch Madecassoside_Cica Moisturizing Cream 50ml</t>
   </si>
   <si>
+    <t xml:space="preserve">Brand: 	Bioderma
+Scent: 	Unscented 
+Item form: 	Cream
+Unit count: 	16.9 fluid_ounces
+Number of items: 	1
+Use for: 	Whole Body</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://i.ebayimg.com/images/g/DKYAAOSw0bli9WQI/s-l1600.jpg</t>
   </si>
   <si>
@@ -406,6 +458,12 @@
     <t xml:space="preserve">Skincare-beauty body - moisturizing creams, Body cream 500 milliliters, Package Dimensions: 6.604 L x 21.107 H x 6.807 W (centimeters)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41SrlnE7CJL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51ia8Jgx9HL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.amazon.co.uk/Atoderm-Bioderma-Creme-Nourishing-Cream/dp/B00CHLDA1G?th=1</t>
   </si>
   <si>
@@ -425,6 +483,13 @@
   </si>
   <si>
     <t xml:space="preserve">SEPHORA COLLECTION 10 HR Wear Perfection Foundation 8 Light Ivory - 25ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin Type: 	Acne Prone
+Finish Type: 	Natural
+Package Information: 	Bottle
+Brand: 	SEPHORA COLLECTION
+Coverage: 	Buildable Coverage</t>
   </si>
   <si>
     <t xml:space="preserve">https://m.media-amazon.com/images/I/31ZjEkdvtVL.jpg</t>
@@ -531,7 +596,17 @@
     <t xml:space="preserve">Sephora Cream Lip Stain in 13 Marvelous</t>
   </si>
   <si>
+    <t xml:space="preserve">Manufacturer Number : 3378872088172
+Expirable: 0
+Type: Lipstick
+Brand: Sephora
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://m.media-amazon.com/images/I/31pJOFJcKsL._AC_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/610gpccDHLL._AC_SL1080_.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.sa/-/en/Sephora-Cream-Lip-Stain-Marvelous/dp/B081VPRBNC</t>
@@ -850,8 +925,7 @@
     <t xml:space="preserve">https://www.amazon.co.uk/AVENUE-Parfum-spray-Elizabeth-Arden/dp/B00733JDBO</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Scandal by Jean Paul Gaultier Eau de Parfum For Women, 80ml</t>
+    <t xml:space="preserve">Scandal by Jean Paul Gaultier Eau de Parfum For Women, 80ml</t>
   </si>
   <si>
     <t xml:space="preserve">Brand: 	JEAN PAUL GAULTIER
@@ -895,10 +969,10 @@
 Eau de parfum duo set. The scent reveals notes of bergamot, leather and bamboo (I) + bergamot, incense and agarwood (II).</t>
   </si>
   <si>
-    <t xml:space="preserve">https://cf.shopee.com.my/file/176fe4703a3a21add8fe37c1b213bbc5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cf.shopee.com.my/file/62f7b7ad471c8919a5a5162cde2370e9</t>
+    <t xml:space="preserve">https://i.ebayimg.com/images/g/goAAAOSwcw1gpWl5/s-l1600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ebayimg.com/images/g/1DEAAOSwTRRgpWl5/s-l1600.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">https://shopee.com.my/-ORIGINAL-VIBRANT-LEATHER-VIBRANT-LEATHER-OUD-60ML-2.03-OZ-i.117359060.5055264701</t>
@@ -968,9 +1042,7 @@
     <t xml:space="preserve">https://www.amazon.in/Nivea-Protect-Anti-Perspirant-Deodorant-Stick/dp/B07P4CKH36</t>
   </si>
   <si>
-    <t xml:space="preserve">CHANEL
-BLEU DE CHANEL
-Deodorant Spray</t>
+    <t xml:space="preserve">CHANEL BLEU DE CHANEL Deodorant Spray</t>
   </si>
   <si>
     <t xml:space="preserve">The aromatic-woody notes of BLEU DE CHANEL in a deodorant spray. An instant fresh feeling. A moment of well-being that prolongs the lingering scent of the fragrance.
@@ -978,10 +1050,10 @@
 Alcohol-based formula</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.theperfumeshop.com/medias/sys_master/front-zoom/front-zoom/10496501317662/CHANEL-Deodorant-Spray-3145891079302-BLEU-DE-CHANEL.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.theperfumeshop.com/chanel/bleu-de-chanel/deodorant-spray/p/64060DSPYBL</t>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41gsHE6jWGL._SL1024_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/CHANEL-Paris-Deodorant-Vaporisateur-Spray/dp/B0046G5CIE</t>
   </si>
   <si>
     <t xml:space="preserve">Davidoff Zino Deodorant Stick 70g
@@ -1047,9 +1119,7 @@
     <t xml:space="preserve">https://cdn2.jomashop.com/media/catalog/product/b/l/black-xs-paco-rabanne-deodorant-stick-22-oz-m-3349668165438.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">ISSEY MIYAKE
-L'Eau d'Issey Pour Homme
-Deodorant Stick for him</t>
+    <t xml:space="preserve">ISSEY MIYAKE L'Eau d'Issey Pour Homme Deodorant Stick for him</t>
   </si>
   <si>
     <t xml:space="preserve">A gentle, comfortable and delicately scented deodorant stick for maximum protection.
@@ -1057,10 +1127,10 @@
 Tobacco Amber, Musk, Indian Sandalwood, Haitian Vetiver, Cypriol</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.theperfumeshop.com/medias/sys_master/front-zoom/front-zoom/8837275942942/Issey-Miyake-Deodorant-Stick-for-him-3423470311518-L-Eau-d-Issey-Pour-Homme.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.theperfumeshop.com/issey-miyake/leau-dissey-pour-homme/deodorant-stick-for-him/p/70550DSTKBL?varSel=1022128&amp;tduid=7daaf971a39042bb5824d7efa40cdf60&amp;utm_source=tradedoubler&amp;utm_medium=affiliate&amp;utm_campaign=Klarna.com+%28UK%29</t>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41SWNfNGwvL._SL1080_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Issey-Miyake-Deodorant-Alcohol-2-6-Ounce/dp/B001BSIYYO</t>
   </si>
   <si>
     <t xml:space="preserve">Diesel BAD Deo Stick (75g)</t>
@@ -1084,7 +1154,10 @@
 Floral fragrance - fruits for women. Introduction to scented Italian lemon and black currant, The fragrant heart is Moroccan rose, cyclamen, white peaches, and white lilies, The base of the scent consists of cedar wood, amber, and white musk.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://cdnprod.mafretailproxy.com/sys-master-root/h2d/h9d/29107126894622/3516641907440_main_1700Wx1700H</t>
+    <t xml:space="preserve">https://www.perfumeunlimited.com/148055-large_default/franck-olivier-premium-in-pink-w-deodorant-stick-75g.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.perfumeunlimited.com/bath-line/franck-olivier-premium-in-pink-w-deodorant-stick-75g.html</t>
   </si>
   <si>
     <t xml:space="preserve">Franck Olivier Premium Night Touch - Deodorant Stick, 75 Gram</t>
@@ -1099,8 +1172,7 @@
     <t xml:space="preserve">https://www.frenchfragrance.com/bath-body/franck-olivier-premium-night-touch-deodorant-stick-75-gram.html</t>
   </si>
   <si>
-    <t xml:space="preserve">
-BURBERRY Brit Splash Deodorant Stick For Men, 75 ml</t>
+    <t xml:space="preserve">BURBERRY Brit Splash Deodorant Stick For Men, 75 ml</t>
   </si>
   <si>
     <t xml:space="preserve">Brand: 	BURBERRY
@@ -1235,7 +1307,7 @@
     <t xml:space="preserve">https://www.amazon.co.uk/Dior-Fahrenheit-Deo-Stick-75/dp/B001CT07CE</t>
   </si>
   <si>
-    <t xml:space="preserve">CK One by Calvin Klein 2.6 oz Deodorant Stick</t>
+    <t xml:space="preserve">Calvin Klein one Deodorant, 2.6 Oz.</t>
   </si>
   <si>
     <t xml:space="preserve">Launched in 1994, Calvin Klein introduced the shared fragrance cK one for a new generation in fragrance. This fragrance is a revolutionary fresh and crisp scent.
@@ -1246,10 +1318,10 @@
 - Launched in 1994, Calvin Klein introduced the shared fragrance cK one for a new generation in fragrance.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://i5.walmartimages.com/asr/3631e58d-65cf-4b02-9359-2771d28aa448_1.2daa83af43923335ca8ead526580d522.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=FFFFFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.walmart.com/ip/CK-One-by-Calvin-Klein-2-6-oz-Deodorant-Stick/256301119</t>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61wDkokG0bL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Calvin-Klein-one-Deodorant-2-6/dp/B000VON764</t>
   </si>
   <si>
     <t xml:space="preserve">BURBERRY Brit Splash Deodorant Stick For Men, 75 ml </t>
@@ -1261,8 +1333,7 @@
 Burberry Brit Splash Deo Stick for Men features crisp rosemary, a watery accord and moss. Perfect for special occasions and parties. It gives long lasting fragrance. It is made from best the best ingredients.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Montblanc - Explorer Ultra Blue Deostick 75 gr Black</t>
+    <t xml:space="preserve">Montblanc - Explorer Ultra Blue Deostick 75 gr Black</t>
   </si>
   <si>
     <t xml:space="preserve">Inspired by the blue of the sky, the seas and the ice-covered mountains, Montblanc Explorer Ultra Blue captures the adventure of the explorer who breaks up to an epic scent journey. A citrus maritime woody fragrance with a radiant top note of tingling Italian bergamot and the finest citrus fruits, a maritime chord as a beating heart of the fragrance and earthy base notes of patchouli, combined with precious woods and leathery facets.</t>
@@ -1308,7 +1379,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1342,11 +1413,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1400,12 +1466,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1428,10 +1494,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
   </cols>
@@ -1460,47 +1526,65 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3753</v>
+      </c>
       <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>100000</v>
+      </c>
       <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3746</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3748</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="D4" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3750</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>170000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1522,10 +1606,10 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1551,45 +1635,54 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3821</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
-        <v>139</v>
+      <c r="A3" s="1" t="n">
+        <v>3823</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3826</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1611,10 +1704,10 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1640,54 +1733,63 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3829</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3831</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3833</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1709,10 +1811,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1738,20 +1840,23 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3836</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1773,10 +1878,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1801,15 +1906,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
-        <v>162</v>
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3840</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>250000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>163</v>
+        <v>177</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>178</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1828,13 +1945,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1864,19 +1981,19 @@
         <v>3521</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1884,39 +2001,39 @@
         <v>3523</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3569</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>173</v>
+      <c r="B4" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1924,22 +2041,22 @@
         <v>3527</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1947,22 +2064,22 @@
         <v>3531</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,22 +2087,22 @@
         <v>3534</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>700000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1993,22 +2110,22 @@
         <v>3538</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,22 +2133,22 @@
         <v>3559</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,22 +2156,22 @@
         <v>3541</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,22 +2179,22 @@
         <v>3571</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2085,22 +2202,22 @@
         <v>3544</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1300000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2108,22 +2225,22 @@
         <v>3547</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,19 +2248,19 @@
         <v>3550</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,212 +2268,292 @@
         <v>3552</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>3555</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>3843</v>
+      </c>
       <c r="B17" s="0" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>3845</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>3848</v>
+      </c>
       <c r="B19" s="0" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>3850</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>3853</v>
+      </c>
       <c r="B21" s="0" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>3863</v>
+      </c>
       <c r="B22" s="0" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>3855</v>
+      </c>
       <c r="B23" s="0" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>3858</v>
+      </c>
       <c r="B24" s="0" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>3860</v>
+      </c>
       <c r="B25" s="0" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>275</v>
-      </c>
-    </row>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2375,11 +2572,11 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2404,424 +2601,499 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3867</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3912</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3870</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3872</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="58.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3874</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>155000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>3876</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>3914</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>3878</v>
+      </c>
       <c r="B9" s="0" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>3918</v>
+      </c>
       <c r="B10" s="0" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>311</v>
+        <v>326</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>3880</v>
+      </c>
       <c r="B11" s="0" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>3883</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>3885</v>
+      </c>
       <c r="B13" s="0" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>3887</v>
+      </c>
       <c r="B14" s="0" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>3889</v>
+      </c>
       <c r="B15" s="0" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="s">
-        <v>332</v>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>3891</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>3893</v>
+      </c>
       <c r="B17" s="0" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>3895</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>3897</v>
+      </c>
       <c r="B19" s="0" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>3900</v>
+      </c>
       <c r="B20" s="0" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>352</v>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>3916</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>3903</v>
+      </c>
       <c r="B22" s="0" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>3905</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>3908</v>
+      </c>
       <c r="B24" s="0" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>3910</v>
+      </c>
       <c r="B25" s="0" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -2842,11 +3114,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2863,13 +3135,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2895,52 +3167,67 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3756</v>
+      </c>
       <c r="B2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3758</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3760</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="0" t="n">
@@ -2954,6 +3241,9 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3764</v>
+      </c>
       <c r="B6" s="0" t="s">
         <v>32</v>
       </c>
@@ -2968,6 +3258,20 @@
       </c>
       <c r="G6" s="0" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2986,13 +3290,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3018,93 +3322,103 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3777</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>60000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3779</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>60000</v>
+        <v>320000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3781</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>300000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3783</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3785</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>250000</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3126,10 +3440,10 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3155,178 +3469,214 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3216</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>240000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3220</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>110000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3786</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3224</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3226</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>3228</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>3230</v>
+      </c>
       <c r="B8" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>3232</v>
+      </c>
       <c r="B9" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>3234</v>
+      </c>
       <c r="B10" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>3236</v>
+      </c>
       <c r="B11" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>3789</v>
+      </c>
       <c r="B12" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="0" t="n">
         <v>150000</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="E12" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3348,10 +3698,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3377,34 +3727,43 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3794</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3793</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>210000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3423,13 +3782,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3455,51 +3814,83 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3801</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>112</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3798</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>190000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3804</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>120</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3521,10 +3912,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3549,29 +3940,47 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3807</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>170000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3810</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>240000</v>
       </c>
+      <c r="E3" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>134</v>
+      </c>
       <c r="G3" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3593,10 +4002,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3622,22 +4031,28 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3813</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>125</v>
+        <v>137</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>50000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>60000</v>
@@ -3662,10 +4077,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3690,35 +4105,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3816</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>80000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3818</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/cosmetics.xlsx
+++ b/sheets/cosmetics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="serums" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="496">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1023,6 +1023,460 @@
     <t xml:space="preserve">https://www.amazon.sg/Sexy-Carolina-Herrera-Toilette-Spray/dp/B001FWXHQG</t>
   </si>
   <si>
+    <t xml:space="preserve">GIORGIO ARMANI Acqua Di Gioia Eau de Parfum Spray, 3.4 Ounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crushed Mint Leaves And Lemon Limone Primo Fiore Femminello From Calabria
+Aquatic Jasmine, Dewy Peony And Pink Pepper
+Cedar, Yellow Sugar And Labdanum
+Product Dimensions:	5 x 7 x 9 inches (12.7 x 17.8 x 237.6 cm); 3.53 Ounces (100.08 grams)
+Item model number:	GA559909
+Department:	Women's
+Manufacturer:	Giorgio Armani
+Brand:	GIORGIO ARMANI
+Item Form:	Spray
+Item Volume:	100 Milliliters
+Scent:	Fresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71QR9o1MJeL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71ZOkFbJu7L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ubuy.ug/en/product/36FQ2O6-giorgio-armani-acqua-di-gioia-eau-de-parfum-spray-3-4-ounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria Secret Very Sexy Eau de Parfume, 50 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Victoria's Secret
+Item form”	Liquid
+Item volume:	1.7 Fluid Ounces
+Scent:	Fruity
+Item weight:	0.1 Pounds
+- New look, same iconic fragrance
+- Fragrance type: Warm
+- Notes: Vanilla Orchid, Sun-drenched Clementine, Midnight Blackberry
+- 50ml/1.7 oz
+Victoria's Secret Very Sexy Eau de Parfum 50ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51NSG0J2zNL._SL1143_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61dZ3CpOFdL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.de/-/en/Victoria-Secret-Very-Sexy-Parfume/dp/B07MC2682S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paco Rabanne Pure XS EDP 80ml Perfume For Women
+Regular price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pure XS for women. The new female fragrance from Paco Rabanne. A wild provocative floral oriental, with the electrifying Emily Ratajkowski. Having it all. In excess. Disarming allure, you can feel her sex-appeal. Just a hint of nonchalance. Bold and beautiful. Tonnes of talent. As intoxicating as it is intriguing. Pure XS for her captivates, accelerates and escalates the senses. The origin of obsession. Ylang-ylang for the raw, the untamed, the erotic. Next up, hot vanilla and an intriguing popcorn-note burst. Excess in its purest state.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0621/1911/6979/products/paco_rabanne_pure_xs_for_women_1946x.png?v=1653340206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Carolina Herrera Good Girl Eau De Parfum, 2.7 Fl Oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size:2.7 Fl Oz (Pack of 1)
+Brand:	Carolina Herrera
+Item Form:	toilette
+Item Volume:	2.7 Fluid Ounces
+Scent:	Floral
+Fragrance Concentration:	eau_de_parfum
+The essence of a woman who is tailored by day, brilliant by night
+Evokes the freshness of a moment, the intrigue of a night under the stars, envelops with memorable intensity.
+When fantasy becomes reality.
+Top Notes - Almond. Middle Notes - Jasmine Sambac, Tuberose. Bottom Notes - Tonka Bean, Cocoa, Coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61RW2ohrz5L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51p2hRi1-VL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Carolina-Herrera-Parfum-Fluid-Ounce/dp/B01KYQTVYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERSACE Crystal Noir, Eau De Parfum Natural Spray, 90ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versace Crystal Noir For Women Parfum Spray 3.0 OZ BoxFounded in 1978 in Milan,Gianni Versace is one of the leading international fashion design houses and a symbol of Italian luxury world-wide.
+It designs, manufactures, distributes and retails fashion and lifestyle products including haute couture, prèt-à-porter, accessories, jewelry, watches, eyewear, fragrances, and home furnishings all bearing the distinctive Medusa logo.
+Brand:	Versace
+SKU:	8018365070462
+Model: 	SIMPLE PACK
+Size Type: 	Regular Size
+Formulation: 	Spray
+Type: 	Eau de Parfum
+Volume: 	3.0 OZ
+Fragrance Name: 	Crystal NOIR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lcdn.altex.ro/media/catalog/product/P/R/PRFVERSA0095_11.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lcdn.altex.ro/media/catalog/product/P/R/PRFVERSA0095_31.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://altex.ro/apa-de-parfum-versace-crystal-noir-femei-90ml/cpd/PRFVERSA0095/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versace Eros Eau De Toilette Spray For Men 100Ml/3.4Oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Versace
+Item form:	Spray
+Item volume:	150 Milliliters
+Scent:	Oriental, Green Apple, Mint, Wood , Lemon
+Age range (description): Adult
+Versace brand and to depict style and significance of long-lasting design, quality and popularity
+The fragrance includes mint oil combined with green apple and Italian lemon
+Warmth is provided by tonka mixed with Venezuelan ambroxan and geranium flowers giving a fougere twist to the fragrance this way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61j1jrAGuiL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71I33Ob9-LL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/Eros-Eau-Toilette-Spray-100ml/dp/B00DP3DD1W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versace Pour Homme Eau De Toilette Spray, 3.4 Ounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scent: Virtuosic ,Unique.
+Size: 3.40 Fl Oz (Pack of 1)
+Brand:	Versace
+Item Form:	Liquid
+Item Volume:	100 Milliliters
+Scent:	Virtuosic ,Unique.
+Special Feature:	Not-Applicable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61KuGoC1t5L._SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Versace-Homme-Toilette-Natural-Spray/dp/B001PTFWG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ken Kessey Moniz Miller For Men Eau De Parfum 60ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ken Kessey's Moniz Miller for men will draw an away of compliments when you wear. spritz on moniz miller in the morning and enjoy how this long lasting scent stays with you throughout your busy day. moniz miller laced with notes of britch and black currant for an intense masculine aroma. This scent incorporates bergamot and pineapple for finish balance the more robust notes. You can use this perfume in the morning and see how it will last throughout the day.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0604/3552/9913/products/montzmiller1.jpg?v=1655541449&amp;width=1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0604/3552/9913/products/montzmiller1-1.jpg?v=1655541449&amp;width=1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://perfumegallery.ae/products/moniz-miller-edp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gucci Bamboo by Gucci for Women 2.5 oz Eau de Parfum Spray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Gucci
+Item Form:	Liquid
+Item Volume:	75 Milliliters
+Scent:	Eau De Parfum
+Fragrance Concentration:	eau_de_parfum
+Gucci Bamboo by Gucci for Women 2.5 oz Eau de Parfum Spray: Buy Gucci Perfumes - Gucci Bamboo by Gucci for Women 2.5 oz Eau de Parfum Spray
+Item Condition: 100% authentic, new and unused. Gucci Bamboo by Gucci for Women 2.5 oz Eau de Parfum Spray.
+Type: Eau De Parfum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61N1FiR9TSL._SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Gucci-Bamboo-Parfum-Spray-Women/dp/B00ZCIHYRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gucci Premiere Eau de Parfum 75ml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Brand: Gucci
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Gucci Premiere Eau De Parfum released in 2012 was an honorary dedication to Gucci’s hot Premier couture collection first displayed in the 2010 Cannes and the perfume derives inspiration from this very couture, encouraging women to find the glowing star within them. Clad in absolute with an enigmatic elegance hanging in the air around- this fragrance celebrates all the bravery, the exuberance, the confidence and the achievements that modern women have managed to succeed.   For the top note, black berry joins in with bergamot instilling the introductory note with ounces of freshness. The middle note now comes in with white flowers, orange blossom and musk essence while the last layer, i.e. the base uses nothing but patchouli and sandalwood on other woodsy accords thereby establishing a serene ending to the otherwise robust perfume</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0322/9106/1899/products/Gucci_Premiere_Eau_de_Parfum_75ml___LabSquared___Online_Perfume_Store_in_Lagos___Designer_perfumes_in_Nigeria__47813_1024x1024.jpg?v=1580396657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dscentsation.ng/products/premiere-eau-de-parfum-75ml#images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean Paul Gaultier Le Male for Men, 6.7 Ounce Eau de Toilette Spray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Jean Paul Gaultier
+Item Form:	Spray
+Item Volume:	200 Milliliters
+Scent:	Cinnamon,Fresh,Lavender,Mint,Orange,Vanilla
+Age Range (Description):	Adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/513uR67CLaL._SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Jean-Paul-Gaultier-Ounce-Toilette/dp/B071G96HNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERRE D'HERMES by Hermes PARFUM SPRAY 2.5 OZ by Hermes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	HERMES
+Item Form:	Spray
+Item Volume:	75 Millilitres
+Item Weight:	6 Ounces
+Net Quantity:	1.00 count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/816Mw+JfNZL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/91E6bVUevmL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/TERRE-DHERMES-Hermes-PARFUM-SPRAY/dp/B003B7U5WC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lalique Encre Noire A L'Extreme 100ml EDP (M) SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0008/4285/8551/products/enale33m_1_800x.jpg?v=1649209441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://priceritemart.com.au/collections/lalique/products/lalique-encre-noire-a-l-extreme-100ml-edp-m-sp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lalique Encre Noire 100ml EDT (M) SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encre Noire by Lalique is a Woody Aromatic fragrance for men. Encre Noire was launched in 2006. The nose behind this fragrance is Nathalie Lorson. Top note is cypress; middle note is vetiver; base notes are musk and cashmere wood.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0008/4285/8551/products/17_1_d6aed9fe-13ee-45e5-84bb-7e812095c0fb_2000x.jpg?v=1627429684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://priceritemart.com.au/collections/lalique/products/lalique-encre-noire-100ml-edt-m-sp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCIS KURKDJIAN Baccarat Rouge 540 Perfume 70 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	FRANCIS KURKDJIAN
+Item form:	Liquid
+Item volume:	70 Millilitres
+Scent:	Wood 
+Special feature:	Natural ingredients
+Fragrance for women
+Fragrance: woody sweet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61dbLNxoILL.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51QwNNeEiCL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.de/-/en/FRANCIS-KURKDJIAN-Baccarat-Rouge-Perfume/dp/B074V34X4C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabeth Arden White Tea EDT for Women (100ml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% Original
+Made in Spain
+Longevity: Moderate
+Sillage: Moderate
+Best Using time: Spring, Summer and Day Time
+Elizabeth Arden White Tea EDT for Women by Elizabeth Arden is a Woody Floral Musk fragrance for women. Elizabeth Arden White Tea was launched in 2017. White Tea was created by Rodrigo Flores-Roux, Guillaume Flavigny and Caroline Sabas. It is a refreshing scent that is likened by its creator to ‘the simple pleasure that accompanies the first sip of tea. The top notes are inviting and are reminiscent of a summer’s day with sea breeze accord and Italian mandarin. The feminine heart notes consist of mate absolute Paraguay and white tea extract. The base notes add the finishing touches and are ambrette seed, Madras wood and musk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://perfumedokan.com/wp-content/uploads/2022/11/Elizabeth-Arden-White-Tea-EDT-for-Women.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://perfumedokan.com/wp-content/uploads/2022/11/Elizabeth-Arden-White-Tea-EDT-for-Women-Bottle.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://perfumedokan.com/product/elizabeth-arden-white-tea-edt-for-women/#&amp;gid=null&amp;pid=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La Nuit Tresor A La Folie by Lancome for Women - Eau de Parfum, 75ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Nuit Tresor A La Folie By Lancome For Women
+Fragrance Type : Eau de Parfum
+Size : 75ml
+Targeted Group : Women
+Fragrance Family : Oriental &amp; Citrus
+Perfume Name : La Nuit Tresor A La Folie
+Brand : Lancome
+La Nuit Trésor à la Folie by Lancôme is a Amber Vanilla fragrance for women. La Nuit Trésor à la Folie was launched in 2018. La Nuit Trésor à la Folie was created by Christophe Raynaud, Amandine Clerc-Marie and Honorine Blanc. Top notes are Red Currant, Pear, Pink Pepper and Bergamot; middle notes are Damask Rose, Violet, Peony and Jasmine; base notes are Bourbon Vanilla, Tonka Bean, Benzoin, Nutmeg, Ambroxan, Patchouli and Woody Notes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fimgs.net/mdimg/perfume/375x500.48019.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51hL0L9Uu6L._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fragrantica.com/perfume/Lancome/La-Nuit-Tresor-a-la-Folie-48019.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ard Al Zaafaran AHLAM AL ARAB Eau de Parfum - 100 ml  (For Men &amp; Women)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity: 100 ml
+Ideal For: Men &amp; Women
+Fragrance Classification: Eau de Parfum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rukminim1.flixcart.com/image/416/416/l1i6w7k0/perfume/n/o/c/100-ahlam-al-arab-eau-de-parfum-ard-al-zaafaran-men-women-original-imagdfytjhqc2dcr.jpeg?q=70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.flipkart.com/ard-al-zaafaran-ahlam-arab-eau-de-parfum-100-ml/p/itm0b0aa18e98619?pid=PERGDFYTCGXF9G7T&amp;lid=LSTPERGDFYTCGXF9G7T689RTJ&amp;marketplace=FLIPKART&amp;store=g9b%2F0yh&amp;srno=b_1_6&amp;otracker=browse&amp;iid=eb49bf04-3bbf-4d1d-b444-d645a9d4d991.PERGDFYTCGXF9G7T.SEARCH&amp;ssid=r1egskx9s00000001675434576404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUD 24 HOURS BY ARD AL ZAAFARAN ORIENTAL AGARWOODY VANILLA EAU DE PARFUM 100ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Form:	Liquid
+Item Volume:	100 Milliliters
+Scent:	Vanilla
+Age Range (Description):	Adult
+Number of Items:	1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41+iOikLYqL.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/ZAAFARAN-ORIENTAL-AGARWOODY-VANILLA-PARFUM/dp/B074SCP7TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZARAH LUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lattafa Opulent Oud Eau de Parfum unisex 100 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eau de Parfum unisex
+Opulent Oud by Lattafa Perfumes is a Amber fragrance for women and men. Top notes are Saffron, Floral Notes and Citruses; middle notes are Agarwood (Oud), Caramel and Amber; base notes are Vanilla, resins, Woodsy Notes, Patchouli and Musk.
+size 100 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://brastygroup.vshcdn.net/images/w600/130328-3.jpg?v=1675078930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://brastygroup.vshcdn.net/images/w600/130328-1.jpg?v=1675078930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.brasty.co.uk/lattafa-opulent-oud-eau-de-parfum-unisex-100-ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss Arabian Gharaam by Swiss Arabian - Eau De Parfum Spray (Unisex) 1.7 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss Arabian Gharaam Cologne by Swiss Arabian, Swiss Arabian Gharaam is inspired by the first stages of love. A woody, aromatic fragrance for men, the elixir is exotically alluring. Its top notes of jasmine and saffron produce the sweet, rich introduction, which could be said to replicate the yearning a person has for their romantic interest. The sole heart note of golden amber issues its honeyed musk, oozing with warmth and comfort. Fir and cedar are the base notes, imparting a woody freshness to the fragrance and striking a gorgeous balance with the floral and spicy top notes. The scent is particularly well-suited to evening wear in the cooler seasons when its natural warmth and richness glow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://img.fragrancex.com/images/products/parent/medium/78382m.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fragrancex.com/products/swiss-arabian/swiss-arabian-gharaam-cologne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marc Avento Blend by Marc Avento 100ml Spray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marc Avento Blend by Marc Avento, This royal fragrance is possible thanks to a fine balance of wood and spice. It meets the highest expectations with its sophistication, signature and exclusive quality. As you spray it, a trio of pimento, nutmeg and bergamot dances with noble woods such as vetiver, cashmere wood and cedar wood. The whole fine blend is supported by dry amber, luban and white musk, playing out in harmony an everlasting tale.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ebayimg.com/images/g/Dq4AAOSw2Zhf76rq/s-l300.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ebayimg.com/images/g/lZAAAOSwiLVf76rn/s-l300.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebay.com/itm/143905680927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colour Me Pink - Fragrance for Women - 100ml Eau de Parfum, by Milton-Lloyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size Name:100 ml (Pack of 1)
+Brand:	COLOUR ME
+Item form:	Spray
+Item volume:	3.38 Fluid Ounces
+Scent:	FLORAL, WARM AND ROMANTIC
+Special feature:	Long Lasting
+White rose petals and almond blossom nestle around a joyous bouquet of geranium, heliotrope and lilies. This enveloping, romantic perfume scintillates the senses and dries down to a warm, alluring subtle aroma of vanilla and musks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71yTAwCGuvL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61cyZ26KnZL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/Colour-Pink-Parfum-Spray-Women/dp/B00F991ZD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essenza Velours D''or EDP (100ml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Essenza
+Item form:	Liquid
+Age range (description): 	Adult
+Number of Items:	1
+Unit count:	100 millilitres
+- Comes from the brand Essenza
+- Amount: 100ml
+- Hygienic packaging
+- Formulated with care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61MkJKvJiDL._AC_SL1080_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51y03jBdImS._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/Essenza-Velours-Dor-EDP-100ml/dp/B08B5CVP13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nivea Protect &amp; Care Anti-Perspirant Deodorant Stick</t>
   </si>
   <si>
@@ -1379,7 +1833,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1413,6 +1867,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1497,7 +1956,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
   </cols>
@@ -1609,7 +2068,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1707,7 +2166,7 @@
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1814,7 +2273,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1881,7 +2340,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1945,13 +2404,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2501,31 +2960,458 @@
         <v>290</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>280000</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>280000</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>2558</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1450000</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>480000</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>225000</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
     <row r="51" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="53" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2572,11 +3458,11 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2606,22 +3492,22 @@
         <v>3867</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>291</v>
+        <v>400</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>292</v>
+        <v>401</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>293</v>
+        <v>402</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>294</v>
+        <v>403</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>295</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2629,19 +3515,19 @@
         <v>3912</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>296</v>
+        <v>405</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>297</v>
+        <v>406</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>298</v>
+        <v>407</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>299</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,22 +3535,22 @@
         <v>3870</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>300</v>
+        <v>409</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>301</v>
+        <v>410</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>302</v>
+        <v>411</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>303</v>
+        <v>412</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>304</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2672,19 +3558,19 @@
         <v>3872</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>305</v>
+        <v>414</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>306</v>
+        <v>415</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>307</v>
+        <v>416</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>308</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="58.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2692,19 +3578,19 @@
         <v>3874</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>309</v>
+        <v>418</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>310</v>
+        <v>419</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>155000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>311</v>
+        <v>420</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>312</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2712,16 +3598,16 @@
         <v>3876</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>313</v>
+        <v>422</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>314</v>
+        <v>423</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>315</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2729,19 +3615,19 @@
         <v>3914</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>316</v>
+        <v>425</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>317</v>
+        <v>426</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>318</v>
+        <v>427</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>319</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2749,19 +3635,19 @@
         <v>3878</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>320</v>
+        <v>429</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>321</v>
+        <v>430</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>322</v>
+        <v>431</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>323</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2769,19 +3655,19 @@
         <v>3918</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>324</v>
+        <v>433</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>325</v>
+        <v>434</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>326</v>
+        <v>435</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>327</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2789,19 +3675,19 @@
         <v>3880</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>328</v>
+        <v>437</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>330</v>
+        <v>439</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>331</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2809,22 +3695,22 @@
         <v>3883</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>332</v>
+        <v>441</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>333</v>
+        <v>442</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>334</v>
+        <v>443</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>335</v>
+        <v>444</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>336</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2832,19 +3718,19 @@
         <v>3885</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>337</v>
+        <v>446</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>338</v>
+        <v>447</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>339</v>
+        <v>448</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>340</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2852,19 +3738,19 @@
         <v>3887</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>341</v>
+        <v>450</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>329</v>
+        <v>438</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>342</v>
+        <v>451</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>343</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2872,19 +3758,19 @@
         <v>3889</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>344</v>
+        <v>453</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>345</v>
+        <v>454</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>346</v>
+        <v>455</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>347</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2892,19 +3778,19 @@
         <v>3891</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>348</v>
+        <v>457</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>349</v>
+        <v>458</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>346</v>
+        <v>455</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>350</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2912,19 +3798,19 @@
         <v>3893</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>351</v>
+        <v>460</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>352</v>
+        <v>461</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>353</v>
+        <v>462</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>354</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2932,19 +3818,19 @@
         <v>3895</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>355</v>
+        <v>464</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>356</v>
+        <v>465</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>357</v>
+        <v>466</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>358</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2952,19 +3838,19 @@
         <v>3897</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>359</v>
+        <v>468</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>360</v>
+        <v>469</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>361</v>
+        <v>470</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>362</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2972,22 +3858,22 @@
         <v>3900</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>364</v>
+        <v>473</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>365</v>
+        <v>474</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>366</v>
+        <v>475</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>367</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2995,19 +3881,19 @@
         <v>3916</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>368</v>
+        <v>477</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>369</v>
+        <v>478</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>370</v>
+        <v>479</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>371</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3015,22 +3901,22 @@
         <v>3903</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>372</v>
+        <v>481</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>373</v>
+        <v>482</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>334</v>
+        <v>443</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>335</v>
+        <v>444</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>336</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,19 +3924,19 @@
         <v>3905</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>374</v>
+        <v>483</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>375</v>
+        <v>484</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>376</v>
+        <v>485</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>377</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3058,22 +3944,22 @@
         <v>3908</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>378</v>
+        <v>487</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>379</v>
+        <v>488</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>380</v>
+        <v>489</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>381</v>
+        <v>490</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>382</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3081,19 +3967,19 @@
         <v>3910</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>383</v>
+        <v>492</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>384</v>
+        <v>493</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>385</v>
+        <v>494</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>386</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -3118,7 +4004,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3141,7 +4027,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3296,7 +4182,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3443,7 +4329,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3701,7 +4587,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3788,7 +4674,7 @@
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3915,7 +4801,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4005,7 +4891,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4080,7 +4966,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/sheets/cosmetics.xlsx
+++ b/sheets/cosmetics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="serums" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,6 +24,7 @@
     <sheet name="perfumes" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="deodorants" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="hand-forming-soaps" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="body-soap" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="857">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -349,6 +350,351 @@
     <t xml:space="preserve">https://www.amazon.in/Body-Shop-Strawberry-Yogurt-Moisturizer/dp/B07BKFY27Z</t>
   </si>
   <si>
+    <t xml:space="preserve">Pink Golden Honey Body Lotion (8 fl oz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Victoria's Secret
+Scent: 	Golden Honey
+Item Form: 	Cream
+Unit Count: 	8.00 Fl Oz
+Number of Items: 	1
+    - Victoria's Secret Pink Golden Honey
+    - Honey harvests, golden light and autumn air.
+    - It’s fall bottled with notes of Honeysuckle, Dewy Pear and Vanilla Amber.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51KPK69n1OL._SL1013_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51hxI87QxLL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Pink-Golden-Honey-Body-Lotion/dp/B09H59D72R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICTORIA'S SECRET BODY LOTION LIMITED EDITION JASMINE ALLURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensual, night-blooming scent for a dark twist on floral fragrance. 
+This limited-edition lotion was inspired by flowers at midnight: Blooming Jasmine. Purple Passionfruit. Thrill of the night.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thebeautyspotlb.com/gallery/images/products/1618992268victoria-secret-website54.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thebeautyspotlb.com/product/530/VICTORIA'S-SECRET-BODY-LOTION-LIMITED-EDITION-JASMINE-ALLURE/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret Pink Cool and Bright Fragrance Lotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Victoria's Secret
+Scent: 	Cool and Bright
+Item Form: 	Lotion
+Unit Count: 	8.00 Fl Oz
+Number of Items: 	1
+    A scent blend to inspire living on the bright side. Sparkling. Bright. Serene. With notes of Chill Pear, White Orchid and Zesty Orange.
+    Hydrating formula delivers 24 hours of moisture.
+    82% Post-Consumer Recycled Plastic Tube
+    Dye-Free and Vegan
+    236 ml/8 fl. oz.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61VN7qYlTKL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Cool-Bright-Victorias-Secret-Women/dp/B08LBRPR8T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret Autumn Blossom Scented Body Lotion For Women 8oz (Autumn Blossom) 8 Fl Oz (Pack of 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Victoria's Secret
+Scent: 	Autumn Blossom
+Item Form: 	Lotion
+Unit Count: 	8.00 Fl Oz
+Number of Items: 	1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/517oJiJ4AEL._SL1466_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51yh1p6EBEL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Victorias-Secret-Autumn-Blossom-Scented/dp/B0BF297V7G?source=ps-sl-shoppingads-lpcontext&amp;ref_=fplfs&amp;psc=1&amp;smid=A20E8KH23G6FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret PINK Soft n Dreamy Body Lotion 8.4 oz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Smells like fluffy blooms, lavender moons and flower crowns. Reach for the sky. Fragrance style: Floral with Violet Petals, Sun-kissed Woods and Fresh Peony. Scent your world! Fresh, dreamy, cozy and beyond. This hydrating formula delivers 24 hours of moisture for soft, scented skin. Layer up with your favorite mist and set your #bestself vibe. 
+Smooth. Love. Repeat! Model: 74539.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.shopmyexchange.com/products/images/xlarge/2294640_0000.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.shopmyexchange.com/victoria-s-secret-pink-soft-n-dreamy-body-lotion-8-4-oz-/2294640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret Pink New! 24-Hour Moisture Body Lotion WARM &amp; COZY 236ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay Cozy every Sunday. Layer up under your favourite mists for an added dose of scent + softness. 
+    Fragrance type: Warm
+    Notes: Soft Vanilla, Toasted Coconut &amp; Passionfruit
+    24 hour moisture
+    Against animal testing
+    With essential oils
+    Scents that empower, never overpower
+    236 ml/8 fl. oz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ebayimg.com/images/g/rVMAAOSwJN5hS0Ab/s-l1600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret Romantic Lotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Victoria's Secret
+Scent: 	Romantic
+Item Form: 	Lotion
+Unit Count: 	8.40 Fl Oz
+Number of Items: 	1
+Smells like pink petals, sheer musk, and falling for you.
+Our fast-absorbing, fragrance lotion with 24-Hour Moisture is perfect for hands and body.
+Layer on top of matching Romantic Mist for a long-lasting fragrance experience.
+Discover The Mist Collection. Scents that celebrate all that's individual, unique and of the moment. Shop Amber 
+Romance, Pure Seduction, Velvet Petals, Love Spell, Midnight Bloom, Coconut Passion, Aqua Kiss, Romantic, Rush and Temptation.
+Fragrance Style: Fruity Floral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41KicBHMlVL.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/214CmJLVEYL.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Victorias-Secret-Romantic-Fragrance-Lotion/dp/B07T2DXLCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret PINK Hello, Fall Body Lotion - Sweet Orchard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let’s take this outside. This autumn-inspired scent collection bottle the best of the season with two transportive, cozy-comfort fragrance blends.
+SWEET ORCHARD
+    Cider doughnuts, spiced sips and sundrenched leaves. It’s fall bottled, with notes of Toasted Coconut, Pink Sugar and Apple Rose. 
+    Style: Warm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.store-assets.com/s/139218/i/36144073.jpg?width=1024&amp;format=webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.store-assets.com/s/139218/i/36105290.jpg?width=1024&amp;format=webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beautyspot.my/collections/sale/products/victorias-secret-pink-hello-fall-body-lotion-sweet-orchard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bath and Body Works Vanilla Bean Noel Shimmer Fizz Body Lotion 3.5 Ounce (2018 Edition) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Bath &amp; Body Works
+Scent: 	Fresh,Vanilla
+Item Form: 	Lotion
+Active Ingredients: 	Dimethicone
+Unit Count: 	3.5 Ounce
+Christmas smells like a wintry sweet treat of fresh vanilla bean, sugar cookies, warm caramel, whipped cream &amp; snow-kissed musk
+It's the most wonderful time of the year — indulge in our most festive vanilla fragrance!
+Our fun, fizzy body lotion contains vitamins A &amp; E (plus a kiss of shimmer!) to leave skin silky soft &amp; oh-so sparkly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ebayimg.com/images/g/ItUAAOSwIytgTZVv/s-l1600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Bath-Body-Works-VANILLA-Shimmer/dp/B07KDSY8GX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pure Wonder – Daily Nourishing Body Lotion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What it smells like: a dreamy, warm, joyfully bright delight.
+Fragrance notes: iced rosé, star jasmine and warm white amber.
+8 fl oz / 236 mL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.ca/dw/image/v2/BGFZ_PRD/on/demandware.static/-/Sites-bbw_ca-storefront-catalog/default/dwe1d6906a/hires/026355706.jpg?sw=1000&amp;sh=1000&amp;sm=fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath and Body Works in The Stars Super Smooth Body Lotion 8 Fluid Ounce (2018 Limited Edition)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Bath &amp; Body Works
+Scent: 	Coconut,Sandalwood
+Item Form: 	Lotion
+Active Ingredients: 	shea butter
+Unit Count: 	8.00 Fl Oz
+Make every moment glow with an addictive fragrance that radiates from start to finish like the stars above.
+In The Stars is a warm, sparkling blend of starflower, sandalwood musk, sugared tangelo, white agarwood &amp; radiant amber.
+Add sparkle to any day with our warm &amp; captivating In The Stars Super Smooth Body Lotion! It’s truly unlike anything on earth!
+Infused with shea butter, coconut oil &amp; vitamin E, it melts into skin for 24 hours of nourishing moisture (guaranteed!), leaving you feeling oh-so smooth &amp; radiant.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61VMC8ogSML._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Bath-Body-Works-Smooth-Limited/dp/B07LDYDQT5?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Bean Noel – Super Smooth Body Lotion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wintry sweet treat of fresh vanilla bean, sugar cookies, warm caramel, whipped cream and snow-kissed musk in our nutrient-rich, non-greasy lotion
+Celebrate the holiday season with this classic Bath &amp; Body Works Christmas favorite! Our dermatologist-tested Super Smooth Body Lotion provides 24 hours of nourishing moisture — guaranteed! Infused with shea butter, coconut oil and vitamin E, it absorbs quickly into skin, so it feels noticeably softer after use. 
+ 8 fl oz / 236 mL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.it/dw/image/v2/BDNZ_PRD/on/demandware.static/-/Sites-bbw-catalog/default/dw1a109d9d/images_bbw/hires/026335799.jpg?sw=700&amp;sh=942&amp;sm=fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.it/en/vanilla-bean-noel-super-smooth-body-lotion/26338401/prodotto/B111936551779.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works – Japanese Cherry BlossomDaily Nourishing Body Lotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size/Volume: 8 fl oz / 236 mL 
+What it smells like: the fragrance equivalent of your little black dress—beautiful, timeless and undeniably feminine.
+Fragrance notes: Japanese cherry blossom, Asian pear, fresh mimosa petals, white jasmine and blushing sandalwood.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.com.qa/assets/bbw/26438527_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath and Body Works Hope Winter Peach Marshmallow Body Lotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age: 18+
+Product Properties: aromatization
+When To Use: universal
+Gender: for women
+Classification: mass-market
+Country: USA
+Made in: USA
+Volume: 236 ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.makeupstore.co.il/q/qm/qmrrpq8xqpzw.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.makeupstore.co.il/9/95/956ocxllmlyj.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://makeupstore.co.il/product/704360/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works Midnight Swim Super Smooth Body Lotion 236 ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What it smells like: a cool ocean dip in the dark.
+Fragrance notes: blue waters, beach flower and fresh coastal air.
+What it does: provides 24 hours of nourishing moisture and leaves skin feeling noticeably softer after one use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61xjLKFzgML._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/Bath-Body-Works-Midnight-Smooth/dp/B0BF11K1X8/ref=d_pd_day0_sccl_1_2/260-9196975-5769943?pd_rd_w=pk1r7&amp;content-id=amzn1.sym.ddf3065d-37bd-4713-89a2-28f76ee88912&amp;pf_rd_p=ddf3065d-37bd-4713-89a2-28f76ee88912&amp;pf_rd_r=5SXZD3GT4GEF8QZXRC33&amp;pd_rd_wg=pOMDV&amp;pd_rd_r=bb3f7927-5cd1-49dc-8134-de141b4ff3d5&amp;pd_rd_i=B0BF11K1X8&amp;psc=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairytale Shower Gel From Bath and Body Works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write your own magical story with this blend of pomegranate nectar with fresh orange blossom and a dreamy combination of vanilla and warm amber in a rich, bubbly lather
+Size: 10 fl oz / 295 Ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.mall.adeptmind.ai/https%3A%2F%2Fwww.bathandbodyworks.ca%2Fon%2Fdemandware.static%2F-%2FSites-bbw_ca-storefront-catalog%2Fdefault%2Fdwc108b991%2Fhires%2F026300694.jpg_large.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanese Cherry Blossom Super Smooth Body Lotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A graceful blend of Japanese Cherry Blossom, Asian pear, fresh mimosa petals, white jasmine &amp; blushing sandalwood in our nutrient-rich, non-greasy lotion 
+One of America's best-selling fragrances, Japanese Cherry Blossom is your little black dress fragrance: beautiful, timeless &amp; undeniably feminine. With shea butter, coconut oil &amp; vitamin E, our Super Smooth Body Lotion is clinically tested for 24 hours of moisture, so your skin feels soft &amp; smooth. 
+236ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.in/on/demandware.static/-/Sites-bathandbody_master_catalog/default/dw5a2b5494/large/024642168.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.in/p/japanese-cherry-blossom-667554625945.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works Gingham 24 Hr Moisture Body Lotion, 236 Ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh. Vibrant. Happy. Our gingham shower gel is a celebration of everything you love about Bath &amp; Body Works. Infused with moisturizing shea butter &amp; vitamin e, this rich formula leaves you feeling fresh &amp; clean.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/31HpFWXGf+L.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/Bath-Body-Works-Gingham-Moisture/dp/B0837BL6NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works A Thousand WishesDaily Nourishing Body Lotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What it smells like: a sweet, heart-warming celebration.
+Fragrance notes: pink prosecco, sparkling quince, crystal peonies, gilded amber and amaretto crème
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.com.sa/sites/g/files/bndsjb626/files/media/assets/bbw/26502532_1.142276.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.com.sa/en/buy-thousand-wishes-daily-nourishing-body-lotion.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works BRIGHT LEMON SNOWDROP Shower Gel Body Wash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Bath &amp; Body Works
+Size: 295ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ebayimg.com/images/g/nlsAAOSwa5Rd-qOH/s-l1600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebay.com/itm/174130056871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works Vanilla Bean Noel Body Lotion 2014 8 oz/236 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scent: 	Vanilla
+Item form: 	Lotion
+Unit count: 	236 millilitre
+Item volume: 	236.5 Millilitres
+Product benefits: 	Moisturizing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71umeMtCcIL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71WYiw63wdL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com.au/Bath-Body-Works-Vanilla-Lotion/dp/B00OM8KWDQ</t>
+  </si>
+  <si>
     <t xml:space="preserve">AVEENO® Baby Daily Care Hair and Body Wash, 250ml</t>
   </si>
   <si>
@@ -371,6 +717,153 @@
   </si>
   <si>
     <t xml:space="preserve">https://mybeautyph.com/product/alive-powder-wash-30g/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath and Body Works Shea Butter and Cocoa Butter Moisturizing Body Wash 10 oz (A Thousand Wishes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scent:  pink prosecco, sparkliong quince, crystal peonies, gilded amber and amaretto crème
+Item form: 	Cream
+Skin type: 	All
+Brand: 	Bath &amp; Body Works
+Scent: 	pink prosecco, sparkliong quince, crystal peonies, gilded amber and amaretto creme
+Age range (description): 	Adult
+Bath &amp; Body Works
+Our new moisturizing body wash gently cleanses &amp; instantly hydrates skin with a rich, creamy lather. Infused with shea butter, coconut oil &amp; cocoa butter, it's clinically tested to moisturize after just one shower.
+CocoShea blends two of nature's most nourishing ingredients — vitamin-packed cocoa butter and rich moisturizing shea butter — for the ultimate collection of skin-loving formulas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51SSaWwnVgL._AC_SL1415_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath and Body Works JAPANESE CHERRY BLOSSOM Moisturizing Body Wash with Shea Butter and Cocoa Butter - Full Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scent: Japanese Cherry Blossom
+Item form: 	Cream
+Skin type: 	All
+Brand: 	Bath &amp; Body Works
+Scent: 	Japanese Cherry Blossom
+Age range (description): 	12+
+Bath &amp; Body Works
+Our new moisturizing body wash gently cleanses &amp; instantly hydrates skin with a rich, creamy lather. Infused with shea butter, coconut oil &amp; cocoa butter, it's clinically tested to moisturize after just one shower.
+CocoShea blends two of nature's most nourishing ingredients — vitamin-packed cocoa butter and rich moisturizing shea butter — for the ultimate collection of skin-loving formulas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61z09coOViL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/Bath-Body-Works-Moisturizing-Thousand/dp/B07VP661VN?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath and Body Works Moisturizing Body Wash 10 oz (You're The One)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin type: 	All
+Brand: 	Bath &amp; Body Works
+Scent: 	You're The One
+Material features: 	Compostable, biodegradable, Is food safe, Fragrance free, Plant based, etc.
+Bath &amp; Body Works
+Fragrance:
+    Our new moisturizing body wash gently cleanses &amp; instantly hydrates skin with a rich, creamy lather. Infused with shea butter, coconut oil &amp; cocoa butter, it's clinically tested to moisturize after just one shower.
+    CocoShea blends two of nature's most nourishing ingredients — vitamin-packed cocoa butter and rich moisturizing shea butter — for the ultimate collection of skin-loving formulas.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61TU3QnNHhL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71+3MU57zdL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/Bath-Body-Works-Moisturizing-Thousand/dp/B09G6R2BCB?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret Aqua Kiss Fragrance Lotion For Her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	VICTORIA'S SECRET
+Scent: 	Aqua Kiss
+Item form: 	Lotion
+Unit count: 	236 millilitre
+Number of Items: 	1
+Item volume: 	236 Milliliters
+Age range (description): 	Adult
+Item weight: 	0.27 Grams
+Item dimensions LxWxH: 	6.5 x 5 x 20.5 centimeters
+Model name: 	Victoria's Secret Fragrance Lotion For Her
+Discover a fantastic range of body care products from Victoria's Secret including body mists, body washes, body lotions and butters. Each product delivers the ultimate sexy sensation and leaves your skin soft, smooth and deeply hydrated. Experience the luxury of these wonderfully scented products. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71-RRFpvTRS._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71aifjBGzES._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath and Body Works A Thousand Wishes Ultra Shea Body Cream Women 8 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Bath &amp; Body Works
+Scent: 	A Thousand Wishes Ultra Shea
+Item Form: 	Cream
+Active Ingredients: 	Vitamin E
+Unit Count: 	8.0 Ounce
+- leaving skin fresh
+- This body cream has a blend of sparkling champagne, twinkling star fruit, golden quince etc
+- This is used to treat and prevent dry, cracked skin while keeping it supple and moisturized
+- It provides a barrier that provides ultra-hydration
+- It's best for dry to excessively dry skin and for normal skin during the harsher winter months.
+Launched by the design house of Bath &amp; Body Works. This body cream has a blend of sparkling champagne, twinkling star fruit, golden quince, crystal peonies, purple freesia, gilded amber, almond creme, sugared sandalwood, and velvet musk. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/715uHSK69sL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Thousand-Wishes-Body-Bath-Works/dp/B082HSL1JT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICTORIA’S SECRET | Love Spell Refreshing Gel Body Wash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unique way to wear your favorite scent, this body wash creates a fresh lather for all-over, gentle cleansing. Refreshing gel formula with skin-loving Aloe. For the most lasting fragrance experience, follow with matching lotion and mist.
+300mL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://penhadutyfree.com/cay/wp-content/uploads/sites/2/2020/11/Vs-Love-Spell-Body-Wash-600x600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://penhadutyfree.com/cay/shop/victorias-secret-love-spell-refreshing-gel-body-wash/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret Coconut Passion Refreshing Gel Body Wash (Coconut Passion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Form: 	Gel
+Skin Type: 	All
+Brand: 	Victoria's Secret
+Scent: 	Coconut Passion
+Age Range (Description): 	Adult
+Victoria's Secret Coconut Passion Refreshing Gel Body Wash (Coconut Passion) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51jZlsohV3L._SL1400_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Victorias-Secret-Coconut-Passion-Refreshing/dp/B08YXTHGVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICTORIA’S SECRET | Pure Seduction Refreshing Gel Body Wash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unique way to wear your favorite scent, this body wash creates a fresh lather for all-over, gentle cleansing. Refreshing gel formula with skin-loving Aloe. For the most lasting fragrance experience, follow with matching lotion and mist.
+300ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://penhadutyfree.com/cay/wp-content/uploads/sites/2/2020/11/Vs-Pure-Seduction-body-wash-600x600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://penhadutyfree.com/cay/shop/victorias-secret-pure-seduction-refreshing-gel-body-wash/</t>
   </si>
   <si>
     <t xml:space="preserve">Bio-Oil Skincare Oil 60ml</t>
@@ -467,6 +960,303 @@
     <t xml:space="preserve">https://www.amazon.co.uk/Atoderm-Bioderma-Creme-Nourishing-Cream/dp/B00CHLDA1G?th=1</t>
   </si>
   <si>
+    <t xml:space="preserve">NEUTROGENA® Cellular Boost Anti-Ageing Night Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">​NEUTROGENA® Cellular Boost clinically proven formula cools down signs of ageing caused by cellular burnout.
+Vitamin C* to help correct uneven skin tone and reduce dark spots
+With SPF 20 to protect your skin from sun damage
+Visible results in just 4 weeks
+For external use only. Keep out of reach of children. Store in a dry place away from direct sunlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.neutrogena.co.za/sites/neutrogena_coza/files/styles/product_list_main/public/cellular_boost_nightcream.png?itok=OYWI_MJI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.neutrogena.co.za/products/neutrogena-cellular-boost-range/neutrogena-cellular-boost-anti-ageing-night-cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loreal Revitalift Anti Wrinkle Firming Night Cream 50ml.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With time, age leaves traces on the skin: wrinkles appear, skin loses its firmness. Stimulate skin regeneration at night with Revitalift Night Cream Anti-Wrinkle + Firming. It stimulates skin's 8 natural lifters so you wake up to a more beautiful skin. Face regains elasticity and firmness, wrinkles are visibly reduced.
+Use daily in the evening on cleansed face and neck, after toner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://backend.tops.co.th/media//catalog/product/8/9/8992304017803_e06-03-2020.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://backend.tops.co.th/media//catalog/product/8/9/8992304017803.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tops.co.th/en/loreal-revitalift-anti-wrinkle-firming-night-cream-50ml-8992304017803?store=725&amp;pickuppoint=All+Pick-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEUTROGENA Cellular Boost Anti-Ageing Day Cream SPF 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">​NEUTROGENA® Cellular Boost clinically proven formula cools down signs of ageing caused by cellular burnout.
+This formula contains: Anti-ageing HexinolTM inspired by nature to stimulate natural collagen and elastin production and skin surface renewal
+- Vitamin C* to help correct uneven skin tone and reduce dark spots
+- With SPF 20 to protect your skin from sun damage
+- Visible results in just 4 weeks
+For external use only. Keep out of reach of children. Store in a dry place away from direct sunlight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.neutrogena.co.za/sites/neutrogena_coza/files/styles/product_list_main/public/cellular_boost_dayceam.png?itok=evDuXQ4X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'Oréal Paris Revitalift Moisturising Day Cream Anti-Wrinkle &amp; Extra Fermeté Anti-Ageing 50ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Day cream for a deep effect on wrinkles and elasticity of the skin, first results from 7 days
+- Results: instantly hydrates and invigorates, firmer and smoother skin from 7 days, visibly reduced wrinkles on the forehead, nasogenic grooves and crow's feet in 4 weeks
+- Directions for use: Apply daily to cleansed face and neck by circular movements, Additional products: serum, night moisturiser and moisturising eye care by L'Oréal Paris Revitalift 
+Brand: 	L'Oréal Paris
+Item form: 	Lotion
+Unit count: 	50.0 milliliter
+Number of items: 	1
+Skin Type: 	Reife haut
+Item volume: 	50 Millilitres
+The moisturising day cream Revitalift moisturises and tightens the skin. It is suitable for people from 35 years to 55 years. Dermatologically tested. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71+IOJDFoIL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81wqXdFth-L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.de/-/en/Revitalift-Moisturising-Anti-Wrinkle-Fermet%C3%A9-Anti-Ageing/dp/B01M67N5N3?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponds Age Miracle Day Cream, Anti Wrinkle Cream &amp; Face Moisturizer with SPF 15, Use as a Daily Moisturizer for Face, 50 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Pond's
+Item Form: 	Cream
+Unit Count: 	1.69 Fl Oz
+Number of Items: 	1
+Use for: 	Face
+    - POND'S Age Miracle Wrinkle Corrector Day Cream SPF 18 PA ++ - 50g
+    - SPF15 PA++
+    - Age Miracle Day Cream
+    - POND'S Age Miracle Day Cream 50g.
+    - Intelligent Pro-Cell Complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61F2k71ukyL._SL1250_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/519PZOqdy2L._SL1250_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loreal Paris Revitalift Laser x 3 Anti Aging Cream 50ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immediately, skin is moisturized and smoother, visibly transformed: fine lines are less visible, the complexion looks more uniformed.Day after day, wrinkles and pores are reduced. Skin regains its elasticity and feels more bouncy. Soft creamy texture immediately penetrates into skin, leaving it supple and smooth. Non greasy, non sticky.
+Dimension: Width:70mm, Height:70mm, Depth:70mm, Weight:240g </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0042/3313/4209/products/loreal-pakistan-pvt-ltd-loreal-paris-revitalift-laser-x-3-anti-aging-cream-50ml-6953116369025_800x.jpg?v=1629529930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0042/3313/4209/products/loreal-pakistan-pvt-ltd-loreal-paris-revitalift-laser-x-3-anti-aging-cream-50ml-6953116303489_800x.jpg?v=1629529929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hkarimbuksh.com/products/loreal-paris-revitalift-laser-x-3-anti-aging-cream-50ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'Oreal Paris Revitalift Night Cream 50ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn back the clock with L'Oréal Paris® Revitalift Hydrating Night Cream which efficiently fights wrinkles and makes your skin look firmer. The face moisturiser is enriched with Advanced Pro-Retinol for visible anti-wrinkle action and Fibrelastyl known for its extra-firming which helps to fight the signs of ageing and gives you younger and smoother looking skin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.chemistwarehouse.com.au/ams/media/pi/36752/2DF_800.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.chemistwarehouse.com.au/ams/media/pi/36752/2DB_800.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.epharmacy.com.au/buy/36752/l-oreal-paris-revitalift-night-cream-50ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'oreal Paris Revitalift Day Cream Laser X3 SPF20 50 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’Oréal Paris Revitalift Laser Renew with Hyaluronic Acid and Pro-Xylane™. Active anti-aging serum that Corrects, Restructures and Reshapes for ages 40+. Hyaluronic Acid, a unique molecule that helps reduce skin wrinkles. Pro-Xylane™, patented anti-aging action developed by L’Oréal Paris laboratories. Helps reduce wrinkles, rebuild the skin and reshape the contour. Proven effectiveness by independent agencies. ‘Immediately: The skin is hydrated and toned (28% *). The quality of the skin is transformed for 86% of women **. In 2 weeks: The skin becomes uniform and its texture improves (25% ***). In 4 weeks: Wrinkles are less visible. The skin looks more even. 82% **** of women agree that their skin looks thicker. * Laboratory test in 42 women. ** softer skin. *** Clinical trial in 51 women. *** Clinical evaluation in 42 women. **** Consumer survey of 51 women.
+Apply the serum daily, morning and night, alone or before the corresponding Revitalift Laser cream, with upward movements.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.alphamega.com.cy/Files/Images/Ecom/Products/784118.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.alphamega.com.cy/en/groceries/personal-care/facial-body-care/facial-care/face-cream/loreal-paris-revitalift-day-cream-laser-x3-spf20-50-ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath and body works STRESS RELIEF hand cream 29ml/1oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Bath &amp; Body Works
+Skin type: 	All
+Item volume: 	29 Milliliters
+Skin tone: 	All Skin Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61dMU-rQAtL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.sa/-/en/Bath-works-STRESS-RELIEF-cream/dp/B084GWDV24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBW Bath and Body Works - Hand Cream Fragrance Free Sans Parfum 29ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images.tokopedia.net/img/cache/900/VqbcmM/2021/10/25/224ff79f-c737-48d6-a0ec-e7e1462cf202.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kaylaallureareations.top/ProductDetail.aspx?iid=358035854&amp;pr=58.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eveline White Prestige 4D Whitening Hand Cream With Shea Butter, Collagen And Elastin 100ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Eveline
+Scent: 	Shea Butter
+Item form: 	Cream
+Unit count: 	100 millilitre
+Skin type: 	Sensitive
+Item volume: 	100 Milliliters
+Item weight: 	0.1 Grams
+Item dimensions LxWxH: 	10.9 x 5.9 x 6.1 centimeters
+Model name: 	Whiten
+Skin tone: 	All Skin Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71vEQt3GYyL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71lBDKhpIvL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.sa/-/en/Eveline-Prestige-Whitening-Collagen-Elastin/dp/B00K57BK70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiabetiCare Intense Cream – 100ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiabetiCare Intense Cream may be used several times a day as needed to help maintain healthy skin. The formula is non-prescription, non-steroidal, clinically-proven, and fragrance-free, with OMEGA-6 essential oils (in the form of borage oil) delivered directly to skin cells.
+Volume	3.5 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://image.rehabmart.com/include-mt/img-resize.asp?output=webp&amp;path=/imagesfromrd/Untitled~27.png&amp;newwidth=540&amp;quality=80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rehabmart.com/product/diabeticare-intense-cream-31473.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbacin Liquid Soap 6.7 fl. oz. dispenser </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbacin kamille Cream Soap - with its wonderfully creamy and soft foam cleans so mild and gentle that it is even suitable for your face. Irritation or redness are history – after cleansing your skin feels soft and supple again. The fresh and pleasant fragrance of the cream soap, which comes in a hygienic pump dispenser or a practical refill bottle, also enhances your overall well-being. A happy end, as you would expect from a good soap opera.
+    - 200ML
+    - for face &amp; hands
+    - also suitable for sensitive Skin
+    - with natural camomile extract
+    - gently cleanses and nourishes the skin
+    - hygienic pump dispenser or practical refill bottle
+    - contains camomile blossom extract
+    - no parabens
+    - no mineral oils
+    - no animal ingredients
+    - no synthetic colors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn11.bigcommerce.com/s-g5ff8/images/stencil/1000x1000/products/157/528/Herbacin_kamille_Cream_soap_200ml_EU__48512.1671128677.jpg?c=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret Green Pear &amp; Citrus Natural Beauty Moisturizing Cream Body Wash 8 oz (Green Pear &amp; Citrus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Form: 	Cream
+Skin Type: 	All
+Brand: 	Victoria's Secret
+Scent: 	Citrus
+Material Feature: 	Natural
+Size: 236ml
+Victoria's Secret Green Pear &amp; Citrus Natural Beauty Moisturizing Cream Body Wash 8 oz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41lKAKXdZbS._SL1050_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath and Body Works FOREVER RED Ultra Shea Body Cream 8 Ounce (2018 Limited Edition)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scent: Coconut,Pomegranate,Vanilla
+Size: 8 Ounce (Pack of 1)
+Brand: 	Bath and Body Works
+Scent: 	Coconut,Pomegranate,Vanilla
+Item Form: 	Cream
+Unit Count: 	8 Ounce
+Number of Items: 1
+Bath &amp; Body Works Forever Red 24 hour Moisture Ultra Shea Body Cream 8oz. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/715MPHUNVoS._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71YQNfQdv+S._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Bath-Body-Works-FOREVER-Limited/dp/B07KTLT8C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works – You're the OneUltimate Hydration Body Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A luxurious blend of soft rose, winter woods and a drop of strawberry nectar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.com.qa/assets/bbw/26275506_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.com.qa/en/buy-youre-one-ultimate-hydration-body-cream.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works Fairytale Ultimate Hydration Body Cream 226 g </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write your own magical story with this blend of pomegranate nectar with fresh orange blossom and a dreamy combination of vanilla and warm amber in our 24-hour ultimate hydration body cream
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71DXcohV2aL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/Bath-Body-Works-Fairytale-Hydration/dp/B09V2JTBLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dove Go Fresh Moisturising Cream 250 ML Spray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dove deodorant spray 250 ml. Go Fresh cucumber &amp; green tea. 
+Brand: 	Dove
+Format: 	Aerosol
+Scent: 	Cucumber
+Number of Items: 	1
+Units: 	250 millilitre
+Item volume: 	250 Milliliters
+- Anti-Perspirant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71hR5Q5rQ1L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.eg/-/en/Dove-Fresh-Moisturising-Cream-Spray/dp/B006KFJ7EY</t>
+  </si>
+  <si>
     <t xml:space="preserve">CORNELLS Full Throttle Germ Protect Sports Hand Sanitizer Spray, 100 ml</t>
   </si>
   <si>
@@ -480,6 +1270,24 @@
   </si>
   <si>
     <t xml:space="preserve">Refreshing Hand Sanitizer - 550ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works |  Foaming Hand Sanitizers – 51g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    - Daydreams and Ice Cream - Boardwalk Vanilla Cone
+    - Island Margarita
+    - Life Is Better At The Beach - Blue Ocean Waves
+    - Mermaid Sea Foam
+    - One of a Kind - Watermelon Lemonade
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://d17ay45ieegnqm.cloudfront.net/images/images/miswag_lcZgxUwKdGSc.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lifeinsidethepage.blogspot.com/2019/04/bath-body-works-new-foaming-hand.html</t>
   </si>
   <si>
     <t xml:space="preserve">SEPHORA COLLECTION 10 HR Wear Perfection Foundation 8 Light Ivory - 25ml</t>
@@ -545,6 +1353,24 @@
     <t xml:space="preserve">https://www.amazon.com/Christian-Dior-Sauvage-Elixir-Spray/dp/B09FY38T89</t>
   </si>
   <si>
+    <t xml:space="preserve">Island Margarita Hand Sanitizer Spray – 3 fl oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A classic tropical cocktail that kills 99.9% of most common germs.
+Why you’ll love it:
+    - Infused with the good stuff (aloe and essential oils)
+    - Lightweight spray leaves hands feeling clean, soft and fragranced
+    - Formula is 72% alcohol (meeting CDC guidelines)
+    - Perfect for your bag, center console…or anywhere really
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://firstbodytt.com/wp-content/uploads/2022/05/NEW_PRODUCT_IMAGES-471x633_0013_026438455.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://firstbodytt.com/product/island-margarita-hand-sanitizer-spray/</t>
+  </si>
+  <si>
     <t xml:space="preserve">HASK HEMP OIL &amp; Agave Moisturizing Shampoo 355ml</t>
   </si>
   <si>
@@ -591,6 +1417,377 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.co.uk/Lee-Stafford-Agave-Coconut-Moisture/dp/B0963VF7CK/ref=sr_1_2?crid=28KUURQZ99ZQT&amp;keywords=coco+loco+with+agave+coconut+moisture+mist&amp;qid=1672230354&amp;s=beauty&amp;sprefix=coco+loco+with+agave+coconut+moisture+mis%2Cbeauty%2C215&amp;sr=1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pink Golden Honey Body Mist (8.4 fl oz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Victoria's Secret
+Scent: 	Vanilla
+Number of Items: 	1
+Unit Count:	8.4 Fl Oz
+Honey harvests, golden light and autumn air. It’s fall bottled with notes of Honeysuckle, Dewy Pear and Vanilla Amber. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/511fAF0PMVL._SL1013_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51+mBbWCsjL._SL1013_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Pink-Golden-Honey-Body-Mist/dp/B08LQKHBS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret Bare Vanilla 8.4oz Mist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Victoria's Secret
+Item Form: 	Liquid
+Item Volume: 	8.4 Fluid Ounces
+Scent: 	Vanilla
+Special Feature:  Long lasting
+Smells like whipped vanilla, soft cashmere, and skin to skin.
+Mist is our lightest version of the fragrance. Perfect for a quick spray throughout the day.
+Layer on top of matching Bare Vanlla Lotion for a long-lasting fragrance experience. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61Nf-wYM-oL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Victorias-Secret-Fragrance-Mist-Vanilla/dp/B07JRG42D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret Amber Romance 8.4oz Mist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Victoria's Secret
+Item Form: 	Spray
+Item Volume: 	250 Milliliters
+Scent: 	Amber Romance
+Special Feature: 	Long Lasting
+Scent notes of deep amber, sugar kisses, chasing sunsets.
+Mist is our lightest version of the fragrance. Perfect for a quick spray throughout the day.
+Layer on top of matching Amber Romance Lotion for a long-lasting fragrance experience. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51wt0L9KY3L._SL1013_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Victorias-Secret-Fragrance-Mist-Vanilla/dp/B005T2SU92?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works A Thousand Wishes Fine Fragrance Mist 236 ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fine fragrance mist: Light, airy and oh-so-great.
+There’s a reason our fine fragrance mist is an all-time customer favorite: it’s super light, super layerable and available in enough scents to keep your shelf stocked forever. Take a peek at what this most-loved mist can do for you – and why you need a few in your shopping bag ASAP.
+What is fine fragrance mist?
+Our spin on the classic body spray. Light, refreshing and full of fragrance, this mist has been a Bath &amp; Body Works staple for years – and we even blend each one with skin-loving ingredients, like aloe, to make them more essential (and perfect for daily use). They’re genuinely our favorite way to fragrance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61a0AhOGcVL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/Bath-Body-Works-Thousand-Fragrance/dp/B09G6VWWHQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret Pink Soft and Dreamy Body Mist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Victoria's Secret
+Item Form: 	Liquid
+Item Volume: 	3.4 Fluid Ounces
+Scent: 	Soft and Dreamy
+Fragrance Concentration: 	body_spray
+A scent blend to inspire dreaming with confidence. Airy. Luminous. Light. With notes of Violet Petals, Fresh Peony and Sunkissed Woods.
+Mini mist your world with our collection of feel-good scents, formulated with Essential Oils and mood-lifting notes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61rAYc1odnL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/711V7jT2iiL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Victorias-Secret-Pink-Dreamy-Scented/dp/B08GC28N8Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret Forbidden Rose Fragrance Body Mist for Women, 8.4 fl. oz. (Forbidden Rose)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Victoria's Secret
+Scent: 	Rose
+Age Range (Description): 	Adult
+Unit Count: 	8.4 Ounce
+Victoria's Secret Forbidden Rose Fragrance Body Mist for Women, 8.4 fl. oz. (Forbidden Rose) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51bahzi72vL._SL1400_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Victorias-Secret-Forbidden-Fragrance-Women/dp/B092NMF3GD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret Pure Seduction 8.4oz Mist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Victoria's Secret
+Item Form: 	Spray
+Item Volume: 	250 Milliliters
+Scent:	Pure Seduction
+Special Feature: 	Long Lasting
+    Scent notes of juiced plum and crushed freesia.
+    Mist is our lightest version of the fragrance. Perfect for a quick spray throughout the day.
+    Layer on top of matching Pure Seduction Lotion for a long-lasting fragrance experie
+    Discover The Mist Collection. Scents that celebrate all that's individual, unique and of the moment. Shop Bare Vanilla, Amber Romance, Velvet Petals, Love Spell, Midnight Bloom, Coconut Passion, and Aqua Kiss.
+    Fragrance Style: Fruity
+    250 ml/8.4 oz
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41ojDyYuITL._SL1013_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41oitpZ3JEL.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Victorias-Secret-Pure-Seduction-8-4oz/dp/B09V1RMFTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret/PINK Wild Rose Body Mist with Essential Oils 8.4 fl. oz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petal-drenched and flower-powered. Enhance your mood with these self-care scents. Infused with flower oils. Wild Rose Scent the mood with this balancing blend of Wild Rose and Orange Blossom. 
+Victoria's Secret/PINK Wild Rose Body Mist with Essential Oils 8.4 fl. oz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cozyshop.com/images/thumbnails/1086/800/detailed/0/pink_wild_rose_body_spray_250ml_1_67328_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.walmart.com/ip/Victoria-s-Secret-PINK-Wild-Rose-Body-Mist-with-Essential-Oils-8-4-fl-oz/493251463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret Pink Fresh &amp; Clean for Women Body Mist, 8.4 Ounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scent: Fresh
+Size: 8.40 Ounce (Pack of 1)
+Brand: 	Victoria's Secret
+Item Form: 	Spray
+Item Volume: 	250 Milliliters
+Scent: 	Fresh
+Age Range (Description): 	Adult
+This refreshing body mist shows skin some love with conditioning aloe and a subtle hint of scents or longer-lasting fragrance, layer with the body lotion or body butter. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51ep4KFdanL._SL1013_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Victorias-Secret-Fresh-Clean-Women/dp/B00AYH8KE2?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret Pink Cool and Bright Body Mist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Victoria's Secret
+Item Form: 	Liquid
+Item Volume: 	8.4 Fluid Ounces
+Scent: 	Cool and Bright
+Fragrance Concentration: 	body_spray
+- A scent blend to inspire living on the bright side. Sparkling. Bright. Serene. With notes of Chill Pear, White Orchid and Zesty Orange.
+- Mini mist your world with our collection of feel-good scents, formulated with Essential Oils and mood-lifting notes.
+- From formulation to finished product, we are free of animal testing. 
+- 25% Post-Consumer Recycled Plastic Bottle.
+- Made with Essential Oils.
+- Dermatologist Tested.
+- Dye Free
+- Style: Fresh
+- 250 ml/8.4 fl oz
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61-y6WX6+TL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71nQ9MKqdcL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Cool-Bright-Victorias-Secret-Women/dp/B08KRRLFLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret Love Spell Body Mist for Women - 250 ml / 8.4 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria’s Secret Love Spell body mist is a luxurious and alluring soft perfume that will leave you feeling confident and irresistible. Our body splash is infused with a blend of succulent fruits, such as peach, cherry blossom, and romantic florals
+Our most seductive version of fragrance for women, Love Spell is easy to use, simply spray on your pulse points, such as your neck and wrists, or use as a hair and body mist for a delicate scent. Reapply throughout the day to refresh 
+Lighter than a traditional womens perfume, Love Spell fragrance mist is the perfect sweet perfume. This body splash for women makes a lovely women perfume gift.
+Love Spell body spray and all of Victoria’s Secret fragrances can be paired with our matching women’s fragrance lotions for a longer-lasting fragrance experience
+Fragrance notes of fresh peach and cherry blossom are impossible to resist. 
+Brand: 	Victoria's Secret
+Item Form: 	Spray
+Item Volume: 	250 Milliliters
+Scent: 	Love Spell
+Special Feature: 	Long Lasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41Za43Cwz2L._SL1013_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Cool-Bright-Victorias-Secret-Women/dp/B01687MKEM?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works Winter Candy Apple – 236ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavishly splash or lightly spritz your favorite fragrance, either way you'll fall in love at first mist! Bath &amp; Body Works' carefully crafted bottle and sophisticated pump delivers great coverage while conditioning aloe mist nourishes skin for the lightest, most refreshing way to fragrance!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tinkerlust.com/_next/image?url=https%3A%2F%2Ftinkerlust.s3.ap-southeast-1.amazonaws.com%2Fproducts%2F7fb71098-7b24-4236-8a78-4480cfa3efc3%2Foriginal%2F1280x1280%2FIMG_0109_427-FR-551.JPG&amp;w=1200&amp;q=100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lazada.com.ph/products/bath-body-works-fine-fragrance-mist-winter-candy-apple-75ml-travel-size-236ml-i3121963728-s15458448858.html?spm=a2o4l.tm80167379.5934338580.1.4625AuouAuouSB.4625AuouAuouSB&amp;priceCompare=skuId%3A15458448858%3Bsource%3Alazada-om%3Bsn%3A3d556126-feec-4dbd-a52a-80c4d61f09e2%3BoriginPrice%3A90000%3BvoucherPrice%3A90000%3Btimestamp%3A1675587874874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath and Body Works Fine Fragrance Mist - 8 fl oz Full Size - Vanilla Bean Noel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scent:Warm Vanilla Sugar (Fall 2020)
+Size:8 Fl Oz (Pack of 1)
+Brand: 	Bath &amp; Body Works
+Item Volume: 	8 Fluid Ounces
+Scent: 	Warm Vanilla Sugar (Fall 2020)
+Age Range (Description): 	Adult
+Item Weight: 	0.59 Pounds
+Fragrance Notes: A wintry sweet treat of fresh vanilla bean, sugar cookies, warm caramel, whipped cream &amp; snow-kissed musk
+Make this the most wonderful time of the year with cozy, comforting vanilla! Whether you lavishly splash or lightly spritz, you'll fall in love at first mist. Our carefully crafted bottle &amp; sophisticated pump delivers great coverage while the dermatologist-tested, conditioning aloe mist nourishes skin for the lightest, most refreshing way to fragrance!
+Full Size - 8 fl oz
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/31cPpDOZ4-S.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works | Japanese Cherry Blossom Fragrance Mist – 236ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fragrance
+A fresh blend of Japanese cherry blossoms, crisp pears, mimosa petals and sweet sandalwood
+Key notes: Japanese Cherry Blossom, Asian Pear, Fresh Mimosa Petals, White Jasmine, Blushing Sandalwood
+Overview
+     Lavishly splash or lightly spritz, either way you’ll fall in love at first mist. Our carefully crafted bottle and sophisticated pump delivers great coverage while conditioning aloe mist nourishes skin for the lightest, most refreshing way to fragrance!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pinkfab.net/wp-content/uploads/2022/01/26167039_1.54617-1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pinkfab.net/product/bath-body-works-japanese-cherry-blossom-fragrance-mist/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're The One by Bath &amp; Body Works Fragrance Mist 8 oz for Women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Bath &amp; Body Works
+Item Volume: 	8 Fluid Ounces
+Age Range (Description): 	Adult
+Item Weight: 	0.57 Pounds
+Unit Count: 	1.00 Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51P3vSuYVmL._SL1080_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61dgGmmQVEL._SL1080_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Youre-Bath-Body-Works-Fragrance/dp/B08YWSGFY1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret Victoria Secret Aqua Kiss Body Mist, 8.4 Ounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Victoria's Secret
+Item Form: 	Spray
+Item Volume: 	250 Milliliters
+Scent: 	Floral
+Special Feature: 	Scented
+    - Size is perfect for travelling
+    - Country of origin: United States
+    - Package weight: 8.4 ounces
+    - Package Dimensions: 19.6cm X 6.6cm X 2.6cm (LxWxH)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61+Od72BNpL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71zySqOgacL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/VictoriaS-Secret-Victoria-Aqua-Ounce/dp/B009YEVQRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature's Carnival Soft Vanilla Kiss Shimmer Body Mist 236 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Nature's Carnival
+Bath Body Category: Body Sprays &amp; Mists
+Size: 236 ml 
+This skin loving formula allows you to fall in love at your own pace, whether you choose a light drizzle of your favorite fragrance or indulge in a large splash. Take comfort in the coverage that our sophisticated bottle and pump will give you, leaving you freshly fragranced to your liking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71DW9SDaDhL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71uHZt0ymDL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/Natures-Carnival-Soft-Vanilla-Shimmer/dp/B07MW1RGPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works Champagne Toast Diamond Shimmer Mist – 146ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Bath &amp; Body Works
+Item form: 	Liquid
+Item volume: 	146 Milliliters
+Scent: 	Sandalwood
+Age range (description): 	Adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71rbEWX3BPS._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.eg/-/en/Bath-Body-Works-Champagne-Diamond/dp/B098TW1V8Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works | You’re The One Diamond Shimmer Mist – 146ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're The One Diamond Shimmer by Bath &amp; Body Works is a fragrance for women. You're The One Diamond Shimmer was launched in 2021. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pinkfab.net/wp-content/uploads/2022/09/71Jm90U8DQS.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pinkfab.net/product/bath-body-works-youre-the-one-diamond-shimmer-mist/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works Warm Vanilla Sugar Travel Size Fine Fragrance Mist 75 ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Bath &amp; Body Works
+Item Form: 	Spray
+Item Volume: 	75 Millilitres
+Net Quantity: 	75.0 millilitre
+Fine fragrance mist: Light, airy and oh-so-great.
+There’s a reason our fine fragrance mist is an all-time customer favorite: it’s super light, super layerable and available in enough scents to keep your shelf stocked forever. Take a peek at what this most-loved mist can do for you – and why you need a few in your shopping bag ASAP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/618VhngzSnL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/Warm-Vanilla-Sugar-Travel-Fragrance/dp/B09V2JZ2RP</t>
   </si>
   <si>
     <t xml:space="preserve">Sephora Cream Lip Stain in 13 Marvelous</t>
@@ -1209,24 +2406,8 @@
     <t xml:space="preserve">Gucci Premiere Eau de Parfum 75ml</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Brand: Gucci
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Gucci Premiere Eau De Parfum released in 2012 was an honorary dedication to Gucci’s hot Premier couture collection first displayed in the 2010 Cannes and the perfume derives inspiration from this very couture, encouraging women to find the glowing star within them. Clad in absolute with an enigmatic elegance hanging in the air around- this fragrance celebrates all the bravery, the exuberance, the confidence and the achievements that modern women have managed to succeed.   For the top note, black berry joins in with bergamot instilling the introductory note with ounces of freshness. The middle note now comes in with white flowers, orange blossom and musk essence while the last layer, i.e. the base uses nothing but patchouli and sandalwood on other woodsy accords thereby establishing a serene ending to the otherwise robust perfume</t>
-    </r>
+    <t xml:space="preserve">Brand: Gucci
+Gucci Premiere Eau De Parfum released in 2012 was an honorary dedication to Gucci’s hot Premier couture collection first displayed in the 2010 Cannes and the perfume derives inspiration from this very couture, encouraging women to find the glowing star within them. Clad in absolute with an enigmatic elegance hanging in the air around- this fragrance celebrates all the bravery, the exuberance, the confidence and the achievements that modern women have managed to succeed.   For the top note, black berry joins in with bergamot instilling the introductory note with ounces of freshness. The middle note now comes in with white flowers, orange blossom and musk essence while the last layer, i.e. the base uses nothing but patchouli and sandalwood on other woodsy accords thereby establishing a serene ending to the otherwise robust perfume</t>
   </si>
   <si>
     <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0322/9106/1899/products/Gucci_Premiere_Eau_de_Parfum_75ml___LabSquared___Online_Perfume_Store_in_Lagos___Designer_perfumes_in_Nigeria__47813_1024x1024.jpg?v=1580396657</t>
@@ -1475,6 +2656,70 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.ae/Essenza-Velours-Dor-EDP-100ml/dp/B08B5CVP13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lancome La Vie Est Belle Eau De Parfum Spray, Perfume for Women, 2.5 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fragrance is designed specifically for women who want to live their lives to the fullest. this sweet and simple yet decadent scent opens with juicy pear and black currant. The heart of la vie est belle by lancome features rich notes of jasmine and orange blossoms that descend into a base of yummy praline. You can also smell notes of iris and patchouli. The lancome la vie est belle perfume is perfect to wear whenever you want to create a cheery mood wherever you go
+Size: 75ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i5.walmartimages.com/asr/2ee37894-2a65-46c1-8aaa-79af05dd359b_1.c52d34653dada0482d1c4fd4dadf49c2.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ubuy.ug/en/product/3LKBB92-lancome-la-vie-est-belle-eau-de-parfum-spray-perfume-for-women-2-5-oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lancome La Vie Est Belle Eau De Parfum Spray For Her 100ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Vie est Belle is Lancôme’s best selling feminine fragrance that captures the luminosity of Magnolia Essence. It is inspired by the idea of natural and simple beauty, joy and pleasure in small things. Incarnated by Julia Roberts, this gourmand yet elegant composition is a universal declaration to the beauty of life. A unique olfactory signature perfume scent created by three of France's leading perfumers. 
+Size: 100ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lijepa.hr/data/tmp/0/6/971156_0.jpg?1662028902_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ugabox.com/product/fragrances-&amp;-perfumes/Lancome-La-Vie-Est-Belle-Eau-De-Parfum-Women-Spray-100ml.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Britney Spears Midnight Fantasy Eau de Parfum Women's Perfume Spray (100ml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'What happens when the clock strikes twelve?'
+Let Midnight Fantasy take you on a magical journey from day to night.
+An intoxicating elixir of plum and black cherry invites you into a mysterious realm of temptation and intrigue. A seductive floral bouquet of night orchid, freesia and iris mingle with sensuous musk, amber and vanilla creating an unforgettable midnight fantasy.
+The dark blue bottle, with Swarovski crystals, resemble stars in the night sky.
+Fragrance Type: Fruity
+Fragrance Notes:
+  - Top note: Black Cherries, Framboise, Exotic Plum
+  - Middle notes: Orchids, Freesia, Velvet Iris
+  - Base: Musk, Amber, Vanilla
+Launched: 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/1442/8846/products/britney-spears-women-s-perfume-britney-spears-midnight-fantasy-eau-de-parfum-women-s-perfume-spray-50ml-100ml-3732123123805.png?v=1631681643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.perfumedirect.com/products/britney-spears-midnight-fantasy-eau-de-parfum-womens-perfume-100ml?variant=12126901928029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thierry Mugler Angel EDP Refillable Star 100ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:  Thierry Mugler
+Range:  Angel
+Gender:  Female
+Main Perfume Family:  Oriental
+Secondary Perfume Family:  Woody
+Key Perfume Note:  Chocolate
+Perfume Strength:  Eau de Parfum
+Release Date:  1992
+Thierry Mugler Angel Perfume is a powerhouse of a perfume. Not a perfume to be worn and forgotten, Angel Perfume stays on the skin and mind with its unusual and addictive blend of gourmand, oriental and woody essences including a unique chocolate note.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media.takealot.com/covers_images/0aa1a89b413441c8830fe6c914bb7af0/s-zoom.file</t>
   </si>
   <si>
     <t xml:space="preserve">Nivea Protect &amp; Care Anti-Perspirant Deodorant Stick</t>
@@ -1825,6 +3070,253 @@
   <si>
     <t xml:space="preserve">https://www.amazon.co.uk/ACQUA-Giorgio-Armani-Deodorant-Stick/dp/B004HJT8JE</t>
   </si>
+  <si>
+    <t xml:space="preserve">NIVEA Antiperspirant Spray for Women, Protect &amp; Care No Ethyl Alcohol, 150ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIVEA Protect &amp; Care Antiperspirant for Women is a mild and gentle formula that is strong on sweat yet soft on skin. Formulated with antiperspirant protection and infused with its unique scent, NIVEA Protect &amp; Care Antiperspirant Deodorant for women contains Nivea Creme ingredients that soften and moisturize your skin while giving it 48hours of reliable protection against sweat and body odour.
+Brand: 	NIVEA
+Number of Items: 	1
+Units: 	150 millilitre
+Item volume: 	150 Milliliters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61YNXIhG43L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61TIkeYhsHL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.eg/-/en/NIVEA-Antiperspirant-Spray-Protect-Alcohol/dp/B077XWKJY7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creamy Luxe Hand Soap (Warm Vanilla Sugar) – 236ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm vanilla Sugar Creamy Luxe Hand Soap by bath and body works 
+Item Form: 	Cream
+Skin Type: 	All
+Brand: 	Bath &amp; Body Works
+Scent: 	Vanilla
+Number of Items: 	1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61d5oByrhwL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Creamy-Luxe-Hand-Vanilla-Sugar/dp/B074PM5BYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works Crisp Morning Air Gentle Foaming Hand Soap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An exhilarating breath of fresh pine, juniper &amp; juicy pear
+ Size/Volume: 8.75 fl oz / 259 mL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.com.eg/assets/bbw/26053023_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.com.eg/en/buy-crisp-morning-air-gentle-foaming-hand-soap.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath and Body Works Vanilla Bean Noel Gentle Foaming Hand Soap, 8.75 fl oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkinSAFE has reviewed the ingredients of Bath and Body Works Vanilla Bean Noel Gentle Foaming Hand Soap, 8.75 fl oz and found it to be 73% Top Allergen Free and free of Gluten, Nickel, Lanolin, Paraben, Topical Antibiotic, and Soy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn1.skinsafeproducts.com/photo/FF4865C369439A/large_1610715300.jpeg?1610715300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.skinsafeproducts.com/bath-and-body-works-vanilla-bean-noel-gentle-foaming-hand-soap-8-75-fl-oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eucalyptus Mint Gentle Foaming Hand Soap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fresh, soothing, herbal blend sent straight from the spa that washes away germs and helps maintain skin's natural moisture barrier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.mall.adeptmind.ai/https%3A%2F%2Fwww.bathandbodyworks.ca%2Fon%2Fdemandware.static%2F-%2FSites-bbw_ca-storefront-catalog%2Fdefault%2Fdw4fea3a13%2Fhires%2F026416313.jpg_large.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.centreeatondemontreal.com/shop/en-CA/product/eucalyptus-mint-gentle-foaming-hand-soap-bathbodyworks-91df16?model=0&amp;variant=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Barn Candle Company Bath and Body Works Gentle Foaming Hand Soap w/Essential Oils- 8.75 fl oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Form: 	Foam
+Skin Type: 	All
+Brand: 	Bath &amp; Body Works
+Scent: 	Toasted vanilla chai
+Age Range (Description): 	Adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51-nxMmPC7L._SL1001_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/White-Barn-Candle-Company-Works/dp/B08MZSGZGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works DARK KISS Hand Soap – 259ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- A seductive blend of black raspberry, burgundy rose &amp; dark vanilla bean.
+- Key notes: Black Raspberry, Burgundy Rose, Bergamot Incense, Dark Vanilla Bean, Plum Musk.
+Our Gentle Foaming Hand Soap with essential oils combines nourishing Vitamin E with softening Shea Extract &amp; Aloe to deliver a rich lather, gently washing away dirt &amp; germs.
+Vendor: Bath &amp; Body Works
+Product Type: Liquid Hand Soap
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0521/0016/9891/products/Bath_BodyWorksDARKKISSHandSoap_2048x2048.jpg?v=1632325372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fragmetics.com/products/bath-body-works-dark-kiss-hand-soap</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Bath &amp; Body Works </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sweater Weather Gentle Foaming Hand Soap</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> A cool, crisp blend of sage, eucalyptus &amp; fresh woods in our luxurious foaming soap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.in/on/demandware.static/-/Sites-bathandbody_master_catalog/default/dw1e105728/large/026203523.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.in/p/sweater-weather-667554094789.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATH AND BODY WORKS | Kitchen Lemon Gentle Foaming Hand Soap – 259ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fresh blend of zesty lemon, sparkling citrus &amp; Italian bergamot. Our Gentle Foaming Hand Soap with essential oils combines nourishing Vitamin E with softening Shea Extract &amp; Aloe to deliver a rich lather, gently washing away dirt &amp; germs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://penhadutyfree.com/sxm/wp-content/uploads/sites/5/2020/09/BATH-BODY-WORKS-Kitchen-Lemon-Foaming-Soap-600x600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://penhadutyfree.com/sxm/shop/bath-and-body-works-kitchen-lemon-gentle-foaming-hand-soap/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eucalyptus Spearmint Gentle Foaming Hand Soap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This carefully crafted blend of eucalyptus and spearmint oil creates a well-balanced aromatic fragrance. 
+ Eucalyptus oil and spearmint oil in our luxurious foaming soap. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.in/on/demandware.static/-/Sites-bathandbody_master_catalog/default/dwcb8c48a5/large/026131661.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.in/p/eucalyptus-spearmint-667554919686.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanese Cherry Blossom – 236ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A graceful blend of cherry blossoms, Asian pear &amp; sandalwood in our creamy luxe hand soap
+8 fl oz / 236 mL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://img.makeupalley.com/3/0/9/5/4025510.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.com.au/handsoaps/nourishing-soaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath and Body Works Black Cherry Merlot Gentle Foaming Hand Soap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item form: 	Gel
+Brand: 	Bath &amp; Body Works
+Scent: 	Cherry
+Number of items: 	1
+Unit count: 	259 millilitre
+Special feature: 	Nourishing
+Item package: quantity 	1
+Use for: 	Hands
+Recommended uses for product 	Hand
+Item weight: 	0.57 Pounds
+An addictive blend of dark cherry, black raspberry &amp; sumptuous merlot
+8.75 fl oz / 259 mL
+Gentle Foaming Hand Soap delivers a cloud of luxurious foam that transforms into a rich, creamy lather to gently wash away dirt and germs, while soothing Aloe and nourishing Vitamin E leave hands feeling soft and smooth. An aromatherapy blend of essential oils inspires tranquility &amp; helps calm your mind. Breathe deeply for best results. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71mIbO9mxBS._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works Gentle Foaming Hand Soap Frosted Cranberry – 8.75ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Barn Candle Company Bath and Body Works Gentle Foaming Hand Soap wEssential Oils- 8.75 fl oz - Winter 2020 - Many Scents! Frosted Cranberry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://delmosfood.com/wp-content/uploads/2021/02/Screen-Shot-2021-02-23-at-5.40.20-PM.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ubuy.co.ao/en/product/G31K7NK-white-barn-candle-company-bath-and-body-works-gentle-foaming-hand-soap-w-essential-oils-8-75-fl-oz-w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kojie San Skin Lightening Soap 100 gm Pack of 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin Type: 	Acne Prone
+Brand: 	Kojie San
+Scent: 	Coconut, Orange
+Age Range (Description): 	Adult
+Number of Items: 	3
+Net Quantity: 	300 gram
+Item Package Quantity: 	3
+Use for: 	Face
+Product Benefits: 	Lightening
+Recommended Uses For Product: 	Freckles,Acne,Stretch Marks
+    Quantity: 100 g
+    Pack of 3
+    It is effective in diminishing dark spots, freckles and acne, stretch marks
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51yc4QFGl1L._SL1024_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://p-yo-www-amazon-in-kalias.amazon.in/Kojie-Skin-Lightening-Soap-Pack/dp/B07MH5TS7C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Body Shop Purifying Tea Tree Body &amp; Hand Soap, 3.5 OZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Form: 	Bar
+Skin Type: 	Oily
+Brand: 	The Body Shop
+Scent: 	Tea Tree
+Material Feature: 	Vegan
+Cleanse away dirt and impurities with The Body Shop Tea Tree soap. Lather up with this purifying vegetable-based bar cleanser. Made with purifying Tea Tree oil, It leaves skin feeling soft, refreshed and thoroughly cleansed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/813IAa8mAmS._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Body-Shop-Purifying-Tree-Hand/dp/B095QP1V5B</t>
+  </si>
 </sst>
 </file>
 
@@ -1833,7 +3325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1859,6 +3351,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1916,7 +3415,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1931,6 +3430,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1956,7 +3463,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
   </cols>
@@ -2062,13 +3569,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2098,16 +3605,16 @@
         <v>3821</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>149</v>
+        <v>345</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>150</v>
+        <v>346</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>151</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,16 +3622,16 @@
         <v>3823</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>152</v>
+        <v>348</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>153</v>
+        <v>349</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>154</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,16 +3639,30 @@
         <v>3826</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>155</v>
+        <v>351</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>156</v>
+        <v>352</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>157</v>
+        <v>353</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>158</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="96.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -2166,7 +3687,7 @@
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2196,19 +3717,19 @@
         <v>3829</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>159</v>
+        <v>359</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>161</v>
+        <v>361</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>162</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,19 +3737,19 @@
         <v>3831</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>164</v>
+        <v>364</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>165</v>
+        <v>365</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>166</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2236,19 +3757,19 @@
         <v>3833</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>168</v>
+        <v>368</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>169</v>
+        <v>369</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>170</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2267,13 +3788,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2303,22 +3824,377 @@
         <v>3836</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>171</v>
+        <v>371</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>172</v>
+        <v>372</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>173</v>
+        <v>373</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>174</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G11" r:id="rId1" display="https://www.amazon.com/Victorias-Secret-Fresh-Clean-Women/dp/B00AYH8KE2?th=1"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2340,7 +4216,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2370,22 +4246,22 @@
         <v>3840</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>175</v>
+        <v>461</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>177</v>
+        <v>463</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>178</v>
+        <v>464</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>179</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -2406,11 +4282,11 @@
   </sheetPr>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2440,19 +4316,19 @@
         <v>3521</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>181</v>
+        <v>467</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>182</v>
+        <v>468</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>183</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2460,19 +4336,19 @@
         <v>3523</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>184</v>
+        <v>470</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>185</v>
+        <v>471</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>186</v>
+        <v>472</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>187</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2480,19 +4356,19 @@
         <v>3569</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>188</v>
+        <v>474</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>189</v>
+        <v>475</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>190</v>
+        <v>476</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>191</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2500,22 +4376,22 @@
         <v>3527</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>192</v>
+        <v>478</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>193</v>
+        <v>479</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>194</v>
+        <v>480</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>195</v>
+        <v>481</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>196</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2523,22 +4399,22 @@
         <v>3531</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>197</v>
+        <v>483</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>198</v>
+        <v>484</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>199</v>
+        <v>485</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>200</v>
+        <v>486</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>201</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2546,22 +4422,22 @@
         <v>3534</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>202</v>
+        <v>488</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>203</v>
+        <v>489</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>700000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>204</v>
+        <v>490</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>205</v>
+        <v>491</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>206</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2569,22 +4445,22 @@
         <v>3538</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>207</v>
+        <v>493</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>494</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>209</v>
+        <v>495</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>210</v>
+        <v>496</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>211</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,22 +4468,22 @@
         <v>3559</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>212</v>
+        <v>498</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>213</v>
+        <v>499</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>214</v>
+        <v>500</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>215</v>
+        <v>501</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>216</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2615,22 +4491,22 @@
         <v>3541</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>217</v>
+        <v>503</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>218</v>
+        <v>504</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>219</v>
+        <v>505</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>220</v>
+        <v>506</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>221</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,22 +4514,22 @@
         <v>3571</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>222</v>
+        <v>508</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>223</v>
+        <v>509</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>224</v>
+        <v>510</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>225</v>
+        <v>511</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>226</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2661,22 +4537,22 @@
         <v>3544</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>227</v>
+        <v>513</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>228</v>
+        <v>514</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1300000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>229</v>
+        <v>515</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>230</v>
+        <v>516</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>231</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,22 +4560,22 @@
         <v>3547</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>232</v>
+        <v>518</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>233</v>
+        <v>519</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>234</v>
+        <v>520</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>235</v>
+        <v>521</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>236</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,19 +4583,19 @@
         <v>3550</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>237</v>
+        <v>523</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>238</v>
+        <v>524</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>239</v>
+        <v>525</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>240</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2727,19 +4603,19 @@
         <v>3552</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>241</v>
+        <v>527</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>242</v>
+        <v>528</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>243</v>
+        <v>529</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>244</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2747,22 +4623,22 @@
         <v>3555</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>245</v>
+        <v>531</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>246</v>
+        <v>532</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>247</v>
+        <v>533</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>248</v>
+        <v>534</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>249</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,22 +4646,22 @@
         <v>3843</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>250</v>
+        <v>536</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>251</v>
+        <v>537</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>252</v>
+        <v>538</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>253</v>
+        <v>539</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>254</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2793,19 +4669,19 @@
         <v>3845</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>255</v>
+        <v>541</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>256</v>
+        <v>542</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>257</v>
+        <v>543</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>258</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2813,22 +4689,22 @@
         <v>3848</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>259</v>
+        <v>545</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>260</v>
+        <v>546</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>261</v>
+        <v>547</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>262</v>
+        <v>548</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>263</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2836,19 +4712,19 @@
         <v>3850</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>264</v>
+        <v>550</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>265</v>
+        <v>551</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>266</v>
+        <v>552</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>267</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2856,22 +4732,22 @@
         <v>3853</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>268</v>
+        <v>554</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>269</v>
+        <v>555</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>270</v>
+        <v>556</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>271</v>
+        <v>557</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>272</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2879,22 +4755,22 @@
         <v>3863</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>273</v>
+        <v>559</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>274</v>
+        <v>560</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>275</v>
+        <v>561</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>276</v>
+        <v>562</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>277</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2902,19 +4778,19 @@
         <v>3855</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>278</v>
+        <v>564</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>279</v>
+        <v>565</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>280</v>
+        <v>566</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>281</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2922,22 +4798,22 @@
         <v>3858</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>282</v>
+        <v>568</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>283</v>
+        <v>569</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>284</v>
+        <v>570</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>285</v>
+        <v>571</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>286</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2945,272 +4821,272 @@
         <v>3860</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>287</v>
+        <v>573</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>288</v>
+        <v>574</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>289</v>
+        <v>575</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>290</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>291</v>
+        <v>577</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>292</v>
+        <v>578</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>293</v>
+        <v>579</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>294</v>
+        <v>580</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>295</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>296</v>
+        <v>582</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>297</v>
+        <v>583</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>298</v>
+        <v>584</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>299</v>
+        <v>585</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>300</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>301</v>
+        <v>587</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>302</v>
+        <v>588</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>303</v>
+        <v>589</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>304</v>
+        <v>590</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>305</v>
+        <v>591</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>306</v>
+        <v>592</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>307</v>
+        <v>593</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>308</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>309</v>
+        <v>595</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>310</v>
+        <v>596</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>311</v>
+        <v>597</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>312</v>
+        <v>598</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>313</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>314</v>
+        <v>600</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>315</v>
+        <v>601</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>316</v>
+        <v>602</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>317</v>
+        <v>603</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>318</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>319</v>
+        <v>605</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>320</v>
+        <v>606</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>321</v>
+        <v>607</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>322</v>
+        <v>608</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>323</v>
+        <v>609</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>324</v>
+        <v>610</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>325</v>
+        <v>611</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>326</v>
+        <v>612</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>327</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>328</v>
+        <v>614</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>329</v>
+        <v>615</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>330</v>
+        <v>616</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>331</v>
+        <v>617</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>332</v>
+        <v>618</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>333</v>
+        <v>619</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>334</v>
+        <v>620</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>335</v>
+        <v>621</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>336</v>
+        <v>622</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>337</v>
+        <v>623</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>338</v>
+        <v>624</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>339</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>340</v>
+        <v>626</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>341</v>
+        <v>627</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>342</v>
+        <v>628</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>343</v>
+        <v>629</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>344</v>
+        <v>630</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>345</v>
+        <v>631</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>345</v>
+        <v>631</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>280000</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>346</v>
+        <v>632</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>347</v>
+        <v>633</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>348</v>
+        <v>634</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>349</v>
+        <v>635</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>280000</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>350</v>
+        <v>636</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>351</v>
+        <v>637</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3218,204 +5094,262 @@
         <v>2558</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>352</v>
+        <v>638</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>353</v>
+        <v>639</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>1450000</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>354</v>
+        <v>640</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>355</v>
+        <v>641</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>356</v>
+        <v>642</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>357</v>
+        <v>643</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>358</v>
+        <v>644</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>359</v>
+        <v>645</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>360</v>
+        <v>646</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>361</v>
+        <v>647</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>362</v>
+        <v>648</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>363</v>
+        <v>649</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>480000</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>364</v>
+        <v>650</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>365</v>
+        <v>651</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>366</v>
+        <v>652</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>367</v>
+        <v>653</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>368</v>
+        <v>654</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>369</v>
+        <v>655</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>370</v>
+        <v>656</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>371</v>
+        <v>657</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>372</v>
+        <v>658</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>225000</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>373</v>
+        <v>659</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>374</v>
+        <v>660</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>375</v>
+        <v>661</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>376</v>
+        <v>662</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>377</v>
+        <v>663</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>378</v>
+        <v>664</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>379</v>
+        <v>665</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>380</v>
+        <v>666</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>381</v>
+        <v>667</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>382</v>
+        <v>668</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>383</v>
+        <v>669</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>384</v>
+        <v>670</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>385</v>
+        <v>671</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>386</v>
+        <v>672</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>387</v>
+        <v>673</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>388</v>
+        <v>674</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>389</v>
+        <v>675</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>390</v>
+        <v>676</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>391</v>
+        <v>677</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>392</v>
+        <v>678</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>393</v>
+        <v>679</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>394</v>
+        <v>680</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>395</v>
+        <v>681</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>396</v>
+        <v>682</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>397</v>
+        <v>683</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>398</v>
+        <v>684</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>685</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>650000</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>580000</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>700</v>
+      </c>
+    </row>
     <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3456,13 +5390,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3492,22 +5426,22 @@
         <v>3867</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>400</v>
+        <v>701</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>401</v>
+        <v>702</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>402</v>
+        <v>703</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>403</v>
+        <v>704</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>404</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3515,19 +5449,19 @@
         <v>3912</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>405</v>
+        <v>706</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>406</v>
+        <v>707</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>407</v>
+        <v>708</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>408</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3535,22 +5469,22 @@
         <v>3870</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>409</v>
+        <v>710</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>410</v>
+        <v>711</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>411</v>
+        <v>712</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>412</v>
+        <v>713</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>413</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3558,19 +5492,19 @@
         <v>3872</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>414</v>
+        <v>715</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>415</v>
+        <v>716</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>416</v>
+        <v>717</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>417</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="58.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3578,19 +5512,19 @@
         <v>3874</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>418</v>
+        <v>719</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>419</v>
+        <v>720</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>155000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>420</v>
+        <v>721</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>421</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3598,16 +5532,16 @@
         <v>3876</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>422</v>
+        <v>723</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>423</v>
+        <v>724</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>424</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3615,19 +5549,19 @@
         <v>3914</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>425</v>
+        <v>726</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>426</v>
+        <v>727</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>427</v>
+        <v>728</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>428</v>
+        <v>729</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3635,19 +5569,19 @@
         <v>3878</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>429</v>
+        <v>730</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>430</v>
+        <v>731</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>431</v>
+        <v>732</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>432</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3655,19 +5589,19 @@
         <v>3918</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>433</v>
+        <v>734</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>434</v>
+        <v>735</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>435</v>
+        <v>736</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>436</v>
+        <v>737</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3675,19 +5609,19 @@
         <v>3880</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>437</v>
+        <v>738</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>438</v>
+        <v>739</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>439</v>
+        <v>740</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>440</v>
+        <v>741</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3695,22 +5629,22 @@
         <v>3883</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>441</v>
+        <v>742</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>442</v>
+        <v>743</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>443</v>
+        <v>744</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>444</v>
+        <v>745</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>445</v>
+        <v>746</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3718,19 +5652,19 @@
         <v>3885</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>446</v>
+        <v>747</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>447</v>
+        <v>748</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>448</v>
+        <v>749</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>449</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3738,19 +5672,19 @@
         <v>3887</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>450</v>
+        <v>751</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>438</v>
+        <v>739</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>451</v>
+        <v>752</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>452</v>
+        <v>753</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3758,19 +5692,19 @@
         <v>3889</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>453</v>
+        <v>754</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>454</v>
+        <v>755</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>455</v>
+        <v>756</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>456</v>
+        <v>757</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3778,19 +5712,19 @@
         <v>3891</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>457</v>
+        <v>758</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>458</v>
+        <v>759</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>455</v>
+        <v>756</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>459</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3798,19 +5732,19 @@
         <v>3893</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>460</v>
+        <v>761</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>461</v>
+        <v>762</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>462</v>
+        <v>763</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>463</v>
+        <v>764</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3818,19 +5752,19 @@
         <v>3895</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>464</v>
+        <v>765</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>465</v>
+        <v>766</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>466</v>
+        <v>767</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>467</v>
+        <v>768</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3838,19 +5772,19 @@
         <v>3897</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>468</v>
+        <v>769</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>469</v>
+        <v>770</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>470</v>
+        <v>771</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>471</v>
+        <v>772</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3858,22 +5792,22 @@
         <v>3900</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>472</v>
+        <v>773</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>473</v>
+        <v>774</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>474</v>
+        <v>775</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>475</v>
+        <v>776</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>476</v>
+        <v>777</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3881,19 +5815,19 @@
         <v>3916</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>477</v>
+        <v>778</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>478</v>
+        <v>779</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>479</v>
+        <v>780</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>480</v>
+        <v>781</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3901,22 +5835,22 @@
         <v>3903</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>481</v>
+        <v>782</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>482</v>
+        <v>783</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>443</v>
+        <v>744</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>444</v>
+        <v>745</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>445</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3924,19 +5858,19 @@
         <v>3905</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>483</v>
+        <v>784</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>484</v>
+        <v>785</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>485</v>
+        <v>786</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>486</v>
+        <v>787</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3944,22 +5878,22 @@
         <v>3908</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>487</v>
+        <v>788</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>488</v>
+        <v>789</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>489</v>
+        <v>790</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>490</v>
+        <v>791</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>491</v>
+        <v>792</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3967,19 +5901,36 @@
         <v>3910</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>492</v>
+        <v>793</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>493</v>
+        <v>794</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>494</v>
+        <v>795</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>495</v>
+        <v>796</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -3998,14 +5949,320 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>848</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>856</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4027,7 +6284,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4182,7 +6439,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4323,13 +6580,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4563,6 +6820,327 @@
       </c>
       <c r="G12" s="0" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4581,13 +7159,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4617,19 +7195,19 @@
         <v>3794</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4637,19 +7215,149 @@
         <v>3793</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>210000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>108</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4674,7 +7382,7 @@
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4704,22 +7412,22 @@
         <v>3801</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>109</v>
+        <v>227</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>111</v>
+        <v>229</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>112</v>
+        <v>230</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>113</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4727,16 +7435,16 @@
         <v>3798</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>190000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4744,39 +7452,39 @@
         <v>3804</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>119</v>
+        <v>237</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>121</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>241</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>125</v>
+        <v>243</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>126</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4795,13 +7503,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4831,19 +7539,19 @@
         <v>3807</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>170000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>130</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4851,22 +7559,328 @@
         <v>3810</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>240000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>134</v>
+        <v>252</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>135</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -4885,13 +7899,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4921,27 +7935,49 @@
         <v>3813</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>137</v>
+        <v>329</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>138</v>
+        <v>330</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>139</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>140</v>
+        <v>332</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>60000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -4966,7 +8002,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4996,19 +8032,19 @@
         <v>3816</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>141</v>
+        <v>337</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>338</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>80000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>143</v>
+        <v>339</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>144</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5016,19 +8052,19 @@
         <v>3818</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>341</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>147</v>
+        <v>343</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>148</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/cosmetics.xlsx
+++ b/sheets/cosmetics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="serums" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,8 +23,9 @@
     <sheet name="lip-sticks" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="perfumes" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="deodorants" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="hand-forming-soaps" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="hand-foaming-soaps" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="body-soap" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="shower-gels" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="987">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -318,6 +319,10 @@
   </si>
   <si>
     <t xml:space="preserve">Bath and Body Works Aromatherapy Cedarwood Vanilla Sleep Moisturizing Body Lotion 6.5 Ounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authentic Bath &amp; Body Works Aromatherapy SLEEP Cedarwood + Vanilla Moisturizing Body Lotion
+6.5 fl oz / 192 mL</t>
   </si>
   <si>
     <t xml:space="preserve">https://m.media-amazon.com/images/I/61Fipw+7kwL._SL1500_.jpg</t>
@@ -490,16 +495,16 @@
     Style: Warm</t>
   </si>
   <si>
-    <t xml:space="preserve">https://cdn.store-assets.com/s/139218/i/36144073.jpg?width=1024&amp;format=webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cdn.store-assets.com/s/139218/i/36105290.jpg?width=1024&amp;format=webp</t>
+    <t xml:space="preserve">https://cdn.store-assets.com/s/139218/i/36144073.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.store-assets.com/s/139218/i/36105290.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.beautyspot.my/collections/sale/products/victorias-secret-pink-hello-fall-body-lotion-sweet-orchard</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bath and Body Works Vanilla Bean Noel Shimmer Fizz Body Lotion 3.5 Ounce (2018 Edition) </t>
+    <t xml:space="preserve">Bath and Body Works Vanilla Bean Noel Shimmer Fizz Body Lotion 3.5 Ounce (2018 Edition) </t>
   </si>
   <si>
     <t xml:space="preserve">Brand: 	Bath &amp; Body Works
@@ -613,16 +618,6 @@
     <t xml:space="preserve">https://www.amazon.in/Bath-Body-Works-Midnight-Smooth/dp/B0BF11K1X8/ref=d_pd_day0_sccl_1_2/260-9196975-5769943?pd_rd_w=pk1r7&amp;content-id=amzn1.sym.ddf3065d-37bd-4713-89a2-28f76ee88912&amp;pf_rd_p=ddf3065d-37bd-4713-89a2-28f76ee88912&amp;pf_rd_r=5SXZD3GT4GEF8QZXRC33&amp;pd_rd_wg=pOMDV&amp;pd_rd_r=bb3f7927-5cd1-49dc-8134-de141b4ff3d5&amp;pd_rd_i=B0BF11K1X8&amp;psc=1</t>
   </si>
   <si>
-    <t xml:space="preserve">Fairytale Shower Gel From Bath and Body Works</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write your own magical story with this blend of pomegranate nectar with fresh orange blossom and a dreamy combination of vanilla and warm amber in a rich, bubbly lather
-Size: 10 fl oz / 295 Ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cdn.mall.adeptmind.ai/https%3A%2F%2Fwww.bathandbodyworks.ca%2Fon%2Fdemandware.static%2F-%2FSites-bbw_ca-storefront-catalog%2Fdefault%2Fdwc108b991%2Fhires%2F026300694.jpg_large.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Japanese Cherry Blossom Super Smooth Body Lotion</t>
   </si>
   <si>
@@ -661,19 +656,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.bathandbodyworks.com.sa/en/buy-thousand-wishes-daily-nourishing-body-lotion.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bath &amp; Body Works BRIGHT LEMON SNOWDROP Shower Gel Body Wash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand: Bath &amp; Body Works
-Size: 295ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://i.ebayimg.com/images/g/nlsAAOSwa5Rd-qOH/s-l1600.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebay.com/itm/174130056871</t>
   </si>
   <si>
     <t xml:space="preserve">Bath &amp; Body Works Vanilla Bean Noel Body Lotion 2014 8 oz/236 ml</t>
@@ -866,6 +848,48 @@
     <t xml:space="preserve">https://penhadutyfree.com/cay/shop/victorias-secret-pure-seduction-refreshing-gel-body-wash/</t>
   </si>
   <si>
+    <t xml:space="preserve">Garnier Skinactive Pure Active 3-In-1 Wash, Scrub And Mask 150Ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item form:	Cream
+Skin type:	All
+Brand:	Garnier
+Age range (description): 	Adult
+Number of Items:	1
+Unit count:	150 millilitre
+Special features:	Original
+Item package quantity:	1
+Item weight:	0.17 Grams
+Item dimensions LxWxH:	7.8 x 5 x 14.7 centimeters
+- Improved formula for better results
+- Perfect addition to your collection
+- Easy to use and hassle free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71ANN39hC2L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81NVnfQmPAL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.eg/-/en/Garnier-Skinactive-Active-Scrub-150Ml/dp/B004DIM9F4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret Green Pear &amp; Citrus Natural Beauty Moisturizing Cream Body Wash 8 oz (Green Pear &amp; Citrus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Form: 	Cream
+Skin Type: 	All
+Brand: 	Victoria's Secret
+Scent: 	Citrus
+Material Feature: 	Natural
+Size: 236ml
+Victoria's Secret Green Pear &amp; Citrus Natural Beauty Moisturizing Cream Body Wash 8 oz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41lKAKXdZbS._SL1050_.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bio-Oil Skincare Oil 60ml</t>
   </si>
   <si>
@@ -1150,7 +1174,7 @@
 Volume	3.5 oz</t>
   </si>
   <si>
-    <t xml:space="preserve">https://image.rehabmart.com/include-mt/img-resize.asp?output=webp&amp;path=/imagesfromrd/Untitled~27.png&amp;newwidth=540&amp;quality=80</t>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0434/3663/8373/products/2100x2100_Diabeticare_IntensiveCream_600x.jpg?v=1646674223</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.rehabmart.com/product/diabeticare-intense-cream-31473.html</t>
@@ -1176,21 +1200,6 @@
     <t xml:space="preserve">https://cdn11.bigcommerce.com/s-g5ff8/images/stencil/1000x1000/products/157/528/Herbacin_kamille_Cream_soap_200ml_EU__48512.1671128677.jpg?c=2</t>
   </si>
   <si>
-    <t xml:space="preserve">Victoria's Secret Green Pear &amp; Citrus Natural Beauty Moisturizing Cream Body Wash 8 oz (Green Pear &amp; Citrus)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item Form: 	Cream
-Skin Type: 	All
-Brand: 	Victoria's Secret
-Scent: 	Citrus
-Material Feature: 	Natural
-Size: 236ml
-Victoria's Secret Green Pear &amp; Citrus Natural Beauty Moisturizing Cream Body Wash 8 oz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/41lKAKXdZbS._SL1050_.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bath and Body Works FOREVER RED Ultra Shea Body Cream 8 Ounce (2018 Limited Edition)</t>
   </si>
   <si>
@@ -1257,6 +1266,22 @@
     <t xml:space="preserve">https://www.amazon.eg/-/en/Dove-Fresh-Moisturising-Cream-Spray/dp/B006KFJ7EY</t>
   </si>
   <si>
+    <t xml:space="preserve">HERBACIN Hand Cream Unscented Tube 20ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Contains camomile blossom extract
+• No parabens
+• No mineral oils
+• No animal ingredients
+• No synthetic colors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://homerainbow.com/wp-content/uploads/2020/04/4013718024042.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://homerainbow.com/product/herbacin-hand-cream-unscented-tube-20ml/#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">CORNELLS Full Throttle Germ Protect Sports Hand Sanitizer Spray, 100 ml</t>
   </si>
   <si>
@@ -1272,11 +1297,10 @@
     <t xml:space="preserve">Refreshing Hand Sanitizer - 550ml</t>
   </si>
   <si>
-    <t xml:space="preserve">Bath &amp; Body Works |  Foaming Hand Sanitizers – 51g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    - Daydreams and Ice Cream - Boardwalk Vanilla Cone
+    <t xml:space="preserve">Bath and Body Works - Hand Sanitizer Foaming Mousse - One Of A Kind (Watermelon Lemonade) - 51 gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daydreams and Ice Cream - Boardwalk Vanilla Cone
     - Island Margarita
     - Life Is Better At The Beach - Blue Ocean Waves
     - Mermaid Sea Foam
@@ -1290,6 +1314,35 @@
     <t xml:space="preserve">https://lifeinsidethepage.blogspot.com/2019/04/bath-body-works-new-foaming-hand.html</t>
   </si>
   <si>
+    <t xml:space="preserve">Bath and Body Works - Hand Sanitizer Foaming Mousse - Everything Starts With A Dream (Watermelon Lemonade) - 51 gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.static-src.com/wcsstore/Indraprastha/images/catalog/full//91/MTA-38135502/bath_-_body_works_bath_and_body_works_-_hand_sanitizer_foaming_mousse_-_everything_starts_with_a_dream_-watermelon_lemonade-_-_51_gr_full01_d9as3mhj.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.blibli.com/amp/p/bath-and-body-works-hand-sanitizer-foaming-mousse-everything-starts-with-a-dream-watermelon-lemonade-51-gr/ps--PAN-70020-02754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Island Margarita Hand Sanitizer Spray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRAGRANCE:
+A classic tropical cocktail that kills 99.9% of most common germs.
+OVERVIEW:
+What it does: kills 99.9% of most common germs.
+Why you’ll love it:
+    Infused with the good stuff (aloe and essential oils)
+    Lightweight spray leaves hands feeling clean, soft and fragranced
+    Formula is 72% alcohol (meeting CDC guidelines)
+    Perfect for your bag, center console…or anywhere really</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://firstbodytt.com/wp-content/uploads/2022/05/NEW_PRODUCT_IMAGES-471x633_0013_026438455.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://firstbodytt.com/product/island-margarita-hand-sanitizer-spray/</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEPHORA COLLECTION 10 HR Wear Perfection Foundation 8 Light Ivory - 25ml</t>
   </si>
   <si>
@@ -1306,8 +1359,7 @@
     <t xml:space="preserve">https://www.amazon.com/SEPHORA-COLLECTION-Perfection-Foundation-Light/dp/B01LYPFMGI</t>
   </si>
   <si>
-    <t xml:space="preserve">The Body Shop Almond Hand &amp; Nail Butter, 3.3 Oz
-</t>
+    <t xml:space="preserve">The Body Shop Almond Hand &amp; Nail Butter, 3.3 Oz</t>
   </si>
   <si>
     <t xml:space="preserve">Intensely hydrate your hands and cuticles with our rich and indulgent almond butter.
@@ -1323,6 +1375,112 @@
     <t xml:space="preserve">https://www.amazon.com/Body-Shop-Almond-Hand-Butter/dp/B01MZ22SWL</t>
   </si>
   <si>
+    <t xml:space="preserve">Dellameria lips lightening PINK LIPS CREAM FOR SMOKERS ADVANCE FORMULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Dellameria (Lips lightening PINK LIPS Cream for smokers)
+Item form:	Cream
+Skin type:	Sensitive
+manufacturer: Realigns Pharmaceuticals
+Item Trademark: DELLAMERIA (LIPS LIGHTENING PINK LIPS CREAM FOR SMOKERS)
+Item Category: Lip Balm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81nv0c9XJiS._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81-xumvw5cS._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/Dellameria-lightening-PINK-LIPS-SMOKERS/dp/B08PHX9J1R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANEIGE Lip Sleeping Mask: Nourish &amp; Hydrate with Vitamin C, Antioxidants, 0.7 oz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	LANEIGE
+Item Form:	Balm
+Finish Type:	Glossy
+Skin Type:	Oily, Combination, Sensitive, Dry, Normal
+Color:	Rose
+A leave-on lip mask that delivers intense moisture and antioxidants while you sleep with Berry Fruit Complex™, Murumuru seed and Shea butter.
+This lip mask delivers intense moisture and antioxidants while you sleep for visibly smoother, baby-soft lips.
+Using applicator, apply hydrating lip mask generously to the lips and leave on overnight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71rI4xE5+XL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61P+Rd40FDL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Laneige-Sleeping-Berry/dp/B07XXPHQZK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irem Pink Lips - Lip cream Repair restore and brighten lips. With Vitamin C, Hyaluronic and Licorice 15g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	irem
+Item Form:	Cream
+Finish Type:	Glossy
+Skin Type:	Dry
+Colour:	white
+Product Benefits:	Repairing
+Item Weight:	15 Grams
+Number of Items:	1000
+Net Quantity:	1 count
+This lip cream contains a blend of proven actives that help in repairing, protecting, and moisturizing your lips. This is an effective solution for gentle lip care as it contains the nutritious properties of natural ingredients.
+This cream exfoliator works wonders by clearing the dry skin and dark marks on your lips. It works effectively to keep your lips hydrated and moisturized.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71IcGUQcWqL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81ACSOwzbcL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/Irem-Pink-Lips-brighten-Hyaluronic/dp/B07R16C1X6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERBACIN Kamille Lip Balm Citrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gently cares for sensitive lips that have cracked.
+A lip balm made from organic farm-grown chamomile and vegetable oil that keeps your lips smooth and soft.
+The moisturizing ingredient protects the skin from dryness and can be used all year round, not to mention the dry winter.
+When you are concerned about dryness, apply an appropriate amount to your lips.
+Brand name:	Herbacin
+Product name:  Lip balm citrus
+Internal capacity:	4.8g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/2141/8475/products/301411106-2_550x.jpg?v=1671175901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/2141/8475/products/301411106-1_550x.jpg?v=1671175901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shopee.co.th/Herbacin-Kamille-Lip-Balm-Citrus-4.8g-Lip-balm-i.38822702.7156557940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERBACIN Kamille Lip Balm Mint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puts an end to sore, chapped lips offering gentle care and effective protection for our sensitive lip skin. Made from pure vegetable oils and the active ingredients of camomile from controlled organic farming, our lip balm keeps your lips perceptibly soft and smooth. Intensely moisturizing substances relax the skin and protect it from drying out sustainably. Be it in harsh weather. Or when kissing.
+    - Free of preservatives
+    - Free of chemical antioxidants
+    - Plant-based materials from organic farming
+    - Made of natural beeswax
+    - Skin compatibility dermatologically approved
+    - Also suitable for sensitive lips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.forest.co.jp/forest/goods/images/p/542043a.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.forest.co.jp/forest/goods/images/p/542043b.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">LA ROCHE POSAY – 200ml</t>
   </si>
   <si>
@@ -1353,22 +1511,18 @@
     <t xml:space="preserve">https://www.amazon.com/Christian-Dior-Sauvage-Elixir-Spray/dp/B09FY38T89</t>
   </si>
   <si>
-    <t xml:space="preserve">Island Margarita Hand Sanitizer Spray – 3 fl oz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A classic tropical cocktail that kills 99.9% of most common germs.
-Why you’ll love it:
-    - Infused with the good stuff (aloe and essential oils)
-    - Lightweight spray leaves hands feeling clean, soft and fragranced
-    - Formula is 72% alcohol (meeting CDC guidelines)
-    - Perfect for your bag, center console…or anywhere really
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://firstbodytt.com/wp-content/uploads/2022/05/NEW_PRODUCT_IMAGES-471x633_0013_026438455.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://firstbodytt.com/product/island-margarita-hand-sanitizer-spray/</t>
+    <t xml:space="preserve">Dr. Teal's Sleep Spray With Melatonin And Essential Oils Blue 177ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack size : 177ml
+Multi-purpose sleep spray combines melatonin, a hormone that helps regulate sleep and wake cycles, and a soothing blend of lavender and chamomile essential oils to help promote a better night’s sleep.
+Dr Teal’s Epsom Salt Soaks not only soothe the body but provide the ideal opportunity to relax in a warm bath, quiet the mind and de-stress. Directions: Add 2 cups of refreshing Dr Teal’s Pure Epsom Salt Soak to a warm bath, and soak silently with your eyes closed, for at least 20 minutes. For best results, soak at least twice per week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i5.walmartimages.com/asr/2a5c6e1a-b992-492d-8176-75c2cdd8a650.8f8c0b4500659e41605c63a04d4a5167.jpeg?odnHeight=612&amp;odnWidth=612&amp;odnBg=FFFFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.carrefouruae.com/mafuae/en/root-maf-category/food-navigation-category/beauty-personal-care/face-body-skin-care/face-moisturizers-oils/dr-teal-s-sleepspry-melatonin-177ml/p/1715104</t>
   </si>
   <si>
     <t xml:space="preserve">HASK HEMP OIL &amp; Agave Moisturizing Shampoo 355ml</t>
@@ -1405,6 +1559,50 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.alexandar-cosmetics.com/en/product/repairing-conditioner-hask-argan-oil-355ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dabur Amla Cooling Hair Oil 200ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dabur Amla cooling oil with Amla, Menthol and Sandalwood oil helps cool your scalp. Regular use nourish and strengthen your hair and gives you long and beautiful hair Amla, Mentha, Sandalwood along with other ingredients. Gives cooling effect to the scalp, helps nourish and strengthen hair.
+Ingredients:
+Paraffinum Liquidum (Mineral Oil)
+Elaeis Guineensis Oil, Canola Oil, Menthol, Parfum, Mentha, Piperita Oil, Ethyl Alcohol, Herbal Extract (Phyllanthus Emblica (Amla) Fruit Extract, Prunus Amygdalus Dulcis (Sweet Almond) Fruit Extract &amp; Santalum Album Extract), Cinnamomum Camphora, Butylmethoxy Dibenzoyl Methane, Tocopheryl Acetate, Butylated-Hydroxytoulene
+How to Use:
+Directions for Use Use your fingertips to gently massage Dabur Amla Cooling Oil onto scalp and the hair. Regular use soothes scalp, nourishes the hair roots and strengthens hair to ensure a good night's sleep leaving you totally refreshed for the next day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/91N+FPU4VAL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0531/8534/7737/products/DABURCOOLINGHAIROIL.jpg?v=1617740887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.indiabazaar.co.za/collections/hair-care/products/dabur-cooling-hair-oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLLY Blackberry Zen Restful Sleep Gummy, 10 CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLLY Blackberry Zen Restful Sleep Gummy, 10 CT. Sleep is vital for a healthy immune system - so it's important to get your zzz's to help keep you on the up and up.
+Other Ingredients: Glucose Syrup, Beet Sugar, Water, Gelatin, Natural Flavors, Citric Acid, Coloring (from Carrot and Blueberry Juices), Pectin, Vegetable Oil (Coconut, Canola), Carnauba Wax (To Prevent Sticking)
+Package Dimensions:	‎12.9 x 10.01 x 1.3 cm; 18 Grams
+Manufacturer reference:	‎01517
+Units:	‎10 count
+Brand:	‎OLLY
+Format:	‎Gummy
+Age Range Description:	‎Adult
+Speciality:	‎Gluten Free
+Manufacturer:	‎OLLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81PNkw9fuaL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81FLaYJh-0L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/OLLY-Blackberry-Restful-Sleep-Gummy/dp/B07W4S7C4K</t>
   </si>
   <si>
     <t xml:space="preserve">Lee Stafford Coco Lotion (Agave Shine) – 150ml</t>
@@ -1639,13 +1837,16 @@
     <t xml:space="preserve">Bath &amp; Body Works Winter Candy Apple – 236ML</t>
   </si>
   <si>
-    <t xml:space="preserve">Lavishly splash or lightly spritz your favorite fragrance, either way you'll fall in love at first mist! Bath &amp; Body Works' carefully crafted bottle and sophisticated pump delivers great coverage while conditioning aloe mist nourishes skin for the lightest, most refreshing way to fragrance!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tinkerlust.com/_next/image?url=https%3A%2F%2Ftinkerlust.s3.ap-southeast-1.amazonaws.com%2Fproducts%2F7fb71098-7b24-4236-8a78-4480cfa3efc3%2Foriginal%2F1280x1280%2FIMG_0109_427-FR-551.JPG&amp;w=1200&amp;q=100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lazada.com.ph/products/bath-body-works-fine-fragrance-mist-winter-candy-apple-75ml-travel-size-236ml-i3121963728-s15458448858.html?spm=a2o4l.tm80167379.5934338580.1.4625AuouAuouSB.4625AuouAuouSB&amp;priceCompare=skuId%3A15458448858%3Bsource%3Alazada-om%3Bsn%3A3d556126-feec-4dbd-a52a-80c4d61f09e2%3BoriginPrice%3A90000%3BvoucherPrice%3A90000%3Btimestamp%3A1675587874874</t>
+    <t xml:space="preserve">FRAGRANCE
+A merry-berry blend of candy red apple, winter rose petals, candied orange, maple leaf &amp; fresh cinnamon in our irresistible, long-lasting mist
+OVERVIEW
+Unwrap the warm spirit of Christmas with a candied fruit treat! Whether you lavishly splash or lightly spritz, you'll fall in love at first mist. Our carefully crafted bottle &amp; sophisticated pump delivers great coverage while the dermatologist-tested, conditioning aloe mist nourishes skin for the lightest, most refreshing way to fragrance!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.in/on/demandware.static/-/Sites-bathandbody_master_catalog/default/dw22ddaa8e/large/026164797.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.in/p/winter-candy-apple-667553784568.html</t>
   </si>
   <si>
     <t xml:space="preserve">Bath and Body Works Fine Fragrance Mist - 8 fl oz Full Size - Vanilla Bean Noel</t>
@@ -2593,10 +2794,13 @@
     <t xml:space="preserve">Swiss Arabian Gharaam Cologne by Swiss Arabian, Swiss Arabian Gharaam is inspired by the first stages of love. A woody, aromatic fragrance for men, the elixir is exotically alluring. Its top notes of jasmine and saffron produce the sweet, rich introduction, which could be said to replicate the yearning a person has for their romantic interest. The sole heart note of golden amber issues its honeyed musk, oozing with warmth and comfort. Fir and cedar are the base notes, imparting a woody freshness to the fragrance and striking a gorgeous balance with the floral and spicy top notes. The scent is particularly well-suited to evening wear in the cooler seasons when its natural warmth and richness glow.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://img.fragrancex.com/images/products/parent/medium/78382m.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.fragrancex.com/products/swiss-arabian/swiss-arabian-gharaam-cologne</t>
+    <t xml:space="preserve">https://swissarabian.com/wp-content/uploads/2021/03/GHARAAM-2-1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://swissarabian.com/wp-content/uploads/2021/03/GHARAAM-1-1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://swissarabian.com/product/collections/love/gharaam-2/</t>
   </si>
   <si>
     <t xml:space="preserve">Marc Avento Blend by Marc Avento 100ml Spray</t>
@@ -2719,7 +2923,261 @@
 Thierry Mugler Angel Perfume is a powerhouse of a perfume. Not a perfume to be worn and forgotten, Angel Perfume stays on the skin and mind with its unusual and addictive blend of gourmand, oriental and woody essences including a unique chocolate note.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://media.takealot.com/covers_images/0aa1a89b413441c8830fe6c914bb7af0/s-zoom.file</t>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51hAWkBnzcL.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACO RABANNE Lady Million Eau de Parfum for Women – 80ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paco Rabanne Lady Million fragrance for women was launched in 2010 following the huge success of its male counterpart One Million. One Million went on to become a modern classic, not to mention one of 2010's top-selling fragrances worldwide, and Lady Million has followed suit doing the same within the lady's fragrance market. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.flowersuganda.com/573-large_default/-paco-rabanne-lady-million-eau-de-parfum-for-women-80ml.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dior Homme Eau De Toilette Perfume For Men, 100 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dior Homme by Christian Dior is a Woody Floral Musk fragrance for men. Dior Homme was launched in 2011. The nose behind this fragrance is Francois Demachy.
+Brand:	Dior
+Item form:	Liquid
+Item volume:	3.4 Fluid Ounces
+Scent:	Floral
+Special features:	Floral
+Age range (description):	Adult
+Item weight:	0.1 Kilograms
+Number of Items:	1
+Unit count:	100 millilitre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61j7tOKFhTL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61ppxkfydLL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.sa/-/en/Dior-Homme-Eau-Toilette-Perfume/dp/B000GHVH5Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Panthere Eau de Parfum Legere Edition Limited by Cartier for Women - Eau de Parfum, 100 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Cartier
+Item form:	Liquid
+Item volume:	3.3 Fluid Ounces
+Scent:	Citrus, Fresh, Rose, Wood 
+Age range (description):	Adult
+Item weight:	1 Pounds
+Unit count:	100 millilitre
+- top notes of greens, dry fruits, pear, lime, and tangerine. This beautiful blend of notes gives a fresh and citrusy opening.
+- heart notes of gardenia, tiare flower, aldehydes, jasmine, peach, rose, and ylang ylang allures with its charming simplicity
+- woody base born from the encounter of a brilliant and delicate combination of patchouli, moss, leather, and orris root with sensual notes of musk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61cuMmIvcFL._AC_SL1200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.sa/-/en/Panthere-Parfum-Legere-Limited-Cartier/dp/B01L9I581C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZARA SEOUL + LISBOA 80 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZARA SEOUL 532-8 SINSA DONG GANGNAM-GU 80 ML + ZARA LISBOA COLOMBO AVENIDA DO COLEGIO 80 ML 2X (2.71 FL. OZ).
+Eau de toilette set of two. Fragrance pyramid includes notes of pepper, ylang ylang, and dry amber (I) + lemon, jasmine, and moss (II).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i0.wp.com/www.theperfumerykenya.com/wp-content/uploads/2022/09/Zara_Seoul_Lisboa_80ml_Bottle_Box.jpeg?resize=1024%2C1024&amp;ssl=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i0.wp.com/www.theperfumerykenya.com/wp-content/uploads/2022/09/Zara_Seoul_Lisboa_80ml_Bottle_1.jpeg?fit=1280%2C1280&amp;ssl=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zara.com/us/en/zara-seoul-lisboa-80-ml-p20210506.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Haramain Amber Oud Gold EDP Unisex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scent:Al Haramain Amber Oud Gold Edition EDP Spray 4oz
+Size:5 Fl Oz (Pack of 1)
+Brand:	Al Haramain
+Item Form:	Liquid
+Item Volume:	2 Fluid Ounces
+Scent:	Al Haramain Amber Oud Gold Edition EDP Spray 4oz
+Fragrance Concentration:	body_spray
+- melon, pineapple, sweet notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/516nQYVmwwL._SL1490_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Al-Haramain-Amber-Gold-Unisex/dp/B08CF39Z81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria's Secret Very Sexy Orchid 3.4 Oz Eau de Parfum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Victoria's Secret
+Item Form:	Liquid
+Item Volume:	1.7 Fluid Ounces
+Scent:	Very Sexy Orchid
+Age Range (Description):	Adult
+- Scent notes of blackcurrant, orris woods, and sheer patchouli.
+- Eau de Parfum is our most concentrated, pure version of the fragrance.
+- Layer on top of matching Very Sexy Orchid Fine Fragrance Lotion and spray on Very Sexy Fine Fragrance Orchid Mist throughout the day for a long-lasting fragrance experience.
+- Discover Victoria’s Secret Very Sexy Fine Fragrance Collection. Shop Very Sexy, Very Sexy Sea, and Very Sexy Night.
+- Fragrance type: Warm Gourmand
+- 100 ml/3.4 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/5173RgxhcJL._SL1013_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/615enPKYnHL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Orchid-Victorias-Secret-Parfum-Spray/dp/B08N18SLST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BVLGARI Man Wood Essence Eau de Parfum, 100ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capturing the energy of nature for an urban man in tune with his environment, Bvlgari introduces its new fragrance creation, Bvlgari Man Wood Essence.
+When man reconnects with nature, he re-establishes his tie to it, recovers his inner strength, and is ready to master his urban environment. He’s reminded that he's a #citizenofnature.
+Bvlgari Man Wood Essence is a daring and unique olfactory signature created by Master Perfumer Alberto Morillas.
+The fragrance opens with a bright spark of citrus and spice. This liveliness gives way to masculine notes of Cypress Wood and Haitian Vetiver. Like the hearth of a home, the fragrance’s foundation is thoroughly warm and inviting. Base notes of Cedar Wood and Ambergris provide a final rush of invigorating strength.
+Artfully blended, the Eau de Parfum is built like a tree: it’s colourful top notes dance like leaves in the wind, its earthy middle notes embody the strength of a tree trunk, and its robust bottom notes anchor the scent as well as any roots.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://atudutyfree.com/asset/product/5/4501/uDh66.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://atudutyfree.com/asset/product/5/4501/NEZbe.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.johnlewis.com/bvlgari-man-wood-essence-eau-de-parfum/p3653037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BVLGARI Man In Black Eau de Parfum, 100ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introducing the latest addition to the BVLGARI Man portfolio, BVLGARI Man in Black. This neo-oriental Eau de Parfum is a perfect blend of contrasts. Top notes of rum, cardamom and cinnamon provide a vibrant addictiveness, whilst the leathery floral heart of tuberose contributes to the sophistication of the fragrance. Sealed by black amber and a leather accord, a warm and distinctive scent is formed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61jlw8xv2bL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/5108-GawEqL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.johnlewis.com/bvlgari-man-in-black-eau-de-parfum/p1647268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bvlgari Splendida Jasmin Noir Eau De Parfum for Women, 100 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BVLGARI's Jasmin Noir captures the irresistible charm of a mysterious and intensely sensual woman. Captivating and caressing, Jasmin Noir is a rich mix of voluptuous floral and precious woody notes with accents of almond and licorice. This infinitely addictive essence is sublimely revealed by jasmine, a flower whose beauty is as pure as it is tantalizing. This scent embodies the very heart of the BVLGARI brand, reflecting the richest and noblest codes of a luxury jewelry legacy. The deep black and luminous gold bottle beautifully honors the heritage of prestigious allure. Base notes - heart of patchouli, cashmeran woods.
+Brand:	Bulgari
+Item form:	Liquid
+Item volume:	3.4 Fluid Ounces
+Scent:	Floral
+Special feature:	Scented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51cmcwJSlXL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/Bvlgari-Splendida-Jasmin-Parfum-Women/dp/B071RS72DY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armaf Club De Nuit - Sillage, Eau De Parfum, Long-lasting Fragrance, 105 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience the latest and greatest club de Nuit, this new take on a masculine fragrance aims to wow and succeeds, experience This new Eau de Parfum!. A very distinctive strong and long-lasting fragrance that lasts up to 11hrs on your skin
+Club De Nuit Sillage is a sharp and commanding fragrance delivering outstanding strength and tenacity. It uncovers a crisp citrus opening with bergamot, lemon, lime, ginger, and violet leaf. The heart is composed of florals; jasmine, iris, and rose meld together for a passionate accord. The base indulges sandalwood, musk, ambroxan, and cedar.
+Top notes: Bergamot, Lemon, Lime, Ginger, Black Curren, Violet Leaves
+Heart notes:  Jasmine, Iris, Rose
+Base notes: Sandalwood, Cedarwood, Musk, Ambroxan
+Composition:
+Alcohol Denat, Parfum, Aqua, Limonene, Linalool, Citral, Hexyl Cinnamal, Farnesol, Butyphenyl, Methyl Propionyl, Coumarin, Alpha Iso Methyl Ionone, Geraniol, 80% Volume.
+How to Use
+Apply directly to the skin your skin provides the perfect canvas for your favourite scent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bigbasket.com/media/uploads/p/xxl/40254728-3_2-armaf-armaf-club-de-nuit-sillage-eau-de-parfum-105m.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bigbasket.com/media/uploads/p/xxl/40254728-2_2-armaf-armaf-club-de-nuit-sillage-eau-de-parfum-105m.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bigbasket.com/pd/40254728/armaf-armaf-club-de-nuit-sillage-eau-de-parfum-105m-105-ml/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miss Dior by Christian Dior for Women - Eau de Parfum, 100 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 1947, Miss Dior was born out of a wild impetus where thepressing desire to re-enchant the lives of women and open up their eyes, onceagain, to the sparkling colours of love was felt. Following a bleak period, atthat time this scent was synonymous with renewed happiness, poetry, and harmonyfor Christian Dior. Miss Dior intrigues, excites and invites us to marvel atlove and all the beauty in the world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.arablly.com/images/thumbnails/795/651/detailed/11/christian-dior-miss-dior-eau-de-parfum-100-ml.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.arablly.com/images/thumbnails/1109/907/detailed/11/miss-dior-cherie-by-christian-dior-for-women-edp-100ml-9886.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.arablly.com/perfumes/miss-dior-cherie-by-christian-dior-for-women-edp-100ml/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roses Vanille for Women, edP 120ml by Mancera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy Perfume Roses Vanille for Women by Mancera Qatar at a discounted price
+Roses Vanille for Women is an Oriental Vanilla fragrance launched in 2011. Roses Vanille is the most delicious seduction that has ever been created with roses and vanilla. When wearing it, one can find themselves “good enough to eat”. Rose Vanille is fresh and sweet. It was crafted by Pierre Montale.
+The top note opens with Lemon and Water Notes followed by middle notes of Rose and Sugar, ending with a base note of Vanilla, Sugar, White Musk and Cedar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://g3e4v8x2.rocketcdn.me/wp-content/uploads/9498A.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://g3e4v8x2.rocketcdn.me/wp-content/uploads/9498B.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://perfumeqatar.com/product/roses-vanille-for-women-edp-120ml-by-mancera/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANFAS ALKHALEEJ-BLUE DIAMOND EAU DE PARFUM 100ML UNISEX NATURAL SPRAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The brand's masters work tirelessly in laboratories to produce truly expressive and multifaceted compositions with a restrained character, but not devoid of their trademark oriental sensuality. A similar contrast is inherent in the next fragrance creation Anfas Alkhaleej Perfumes Blue Diamond, which, like most of the authentic brand's masterpieces, belongs to the category of universal scents. In a luxurious sky-blue bottle, a real perfume "diamond" is hidden, striking on the spot with its richness of melody and real Arabian passion. The piercingly frank sound of the fragrance is the merit of ingenious perfumers and, of course, the best olfactory raw materials that they use in their work, as well as natural essential oils, which underlie the pyramid of every scent presented. Anfas Alkhaleej Perfumes Blue Diamond is no exception to this wonderful rule and is distinguished, first of all, by the duration and contrast of temperatures. The gentle cool melody of Moroccan jasmine blends perfectly with the hot wave of traditional oriental amber and precious wood resins. Elegant coniferous motives of noble cedar play in a duet with spicy saffron, leaving behind a memorable coniferous-smoky aftertaste.
+FRAGRANCE FAMILY: oriental, woody
+TOP NOTES: jasmine, saffron
+MIDDLE NOTES: amber , woody notes
+BASE NOTES: cedar , fir balsam , resins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0283/8619/7601/products/ANFAS_AL_KHALEEJ_BLUE_DIAMOND-VISUAL_2_540x.jpg?v=1632748088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0283/8619/7601/products/ANFAS_AL_KHALEEJ_BLUE_DIAMOND-VISUAL_1_1800x1800.jpg?v=1632748088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bh.jashanmal.com/products/anfas-alkhaleej-blue-diamond-eau-de-parfum-100ml-unisex-natural-spray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZARA NIGHT POUR HOMME II + ZARA NIGHT POUR HOMME III EDP 100 ML (3.4 FL. OZ).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eau de parfum duo set. The scent reveals notes of bergamot, lavender and cedar (I) + cardamom, iris and amber (II).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i0.wp.com/www.theperfumerykenya.com/wp-content/uploads/2022/09/Zara_Night_II_IV_Duo_Set_Bottle_Box.jpeg?fit=1280%2C1280&amp;ssl=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i0.wp.com/www.theperfumerykenya.com/wp-content/uploads/2022/09/Zara_Night_II_IV_Duo_Set_Bottle.jpeg?fit=1280%2C1280&amp;ssl=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zara.com/sa/en/night-pour-homme-ii-iii-100-ml-p20210042.html</t>
   </si>
   <si>
     <t xml:space="preserve">Nivea Protect &amp; Care Anti-Perspirant Deodorant Stick</t>
@@ -3177,23 +3635,7 @@
     <t xml:space="preserve">https://fragmetics.com/products/bath-body-works-dark-kiss-hand-soap</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Bath &amp; Body Works </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Sweater Weather Gentle Foaming Hand Soap</t>
-    </r>
+    <t xml:space="preserve">Bath &amp; Body Works Sweater Weather Gentle Foaming Hand Soap</t>
   </si>
   <si>
     <t xml:space="preserve"> A cool, crisp blend of sage, eucalyptus &amp; fresh woods in our luxurious foaming soap </t>
@@ -3317,6 +3759,81 @@
   <si>
     <t xml:space="preserve">https://www.amazon.com/Body-Shop-Purifying-Tree-Hand/dp/B095QP1V5B</t>
   </si>
+  <si>
+    <t xml:space="preserve">Moroccan Beauty Al Tag Super Soap With Argan Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Moroccan Beauty
+Size: 600g
+Renowned for its exfoliating and skin softening qualities.
+Fights uneven skin texture, discoloration, dullness, and acne.
+Removes dead cells and toxins,
+Al Tag Moroccan Black Soap with Argan oil – 600g
+This is renowned for its exfoliating and skin softening qualities. Exfoliation is the act of removing dead skin cells from the surface of the skin. Some common problems which can be solved by regular exfoliation are uneven skin texture, discoloration, dullness, and acne. This soap cleanses the skin by removing dead cells and toxins, leaving it soft and silky to the touch.
+Directions: Apply onto wet face and body during shower or bath. Use regularly, morning and night.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shopandgo.ug/wp-content/uploads/2021/05/Moroccan-Beauty-Al-Tag-Super-Soap-With-Argan-Oil.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shopandgo.ug/product/moroccan-beauty-al-tag-super-soap-with-argan-oil/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairytale Shower Gel From Bath and Body Works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write your own magical story with this blend of pomegranate nectar with fresh orange blossom and a dreamy combination of vanilla and warm amber in a rich, bubbly lather
+Size: 10 fl oz / 295 Ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.mall.adeptmind.ai/https%3A%2F%2Fwww.bathandbodyworks.ca%2Fon%2Fdemandware.static%2F-%2FSites-bbw_ca-storefront-catalog%2Fdefault%2Fdwc108b991%2Fhires%2F026300694.jpg_large.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works BRIGHT LEMON SNOWDROP Shower Gel Body Wash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Bath &amp; Body Works
+Size: 295ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ebayimg.com/images/g/nlsAAOSwa5Rd-qOH/s-l1600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebay.com/itm/174130056871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath &amp; Body Works Vanilla Bean Noel Shower Gel with Shea &amp; Vitamin E – 295ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item form:	Gel
+Brand:	Bath &amp; Body Works
+Unit count:	10.0 Fl Oz
+Item package quantity:	1
+Item weight:	0.79 Pounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71TVXK8xOXL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71uRAW+DoiL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.eg/-/en/Bath-Body-Works-Vanilla-Vitamin/dp/B0176VRJY0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Candy Apple Shower Gel – 295ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A merry-berry blend of candy red apple, winter rose petals, candied orange, maple leaf &amp; fresh cinnamon in a rich, bubbly lather
+Unwrap the warm spirit of Christmas with a candied fruit treat! Our dermatologist-tested Shower Gel combines nourishing vitamin E &amp; aloe to create a rich, bubbly lather. Gentle &amp; non-drying, it's the perfect daily cleanser to leave skin feeling fresh &amp; clean!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.in/on/demandware.static/-/Sites-bathandbody_master_catalog/default/dweb2b4905/large/026171403.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bathandbodyworks.in/p/winter-candy-apple-667553789327.html</t>
+  </si>
 </sst>
 </file>
 
@@ -3325,7 +3842,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3349,15 +3866,15 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -3366,11 +3883,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3415,7 +3927,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3428,16 +3940,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3463,7 +3971,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
   </cols>
@@ -3572,10 +4080,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3605,33 +4113,33 @@
         <v>3821</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3823</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>348</v>
+      <c r="B3" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,30 +4147,39 @@
         <v>3826</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>351</v>
+        <v>385</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>700000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="96.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4097</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>356</v>
+        <v>390</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>100000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -3681,13 +4198,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3717,19 +4234,19 @@
         <v>3829</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3737,19 +4254,19 @@
         <v>3831</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,19 +4274,65 @@
         <v>3833</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>370</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4100</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4103</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -3788,13 +4351,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3824,373 +4387,464 @@
         <v>3836</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4106</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4108</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4110</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4112</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4115</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4117</v>
+      </c>
       <c r="B8" s="0" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4120</v>
+      </c>
       <c r="B9" s="0" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4122</v>
+      </c>
       <c r="B10" s="0" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>4124</v>
+      </c>
       <c r="B11" s="0" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>413</v>
+        <v>456</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>4127</v>
+      </c>
       <c r="B12" s="0" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>4129</v>
+      </c>
       <c r="B13" s="0" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>4131</v>
+      </c>
       <c r="B14" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>424</v>
+        <v>467</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>4133</v>
+      </c>
       <c r="B15" s="0" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4135</v>
+      </c>
       <c r="B16" s="0" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>4138</v>
+      </c>
       <c r="B17" s="0" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>4141</v>
+      </c>
       <c r="B18" s="0" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>4143</v>
+      </c>
       <c r="B20" s="0" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>4145</v>
+      </c>
       <c r="B21" s="0" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>460</v>
-      </c>
-    </row>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G11" r:id="rId1" display="https://www.amazon.com/Victorias-Secret-Fresh-Clean-Women/dp/B00AYH8KE2?th=1"/>
@@ -4213,10 +4867,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4245,23 +4899,23 @@
       <c r="A2" s="1" t="n">
         <v>3840</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>461</v>
+      <c r="B2" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>465</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -4282,11 +4936,11 @@
   </sheetPr>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4316,19 +4970,19 @@
         <v>3521</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>466</v>
+        <v>510</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4336,39 +4990,39 @@
         <v>3523</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3569</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>474</v>
+      <c r="B4" s="4" t="s">
+        <v>518</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4376,22 +5030,22 @@
         <v>3527</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4399,22 +5053,22 @@
         <v>3531</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>487</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4422,22 +5076,22 @@
         <v>3534</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>700000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>492</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4445,22 +5099,22 @@
         <v>3538</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>493</v>
+        <v>537</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>494</v>
+        <v>538</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>495</v>
+        <v>539</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>497</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4468,22 +5122,22 @@
         <v>3559</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>498</v>
+        <v>542</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>501</v>
+        <v>545</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>502</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4491,22 +5145,22 @@
         <v>3541</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>504</v>
+        <v>548</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>506</v>
+        <v>550</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>507</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4514,22 +5168,22 @@
         <v>3571</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>508</v>
+        <v>552</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>509</v>
+        <v>553</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>510</v>
+        <v>554</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>511</v>
+        <v>555</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>512</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4537,22 +5191,22 @@
         <v>3544</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>514</v>
+        <v>558</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1300000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>515</v>
+        <v>559</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>516</v>
+        <v>560</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>517</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4560,22 +5214,22 @@
         <v>3547</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>521</v>
+        <v>565</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>522</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4583,19 +5237,19 @@
         <v>3550</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>523</v>
+        <v>567</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>524</v>
+        <v>568</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>526</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4603,19 +5257,19 @@
         <v>3552</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>527</v>
+        <v>571</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>528</v>
+        <v>572</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>529</v>
+        <v>573</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>530</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4623,22 +5277,22 @@
         <v>3555</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>533</v>
+        <v>577</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>534</v>
+        <v>578</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>535</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4646,22 +5300,22 @@
         <v>3843</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>536</v>
+        <v>580</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>537</v>
+        <v>581</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>538</v>
+        <v>582</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>539</v>
+        <v>583</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>540</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4669,19 +5323,19 @@
         <v>3845</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>541</v>
+        <v>585</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>542</v>
+        <v>586</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>543</v>
+        <v>587</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>544</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4689,22 +5343,22 @@
         <v>3848</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>546</v>
+        <v>590</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>547</v>
+        <v>591</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>548</v>
+        <v>592</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>549</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4712,19 +5366,19 @@
         <v>3850</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>550</v>
+        <v>594</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>551</v>
+        <v>595</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>552</v>
+        <v>596</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>553</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4732,22 +5386,22 @@
         <v>3853</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>554</v>
+        <v>598</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>557</v>
+        <v>601</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>558</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4755,22 +5409,22 @@
         <v>3863</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>559</v>
+        <v>603</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>560</v>
+        <v>604</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>561</v>
+        <v>605</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>562</v>
+        <v>606</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>563</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4778,19 +5432,19 @@
         <v>3855</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>564</v>
+        <v>608</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>565</v>
+        <v>609</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>566</v>
+        <v>610</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>567</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4798,22 +5452,22 @@
         <v>3858</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>568</v>
+        <v>612</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>569</v>
+        <v>613</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>570</v>
+        <v>614</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>571</v>
+        <v>615</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>572</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4821,272 +5475,314 @@
         <v>3860</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>573</v>
+        <v>617</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>574</v>
+        <v>618</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>575</v>
+        <v>619</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>576</v>
+        <v>620</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>4148</v>
+      </c>
       <c r="B26" s="0" t="s">
-        <v>577</v>
+        <v>621</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>578</v>
+        <v>622</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>579</v>
+        <v>623</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>580</v>
+        <v>624</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>581</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>4151</v>
+      </c>
       <c r="B27" s="0" t="s">
-        <v>582</v>
+        <v>626</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>583</v>
+        <v>627</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>584</v>
+        <v>628</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>585</v>
+        <v>629</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>586</v>
+        <v>630</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>4153</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>587</v>
+        <v>631</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>588</v>
+        <v>632</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>589</v>
+        <v>633</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>4156</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>590</v>
+        <v>634</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>591</v>
+        <v>635</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>592</v>
+        <v>636</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>593</v>
+        <v>637</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>594</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>4159</v>
+      </c>
       <c r="B30" s="0" t="s">
-        <v>595</v>
+        <v>639</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>596</v>
+        <v>640</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>597</v>
+        <v>641</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>598</v>
+        <v>642</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>599</v>
+        <v>643</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>4162</v>
+      </c>
       <c r="B31" s="0" t="s">
-        <v>600</v>
+        <v>644</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>601</v>
+        <v>645</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>602</v>
+        <v>646</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>603</v>
+        <v>647</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>604</v>
+        <v>648</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>4164</v>
+      </c>
       <c r="B32" s="0" t="s">
-        <v>605</v>
+        <v>649</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>606</v>
+        <v>650</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>607</v>
+        <v>651</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>608</v>
+        <v>652</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>4167</v>
+      </c>
       <c r="B33" s="0" t="s">
-        <v>609</v>
+        <v>653</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>610</v>
+        <v>654</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>611</v>
+        <v>655</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>612</v>
+        <v>656</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>613</v>
+        <v>657</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>4169</v>
+      </c>
       <c r="B34" s="0" t="s">
-        <v>614</v>
+        <v>658</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>615</v>
+        <v>659</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>616</v>
+        <v>660</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>617</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>4171</v>
+      </c>
       <c r="B35" s="0" t="s">
-        <v>618</v>
+        <v>662</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>619</v>
+        <v>663</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>620</v>
+        <v>664</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>621</v>
+        <v>665</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>4173</v>
+      </c>
       <c r="B36" s="0" t="s">
-        <v>622</v>
+        <v>666</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>623</v>
+        <v>667</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>625</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>4176</v>
+      </c>
       <c r="B37" s="0" t="s">
-        <v>626</v>
+        <v>670</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>628</v>
+        <v>672</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>629</v>
+        <v>673</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>630</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>4178</v>
+      </c>
       <c r="B38" s="0" t="s">
-        <v>631</v>
+        <v>675</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>631</v>
+        <v>675</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>280000</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>632</v>
+        <v>676</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>633</v>
+        <v>677</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>4180</v>
+      </c>
       <c r="B39" s="0" t="s">
-        <v>634</v>
+        <v>678</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>635</v>
+        <v>679</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>280000</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>636</v>
+        <v>680</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>637</v>
+        <v>681</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5094,276 +5790,620 @@
         <v>2558</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>638</v>
+        <v>682</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>639</v>
+        <v>683</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>1450000</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>640</v>
+        <v>684</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>641</v>
+        <v>685</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>642</v>
+        <v>686</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>4183</v>
+      </c>
       <c r="B41" s="0" t="s">
-        <v>643</v>
+        <v>687</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>644</v>
+        <v>688</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>645</v>
+        <v>689</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>646</v>
+        <v>690</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>647</v>
+        <v>691</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>4186</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>648</v>
+        <v>692</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>649</v>
+        <v>693</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>480000</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>650</v>
+        <v>694</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>651</v>
+        <v>695</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>652</v>
+        <v>696</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>4188</v>
+      </c>
       <c r="B43" s="0" t="s">
-        <v>653</v>
+        <v>697</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>654</v>
+        <v>698</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>655</v>
+        <v>699</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>656</v>
+        <v>700</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>4190</v>
+      </c>
       <c r="B44" s="0" t="s">
-        <v>657</v>
+        <v>701</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>658</v>
+        <v>702</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>225000</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>659</v>
+        <v>703</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>660</v>
+        <v>704</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B45" s="0" t="s">
-        <v>661</v>
+        <v>705</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>4193</v>
+      </c>
       <c r="B46" s="0" t="s">
-        <v>662</v>
+        <v>706</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>663</v>
+        <v>707</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>664</v>
+        <v>708</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>665</v>
+        <v>709</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>666</v>
+        <v>710</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>4196</v>
+      </c>
       <c r="B47" s="0" t="s">
-        <v>667</v>
+        <v>711</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>668</v>
+        <v>712</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>669</v>
+        <v>713</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>714</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>670</v>
+        <v>715</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>4199</v>
+      </c>
       <c r="B48" s="0" t="s">
-        <v>671</v>
+        <v>716</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>672</v>
+        <v>717</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>673</v>
+        <v>718</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>674</v>
+        <v>719</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>675</v>
+        <v>720</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>4202</v>
+      </c>
       <c r="B49" s="0" t="s">
-        <v>676</v>
+        <v>721</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>677</v>
+        <v>722</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>678</v>
+        <v>723</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>679</v>
+        <v>724</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>680</v>
+        <v>725</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>4205</v>
+      </c>
       <c r="B50" s="0" t="s">
-        <v>681</v>
+        <v>726</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>682</v>
+        <v>727</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>683</v>
+        <v>728</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>684</v>
+        <v>729</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>685</v>
+        <v>730</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>4207</v>
+      </c>
       <c r="B51" s="0" t="s">
-        <v>686</v>
+        <v>731</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>687</v>
+        <v>732</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>688</v>
+        <v>733</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>689</v>
+        <v>734</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>4209</v>
+      </c>
       <c r="B52" s="0" t="s">
-        <v>690</v>
+        <v>735</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>691</v>
+        <v>736</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>650000</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>692</v>
+        <v>737</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>693</v>
+        <v>738</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>4211</v>
+      </c>
       <c r="B53" s="0" t="s">
-        <v>694</v>
+        <v>739</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>695</v>
+        <v>740</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>500000</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>696</v>
+        <v>741</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>697</v>
+        <v>742</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>4213</v>
+      </c>
       <c r="B54" s="0" t="s">
-        <v>698</v>
+        <v>743</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>699</v>
+        <v>744</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>580000</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>4215</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>4218</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>550000</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>4220</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>480000</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>4223</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>4226</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>4229</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>4232</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>4235</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>4237</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>4240</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>4248</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>650000</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>4251</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>4254</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>4257</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>810</v>
+      </c>
+    </row>
     <row r="69" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="71" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5392,11 +6432,11 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5426,22 +6466,22 @@
         <v>3867</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>701</v>
+        <v>811</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>702</v>
+        <v>812</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>703</v>
+        <v>813</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>704</v>
+        <v>814</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>705</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5449,19 +6489,19 @@
         <v>3912</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>706</v>
+        <v>816</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>707</v>
+        <v>817</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>708</v>
+        <v>818</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>709</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5469,22 +6509,22 @@
         <v>3870</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>710</v>
+        <v>820</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>711</v>
+        <v>821</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>712</v>
+        <v>822</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>713</v>
+        <v>823</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>714</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5492,19 +6532,19 @@
         <v>3872</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>715</v>
+        <v>825</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>716</v>
+        <v>826</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>717</v>
+        <v>827</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>718</v>
+        <v>828</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="58.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5512,19 +6552,19 @@
         <v>3874</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>719</v>
+        <v>829</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>720</v>
+        <v>830</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>155000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>721</v>
+        <v>831</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>722</v>
+        <v>832</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5532,16 +6572,16 @@
         <v>3876</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>723</v>
+        <v>833</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>724</v>
+        <v>834</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>725</v>
+        <v>835</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5549,19 +6589,19 @@
         <v>3914</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>726</v>
+        <v>836</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>727</v>
+        <v>837</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>728</v>
+        <v>838</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>729</v>
+        <v>839</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5569,19 +6609,19 @@
         <v>3878</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>730</v>
+        <v>840</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>731</v>
+        <v>841</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>732</v>
+        <v>842</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>733</v>
+        <v>843</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5589,19 +6629,19 @@
         <v>3918</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>734</v>
+        <v>844</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>735</v>
+        <v>845</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>736</v>
+        <v>846</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>737</v>
+        <v>847</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5609,19 +6649,19 @@
         <v>3880</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>738</v>
+        <v>848</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>739</v>
+        <v>849</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>740</v>
+        <v>850</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>741</v>
+        <v>851</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5629,22 +6669,22 @@
         <v>3883</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>742</v>
+        <v>852</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>743</v>
+        <v>853</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>744</v>
+        <v>854</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>745</v>
+        <v>855</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>746</v>
+        <v>856</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5652,19 +6692,19 @@
         <v>3885</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>747</v>
+        <v>857</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>748</v>
+        <v>858</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>749</v>
+        <v>859</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>750</v>
+        <v>860</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5672,19 +6712,19 @@
         <v>3887</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>751</v>
+        <v>861</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>739</v>
+        <v>849</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>752</v>
+        <v>862</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>753</v>
+        <v>863</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5692,19 +6732,19 @@
         <v>3889</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>754</v>
+        <v>864</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>755</v>
+        <v>865</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>756</v>
+        <v>866</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>757</v>
+        <v>867</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5712,19 +6752,19 @@
         <v>3891</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>758</v>
+        <v>868</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>759</v>
+        <v>869</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>756</v>
+        <v>866</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>760</v>
+        <v>870</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5732,19 +6772,19 @@
         <v>3893</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>761</v>
+        <v>871</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>762</v>
+        <v>872</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>763</v>
+        <v>873</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>764</v>
+        <v>874</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5752,19 +6792,19 @@
         <v>3895</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>765</v>
+        <v>875</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>766</v>
+        <v>876</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>767</v>
+        <v>877</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>768</v>
+        <v>878</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5772,19 +6812,19 @@
         <v>3897</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>770</v>
+        <v>880</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>771</v>
+        <v>881</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>772</v>
+        <v>882</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5792,22 +6832,22 @@
         <v>3900</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>773</v>
+        <v>883</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>774</v>
+        <v>884</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>775</v>
+        <v>885</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>776</v>
+        <v>886</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>777</v>
+        <v>887</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5815,19 +6855,19 @@
         <v>3916</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>778</v>
+        <v>888</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>779</v>
+        <v>889</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>780</v>
+        <v>890</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>781</v>
+        <v>891</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5835,22 +6875,22 @@
         <v>3903</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>782</v>
+        <v>892</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>783</v>
+        <v>893</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>744</v>
+        <v>854</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>745</v>
+        <v>855</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>746</v>
+        <v>856</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5858,19 +6898,19 @@
         <v>3905</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>784</v>
+        <v>894</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>785</v>
+        <v>895</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>786</v>
+        <v>896</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>787</v>
+        <v>897</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5878,22 +6918,22 @@
         <v>3908</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>788</v>
+        <v>898</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>789</v>
+        <v>899</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>790</v>
+        <v>900</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>791</v>
+        <v>901</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>792</v>
+        <v>902</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5901,36 +6941,36 @@
         <v>3910</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>793</v>
+        <v>903</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>794</v>
+        <v>904</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>795</v>
+        <v>905</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>796</v>
+        <v>906</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>797</v>
+        <v>907</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>798</v>
+        <v>908</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>799</v>
+        <v>909</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>800</v>
+        <v>910</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>801</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -5952,10 +6992,10 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5981,204 +7021,240 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4259</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>802</v>
+        <v>912</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>803</v>
+        <v>913</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>804</v>
+        <v>914</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>805</v>
+        <v>915</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4261</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>806</v>
+        <v>916</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>807</v>
+        <v>917</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>808</v>
+        <v>918</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>809</v>
+        <v>919</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4263</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>810</v>
+        <v>920</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>811</v>
+        <v>921</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>812</v>
+        <v>922</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>813</v>
+        <v>923</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4265</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>814</v>
+        <v>924</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>815</v>
+        <v>925</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>816</v>
+        <v>926</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>817</v>
+        <v>927</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4267</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>818</v>
+        <v>928</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>819</v>
+        <v>929</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>820</v>
+        <v>930</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>821</v>
+        <v>931</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4269</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>822</v>
+        <v>932</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>823</v>
+        <v>933</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>824</v>
+        <v>934</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>825</v>
+        <v>935</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5" t="s">
-        <v>826</v>
+      <c r="A8" s="0" t="n">
+        <v>4271</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>936</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>827</v>
+        <v>937</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>828</v>
+        <v>938</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>829</v>
+        <v>939</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4273</v>
+      </c>
       <c r="B9" s="0" t="s">
-        <v>830</v>
+        <v>940</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>831</v>
+        <v>941</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>832</v>
+        <v>942</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>833</v>
+        <v>943</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4275</v>
+      </c>
       <c r="B10" s="0" t="s">
-        <v>834</v>
+        <v>944</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>835</v>
+        <v>945</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>836</v>
+        <v>946</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>837</v>
+        <v>947</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>4277</v>
+      </c>
       <c r="B11" s="0" t="s">
-        <v>838</v>
+        <v>948</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>839</v>
+        <v>949</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>840</v>
+        <v>950</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>841</v>
+        <v>951</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>4279</v>
+      </c>
       <c r="B12" s="0" t="s">
-        <v>842</v>
+        <v>952</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>843</v>
+        <v>953</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>844</v>
+        <v>954</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>4281</v>
+      </c>
       <c r="B13" s="0" t="s">
-        <v>845</v>
+        <v>955</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>846</v>
+        <v>956</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>847</v>
+        <v>957</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>848</v>
+        <v>958</v>
       </c>
     </row>
   </sheetData>
@@ -6197,13 +7273,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6229,37 +7305,190 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4283</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>849</v>
+        <v>959</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>850</v>
+        <v>960</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>851</v>
+        <v>961</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>852</v>
+        <v>962</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4285</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>853</v>
+        <v>963</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>854</v>
+        <v>964</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>855</v>
+        <v>965</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>856</v>
+        <v>966</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4287</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>95000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>970</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4298</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4300</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4303</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4305</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>986</v>
       </c>
     </row>
   </sheetData>
@@ -6281,10 +7510,10 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6350,6 +7579,9 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3760</v>
+      </c>
       <c r="B4" s="0" t="s">
         <v>25</v>
       </c>
@@ -6404,11 +7636,17 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3944</v>
+      </c>
       <c r="B7" s="0" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>37</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>210000</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>38</v>
@@ -6439,7 +7677,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6580,13 +7818,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6765,21 +8003,24 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>3234</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>90</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D10" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6787,19 +8028,19 @@
         <v>3236</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6807,343 +8048,412 @@
         <v>3789</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>3964</v>
+      </c>
       <c r="B13" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>3966</v>
+      </c>
       <c r="B14" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>3968</v>
+      </c>
       <c r="B15" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>130000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>3971</v>
+      </c>
       <c r="B16" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>3973</v>
+      </c>
       <c r="B17" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>130000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>3975</v>
+      </c>
       <c r="B18" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>130000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>3978</v>
+      </c>
       <c r="B19" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>140000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>4005</v>
+      </c>
       <c r="B20" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>130000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="F20" s="0" t="s">
         <v>134</v>
       </c>
+      <c r="F20" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="G20" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>3980</v>
+      </c>
       <c r="B21" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>100000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>3982</v>
+      </c>
       <c r="B22" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>100000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>3984</v>
+      </c>
       <c r="B23" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>100000</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>3986</v>
+      </c>
       <c r="B24" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>100000</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>3988</v>
+      </c>
       <c r="B25" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>100000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>3991</v>
+      </c>
       <c r="B26" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>100000</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>3993</v>
+      </c>
       <c r="B27" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>100000</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>3995</v>
+      </c>
       <c r="B28" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>100000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>3997</v>
+      </c>
       <c r="B29" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>169</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>3999</v>
+      </c>
       <c r="B30" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>100000</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>4002</v>
+      </c>
       <c r="B31" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>100000</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
+    </row>
+    <row r="32" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F20" r:id="rId1" display="https://cdn.store-assets.com/s/139218/i/36105290.jpg"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7159,13 +8469,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7195,19 +8505,19 @@
         <v>3794</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7215,149 +8525,222 @@
         <v>3793</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>210000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4007</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4009</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4012</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4014</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4017</v>
+      </c>
       <c r="B8" s="0" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4019</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4021</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="D10" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="G10" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="E9" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>4023</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="D11" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="G11" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="E10" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>4026</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="D12" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="F12" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="G11" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>4031</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>226</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -7379,10 +8762,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7412,22 +8795,22 @@
         <v>3801</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7435,16 +8818,16 @@
         <v>3798</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>190000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7452,39 +8835,45 @@
         <v>3804</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4029</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>160000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -7505,13 +8894,13 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -7534,353 +8923,422 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>3807</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>170000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3810</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>240000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4033</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4036</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4038</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4041</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4044</v>
+      </c>
       <c r="B8" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4047</v>
+      </c>
       <c r="B9" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4050</v>
+      </c>
       <c r="B10" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>4052</v>
+      </c>
       <c r="B11" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>4054</v>
+      </c>
       <c r="B12" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>70000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>4056</v>
+      </c>
       <c r="B13" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>70000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>4059</v>
+      </c>
       <c r="B14" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>4061</v>
+      </c>
       <c r="B15" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4063</v>
+      </c>
       <c r="B16" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>4066</v>
+      </c>
       <c r="B17" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>140000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>312</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>4068</v>
+      </c>
       <c r="B18" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>316</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>4070</v>
+      </c>
       <c r="B19" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>4072</v>
+      </c>
       <c r="B20" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>80000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>4074</v>
+      </c>
       <c r="B21" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -7899,13 +9357,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7935,49 +9393,87 @@
         <v>3813</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>60000</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4076</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>60000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4078</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4080</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -7996,13 +9492,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8027,44 +9523,156 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>3816</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>80000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3818</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>344</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4083</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4086</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4089</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4092</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4095</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/cosmetics.xlsx
+++ b/sheets/cosmetics.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="999">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -226,6 +226,14 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/SOME-MI-AHA-BHA-PHA-Acne-fighting-Moisturizing/dp/B07FCG8T4L/ref=sr_1_33?keywords=epicuren+enzyme+toner&amp;qid=1672216174&amp;sr=8-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclusive Skin Beautifying Milk – Maxi Tone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- For Maximum Even Skin Tone and Smoother skin
+- Clinically Proven to be safe and effective
+- The experts in even skin tone since 1989</t>
   </si>
   <si>
     <t xml:space="preserve">CeraVe Moisturising Lotion | 236ml/8oz | Daily Face &amp; Body Moisturiser for Dry To Very Dry Skin</t>
@@ -1603,6 +1611,23 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.co.uk/OLLY-Blackberry-Restful-Sleep-Gummy/dp/B07W4S7C4K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOVE KINKS Hairline Serum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Encourages hair growth
+- Promotes hair density
+The Hairline Serum is specially created to protect the first line of defence of our hair – the hairline. Because it is the only barrier between our skin and hair, it’s vital to nourish it and incorporate products that prevent breakage. The Love Kinks Hairline Serum is fast-absorbing and penetrates deeper because it’s lightweight. The active ingredients and ceramides work to promote hair density and encourage hair growth over time. We opted for a dropper so you can apply the product more precisely and not waste product.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0048/4373/3121/products/image_bfe8a30a-9cc5-4cc7-8603-a27c96400aae_1024x1024@2x.jpg?v=1662062803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0048/4373/3121/products/IMG_7963_1024x1024@2x.jpg?v=1661882737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.love-kinks.com/collections/love-kinks-haircare/products/hairline-serum</t>
   </si>
   <si>
     <t xml:space="preserve">Lee Stafford Coco Lotion (Agave Shine) – 150ml</t>
@@ -3178,6 +3203,26 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.zara.com/sa/en/night-pour-homme-ii-iii-100-ml-p20210042.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUST PEACH 50ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size: 50ml
+Fragrance notes:
+Top notes: Peach, Blood Orange, Cardamom and Heliotrope;
+Middle notes: Rum, Cognac, Davana and Jasmine;
+Base notes: Indonesian Patchouli Leaf, Vanilla, Sandalwood, Tonka Bean, Cashmeran, Benzoin, Styrax, Labdanum and Vetiver.
+Just Peach is a luscious, Soft fragrance for women and men. The opening is great and addictive! Peach and cardamom with a hint of jasmine . The dry down notes of this sensual modern classic include Indonesian Patchouli Leaf, Vanilla, Sandalwood, Tonka Bean, Cashmeran, Benzoin, Styrax, Labdanum and Vetiver. The finish reaches fantasy-inspiring levels of insatiability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0556/7666/5995/products/JUSTPEACH50MLWB_fb9f607b-b15a-45a4-90d0-d67a493a61da_1800x1800.png?v=1667158004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0556/7666/5995/products/JUSTPEACH50MLWBbx_1800x1800.png?v=1667158004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aromaconcepts.co.uk/collections/30ml-travel-perfumes/products/just-peach-50ml</t>
   </si>
   <si>
     <t xml:space="preserve">Nivea Protect &amp; Care Anti-Perspirant Deodorant Stick</t>
@@ -3967,11 +4012,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
   </cols>
@@ -4079,11 +4124,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4113,33 +4158,33 @@
         <v>3821</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3823</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4147,19 +4192,19 @@
         <v>3826</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>700000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4167,19 +4212,19 @@
         <v>4097</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -4198,13 +4243,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4234,19 +4279,19 @@
         <v>3829</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4254,19 +4299,19 @@
         <v>3831</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4274,19 +4319,19 @@
         <v>3833</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4294,22 +4339,22 @@
         <v>4100</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4317,22 +4362,42 @@
         <v>4103</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>4457</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -4353,11 +4418,11 @@
   </sheetPr>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4387,19 +4452,19 @@
         <v>3836</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4407,22 +4472,22 @@
         <v>4106</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4430,19 +4495,19 @@
         <v>4108</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4450,19 +4515,19 @@
         <v>4110</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4470,19 +4535,19 @@
         <v>4112</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4490,22 +4555,22 @@
         <v>4115</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4513,19 +4578,19 @@
         <v>4117</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4533,22 +4598,22 @@
         <v>4120</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4556,19 +4621,19 @@
         <v>4122</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4576,19 +4641,19 @@
         <v>4124</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4596,22 +4661,22 @@
         <v>4127</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4619,19 +4684,19 @@
         <v>4129</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4639,19 +4704,19 @@
         <v>4131</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4659,16 +4724,16 @@
         <v>4133</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4676,19 +4741,19 @@
         <v>4135</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4696,22 +4761,22 @@
         <v>4138</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4719,39 +4784,42 @@
         <v>4141</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>4460</v>
+      </c>
       <c r="B19" s="0" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4759,19 +4827,19 @@
         <v>4143</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4779,33 +4847,36 @@
         <v>4145</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>4462</v>
+      </c>
       <c r="B22" s="0" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4866,11 +4937,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4895,27 +4966,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>3840</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -4936,11 +5007,11 @@
   </sheetPr>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4970,19 +5041,19 @@
         <v>3521</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4990,19 +5061,19 @@
         <v>3523</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5010,19 +5081,19 @@
         <v>3569</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5030,22 +5101,22 @@
         <v>3527</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5053,22 +5124,22 @@
         <v>3531</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5076,22 +5147,22 @@
         <v>3534</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>700000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5099,22 +5170,22 @@
         <v>3538</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5122,22 +5193,22 @@
         <v>3559</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5145,22 +5216,22 @@
         <v>3541</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,22 +5239,22 @@
         <v>3571</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5191,22 +5262,22 @@
         <v>3544</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1300000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5214,22 +5285,22 @@
         <v>3547</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5237,19 +5308,19 @@
         <v>3550</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5257,19 +5328,19 @@
         <v>3552</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5277,22 +5348,22 @@
         <v>3555</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5300,22 +5371,22 @@
         <v>3843</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5323,19 +5394,19 @@
         <v>3845</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5343,22 +5414,22 @@
         <v>3848</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5366,19 +5437,19 @@
         <v>3850</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5386,22 +5457,22 @@
         <v>3853</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5409,22 +5480,22 @@
         <v>3863</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5432,19 +5503,19 @@
         <v>3855</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5452,22 +5523,22 @@
         <v>3858</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5475,19 +5546,19 @@
         <v>3860</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5495,22 +5566,22 @@
         <v>4148</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5518,22 +5589,22 @@
         <v>4151</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5541,16 +5612,16 @@
         <v>4153</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5558,19 +5629,19 @@
         <v>4156</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5578,22 +5649,22 @@
         <v>4159</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5601,22 +5672,22 @@
         <v>4162</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5624,19 +5695,19 @@
         <v>4164</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5644,22 +5715,22 @@
         <v>4167</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5667,19 +5738,19 @@
         <v>4169</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5687,19 +5758,19 @@
         <v>4171</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5707,19 +5778,19 @@
         <v>4173</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5727,22 +5798,22 @@
         <v>4176</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5750,19 +5821,19 @@
         <v>4178</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>280000</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5770,19 +5841,19 @@
         <v>4180</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>280000</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5790,22 +5861,22 @@
         <v>2558</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>1450000</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5813,22 +5884,22 @@
         <v>4183</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5836,22 +5907,22 @@
         <v>4186</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>480000</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5859,19 +5930,19 @@
         <v>4188</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5879,19 +5950,19 @@
         <v>4190</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>225000</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5899,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5907,22 +5978,22 @@
         <v>4193</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5930,22 +6001,22 @@
         <v>4196</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5953,22 +6024,22 @@
         <v>4199</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5976,22 +6047,22 @@
         <v>4202</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5999,22 +6070,22 @@
         <v>4205</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6022,19 +6093,19 @@
         <v>4207</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6042,19 +6113,19 @@
         <v>4209</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>650000</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6062,19 +6133,19 @@
         <v>4211</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6082,16 +6153,16 @@
         <v>4213</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>580000</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6099,19 +6170,19 @@
         <v>4215</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6119,22 +6190,22 @@
         <v>4218</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6142,19 +6213,19 @@
         <v>4220</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>480000</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6162,22 +6233,22 @@
         <v>4223</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6185,22 +6256,22 @@
         <v>4226</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6208,22 +6279,22 @@
         <v>4229</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6231,22 +6302,22 @@
         <v>4232</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6254,22 +6325,22 @@
         <v>4235</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6277,19 +6348,19 @@
         <v>4237</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6297,22 +6368,22 @@
         <v>4240</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6320,22 +6391,22 @@
         <v>4248</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>650000</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6343,22 +6414,22 @@
         <v>4251</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6366,19 +6437,19 @@
         <v>4254</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6386,25 +6457,44 @@
         <v>4257</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>4465</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>822</v>
+      </c>
+    </row>
     <row r="70" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="71" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6430,15 +6520,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -6461,518 +6551,693 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>3867</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3912</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3870</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3872</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="58.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>3874</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>155000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>3876</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3914</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>3878</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>3918</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3880</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>3883</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>3885</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3887</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>861</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>849</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>3889</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>3891</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3893</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>3895</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>3897</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>3900</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>3916</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>3903</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>3905</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>3908</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>3910</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>4468</v>
+      </c>
       <c r="B26" s="0" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>911</v>
-      </c>
-    </row>
+        <v>923</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6991,11 +7256,11 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7025,19 +7290,19 @@
         <v>4259</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7045,19 +7310,19 @@
         <v>4261</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>916</v>
+        <v>928</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7065,19 +7330,19 @@
         <v>4263</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7085,19 +7350,19 @@
         <v>4265</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7105,19 +7370,19 @@
         <v>4267</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7125,19 +7390,19 @@
         <v>4269</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7145,19 +7410,19 @@
         <v>4271</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7165,19 +7430,19 @@
         <v>4273</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7185,19 +7450,19 @@
         <v>4275</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7205,19 +7470,19 @@
         <v>4277</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7225,16 +7490,16 @@
         <v>4279</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7242,19 +7507,19 @@
         <v>4281</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
     </row>
   </sheetData>
@@ -7275,11 +7540,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7309,19 +7574,19 @@
         <v>4283</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7329,19 +7594,19 @@
         <v>4285</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7349,19 +7614,19 @@
         <v>4287</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>95000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>
@@ -7382,11 +7647,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7416,16 +7681,16 @@
         <v>4298</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7433,19 +7698,19 @@
         <v>4300</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7453,22 +7718,22 @@
         <v>4303</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7476,19 +7741,19 @@
         <v>4305</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -7509,11 +7774,11 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7671,13 +7936,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7722,7 +7987,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3779</v>
       </c>
@@ -7742,7 +8007,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3781</v>
       </c>
@@ -7762,7 +8027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3783</v>
       </c>
@@ -7782,7 +8047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>3785</v>
       </c>
@@ -7800,6 +8065,20 @@
       </c>
       <c r="G6" s="0" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4453</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>300000</v>
       </c>
     </row>
   </sheetData>
@@ -7820,11 +8099,11 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7854,16 +8133,16 @@
         <v>3216</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>240000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7871,19 +8150,19 @@
         <v>3220</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>110000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7891,19 +8170,19 @@
         <v>3786</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7911,16 +8190,16 @@
         <v>3224</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7928,19 +8207,19 @@
         <v>3226</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7948,19 +8227,19 @@
         <v>3228</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7968,19 +8247,19 @@
         <v>3230</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7988,19 +8267,19 @@
         <v>3232</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8008,19 +8287,19 @@
         <v>3234</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8028,19 +8307,19 @@
         <v>3236</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8048,19 +8327,19 @@
         <v>3789</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8068,22 +8347,22 @@
         <v>3964</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8091,19 +8370,19 @@
         <v>3966</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8111,19 +8390,19 @@
         <v>3968</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>130000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8131,22 +8410,22 @@
         <v>3971</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8154,19 +8433,19 @@
         <v>3973</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>130000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8174,16 +8453,16 @@
         <v>3975</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>130000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8191,22 +8470,22 @@
         <v>3978</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8214,22 +8493,22 @@
         <v>4005</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>130000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8237,19 +8516,19 @@
         <v>3980</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8257,16 +8536,16 @@
         <v>3982</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8274,19 +8553,19 @@
         <v>3984</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8294,19 +8573,19 @@
         <v>3986</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8314,16 +8593,16 @@
         <v>3988</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8331,22 +8610,22 @@
         <v>3991</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8354,19 +8633,19 @@
         <v>3993</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8374,19 +8653,19 @@
         <v>3995</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8394,16 +8673,16 @@
         <v>3997</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8411,19 +8690,19 @@
         <v>3999</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8431,22 +8710,22 @@
         <v>4002</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8471,11 +8750,11 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8505,19 +8784,19 @@
         <v>3794</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8525,19 +8804,19 @@
         <v>3793</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>210000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8545,16 +8824,16 @@
         <v>4007</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8562,19 +8841,19 @@
         <v>4009</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8582,22 +8861,22 @@
         <v>4012</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8605,19 +8884,19 @@
         <v>4014</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8625,22 +8904,22 @@
         <v>4017</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8648,19 +8927,19 @@
         <v>4019</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8668,19 +8947,19 @@
         <v>4021</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8688,19 +8967,19 @@
         <v>4023</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8708,22 +8987,22 @@
         <v>4026</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8731,16 +9010,16 @@
         <v>4031</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -8761,11 +9040,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8795,22 +9074,22 @@
         <v>3801</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8818,16 +9097,16 @@
         <v>3798</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>190000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8835,22 +9114,22 @@
         <v>3804</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8858,22 +9137,22 @@
         <v>4029</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>160000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -8894,11 +9173,11 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8928,19 +9207,19 @@
         <v>3807</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>170000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8948,22 +9227,22 @@
         <v>3810</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>240000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8971,19 +9250,19 @@
         <v>4033</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8991,22 +9270,22 @@
         <v>4036</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9014,19 +9293,19 @@
         <v>4038</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9034,22 +9313,22 @@
         <v>4041</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9057,19 +9336,19 @@
         <v>4044</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9077,22 +9356,22 @@
         <v>4047</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9100,22 +9379,22 @@
         <v>4050</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9123,19 +9402,19 @@
         <v>4052</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9143,19 +9422,19 @@
         <v>4054</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>70000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9163,19 +9442,19 @@
         <v>4056</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>70000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9183,22 +9462,22 @@
         <v>4059</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9206,19 +9485,19 @@
         <v>4061</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9226,16 +9505,16 @@
         <v>4063</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9243,22 +9522,22 @@
         <v>4066</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9266,19 +9545,19 @@
         <v>4068</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9286,19 +9565,19 @@
         <v>4070</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>130000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9306,19 +9585,19 @@
         <v>4072</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>80000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9326,19 +9605,19 @@
         <v>4074</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -9359,11 +9638,11 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -9393,24 +9672,27 @@
         <v>3813</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4454</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>60000</v>
@@ -9421,19 +9703,19 @@
         <v>4076</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9441,19 +9723,19 @@
         <v>4078</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9461,19 +9743,19 @@
         <v>4080</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -9494,11 +9776,11 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -9528,19 +9810,19 @@
         <v>3816</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>80000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9548,19 +9830,19 @@
         <v>3818</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9568,22 +9850,22 @@
         <v>4083</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9591,22 +9873,22 @@
         <v>4086</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9614,22 +9896,22 @@
         <v>4089</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9637,22 +9919,22 @@
         <v>4092</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9660,19 +9942,19 @@
         <v>4095</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/cosmetics.xlsx
+++ b/sheets/cosmetics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="serums" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,6 +26,7 @@
     <sheet name="hand-foaming-soaps" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="body-soap" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="shower-gels" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="face-masks" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="1118">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -161,6 +162,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/Sebamed-Facial-Cleanser-Combination-fl-oz/dp/B01KJRWABA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleansing hot cloth cleanser 150ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No7 Radiant Results Revitalising Foaming Cleanser is a light and fresh cleanser that transforms into a soft, creamy foam to gently remove makeup, impurities and pollutants. Leaves skin feeling thoroughly cleansed, soft and revitalised. Formulated with No7’s Tri-Vit Complex and Red Ginseng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beautyheaven.com.au/wp-content/uploads/2022/11/bh-No7-Radiant-Results-Revitalising-Foaming-Cleanser.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.no7beauty.co.uk/cleansing-hot-cloth-cleanser-200ml/13628149.html</t>
   </si>
   <si>
     <t xml:space="preserve">SEBAMED FACE CLEANSING TONER 150ML</t>
@@ -683,6 +696,39 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com.au/Bath-Body-Works-Vanilla-Lotion/dp/B00OM8KWDQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature Secrete Lightening Moisturizer Body Lotion 350 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature Secrete Lightening Moisturizer Body Lotion 350 ml: with pure Argan Oil gives a much brighter to your skin, more luminous. It attenuates your hyper pigmentantion spots and help to prevent their appearence.
+Its concentred formula formula with Argan oil works gently and effectively to unify and clarify the complexion.
+Enriched with lightening plant extracts,b ody lotion Nature Secrète with pure Argan Oil moisturizes, protects and helps your skin retain its elasticity without leaving a greasy film.
+It will leave your skin silky, soft and radiant beauty by offering a pleasent sensation of freshness.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0532/0022/4421/products/6346_1400x.jpg?v=1613272873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.africaproducts.nl/collections/body/products/nature-secrete-lightening-moisturizer-body-lotion-350-ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Shapers Hot Belt Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Shapers Hot Belt Power are fitness wear designed with Neotex smart fabric technology that increases core temperature helping your body sweat, sweat, sweat &amp; sweat more while wearing them during daily activities. The Hot Shapers Hot Belt Power is a unique belt designed to shape and preserve the figure for those who want rapid results in reducing sizes. This product will not only make you sweat where you need to but will gradually start molding your waist and abdomen area.
+Its design will maintain perfect back support and posture due to adjustable double flex bands and flex vertical bars. The Neotex smart fabric in Hot Shapers increases core temperature during exercise, sports, walking, running, at home or during any physical activity. Hot Shapers clothing can be worn while active regardless of what you are doing. Just put them on and feel the results!!
+Hot Shapers' unique NEOTEX sweat fabric makes all products lightweight, flexible, comfortable and great for increasing calorie burn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media.takealot.com/covers_images/50ad3692ef8e40b2b8901e21c8f7215f/s-zoom.file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media.takealot.com/covers_images/0563e957467f40b4bce1b968df9bfec9/s-zoom.file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.takealot.com/hot-shapers-hot-belt-power/PLID91472893?utm_source=oweb&amp;utm_medium=product_page</t>
   </si>
   <si>
     <t xml:space="preserve">AVEENO® Baby Daily Care Hair and Body Wash, 250ml</t>
@@ -1290,6 +1336,70 @@
     <t xml:space="preserve">https://homerainbow.com/product/herbacin-hand-cream-unscented-tube-20ml/#&amp;gid=1&amp;pid=1</t>
   </si>
   <si>
+    <t xml:space="preserve">Portia M - Pomegranate Anti-Aging Cream 50ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portia M Pomegranate Anti-Aging Cream 50ml is pure luxury for your skin with its anti-aging properties. The moisturiser is rich in Vitamin C to rejuvenate and firm the skin, leaving it smooth and comfortable.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://clicks.co.za/medias/?context=bWFzdGVyfHByb2R1Y3QtaW1hZ2VzfDI1OTg3NHxpbWFnZS9qcGVnfHByb2R1Y3QtaW1hZ2VzL2g5ZS9oM2YvMTA0MDg1NTkxMTYzMTguanBnfGEwNTliMWE2NTAxNjAwNDEwYmNjOTRmNDIwZmM5ZmMzNTIyMzBlMjhmOWYzMjliMDNmZTNhZTBkYjc5YjRmYzY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://clicks.co.za/medias/?context=bWFzdGVyfHByb2R1Y3QtaW1hZ2VzfDI0NDY3OXxpbWFnZS9qcGVnfHByb2R1Y3QtaW1hZ2VzL2hiZC9oMGMvMTA0MDg1NTkyNDczOTAuanBnfDVmY2Q1Y2FjODcwNWUxZDUxZjU4ZDBmMjUzOTVjOTlkMDJjM2FhMDBjOGJlNjVjMWQ5Yjg1NTg4YmU1ODFlNTk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://clicks.co.za/portia-m_pomegranate-anti-aging-cream-50ml/p/324819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portia M Pomegranate Day Cream 50ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portia M Pomegranate SPF 20 Revitalising Day Cream 50ml is rich in skin-brightening, and softening vitamin C. Leaves skin smooth and radiant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://clicks.co.za/medias/?context=bWFzdGVyfHByb2R1Y3QtaW1hZ2VzfDI3NTkzMXxpbWFnZS9qcGVnfHByb2R1Y3QtaW1hZ2VzL2g2MC9oMTQvMTA0MDg1NTg3MjMxMDIuanBnfDU4NGQyYWIzOTI4MjNiYTY5OGI2MjAxYThkYmU1NmE5OTcwZDUyYTU0OTc0MTEzMjkxMzcyYTUwM2VhNTBmMjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://clicks.co.za/medias/?context=bWFzdGVyfHByb2R1Y3QtaW1hZ2VzfDIzMzgzOHxpbWFnZS9qcGVnfHByb2R1Y3QtaW1hZ2VzL2hhYi9oMzUvMTA0MDg1NTg4NTQxNzQuanBnfDYyMWYwZTBlYzIxMjMxMGI5YWQ4N2ZiN2ZkYTlkN2I5ZTNmMTU1OTQ1YWFkZjM2YTIyMWRmZjdiNzkzODBiOTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://clicks.co.za/portia-m_pomegranate-day-cream-50ml/p/324817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutrogena Cellular Boost Anti-Ageing Night Cream-50ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutrogena Cellular Boost Anti-Ageing Night Cream-50ml has a formula that contains Vitamin C to help you correct uneven skin tone and decrease dark spots, anti-ageing Hexinol TM inspired by nature to boost natural collagen,skin surface renewal and elastin production, and SPF 20 to protect the skin from sun damage. Its results are visible in more than 4 weeks. Neutrogena Cellular Boost Anti-Ageing Night Cream, 50ml is a top-quality product launched by Neutrogena. Neutrogena is the world’s number 1 skincare brand that falls under the umbrella of Johnson &amp; Johnson and is recommended by dermatologists. It gives a wide range of hair and skincare lines that are most loved. It manufactures and markets products in more than 70 countries in the world. How to Neutrogena Cellular Boost Anti-Ageing Night Cream, 50ml
+Apply it daily to your thoroughly cleansed face and neck as a last step of your skincare routine.
+Massage your skin or applied area with circular movements for perfect penetration. Warning
+There are some safety guidelines of Neutrogena Cellular Boost Anti-Ageing Night Cream, 50ml. The product for external use only. Keep it out of the reach of your children. You need to store it in a dry place away from direct sunlight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://im.hgscosmetics.com/wp-content/uploads/2022/03/37.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.farmaciaturcifalense.com/en-gb/shop/countenance/anti-envelhecimento/neutrogena-cellular-boost-day-cream-spf-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borage Therapy Hand Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast relief for dry &amp; itchy skinIdeal for hands, cuticles &amp; fingertipsNon greasy, non-irritating formulaClinically proven &amp; doctor recommendedMost hand creams work on the skin's surface to relieve the symptoms of dry skin, while ignoring the real cause that lies deep within the skin 
+Ideal for hands, cuticles &amp; fingertips [short] Fast relief for dry skinNon greasy, non-irritating formula Most hand creams work on the skinâs surface to relieve the symptoms of dry skin, while ignoring the real cause that lies deep within the skin. Borage TherapyÂ® addresses a fundamental cause of dry skin by reversing a deficiency of the critical omega-6 fatty acid, GLA.Â Borage Therapy keeps skin healthy and supple long after the cream is applied â and even after itâs washed away. [benefits] [ingredients] Non-greasy Non-irritating Fragrance free No animal ingredients No animal testing Gluten Free Formulated and made in California with domestic &amp; imported materialsÂ Â Decolorized Aloe Vera Gel (Aloe Barbadensis), Glyceryl Stearate (Vegetable Emulsifier), Safflower Seed Oil (Carthamus Tinctorius), Glycerin, Jojoba Seed Oil (Simmondsia Chinensis), Borage Seed Oil (Borago Officinalis), Cetyl Alcohol (Vegetable Wax), Vitamin E Acetate (Tocopherol), Dimethicone, Shea Butter (Butyrospermum Parkii Fruit), Sodium Ascorbyl Phosphate (Vitamin C), L-Ergothioneine (Amino Acid), Phenoxyethanol, Ethylhexyl Glycerin.
+Ingredients:  Decolorized Aloe Vera Gel (Aloe Barbadensis), Glyceryl Stearate (Vegetable Emulsifier), Safflower Seed Oil (Carthamus Tinctorius), Glycerin, Jojoba Seed Oil (Simmondsia Chinensis), Borage Seed Oil (Borago Officinalis), Cetyl Alcohol (Vegetable Wax), Vitamin E Acetate (Tocopherol), Dimethicone, Shea Butter (Butyrospermum Parkii Fruit), Sodium Ascorbyl Phosphate (Vitamin C), L-Ergothioneine (Amino Acid), Phenoxyethanol, Ethylhexyl Glycerin.
+Directions: Apply several times a day as needed. Results are often seen immediately. For long-term improvement use regularly for at least 2 weeks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/61KOO0bO2lL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/71464DuqG6L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/ShiKai-Borage-Therapy-Cream-Unscented/dp/B00M3V11U2</t>
+  </si>
+  <si>
     <t xml:space="preserve">CORNELLS Full Throttle Germ Protect Sports Hand Sanitizer Spray, 100 ml</t>
   </si>
   <si>
@@ -1349,6 +1459,25 @@
   </si>
   <si>
     <t xml:space="preserve">https://firstbodytt.com/product/island-margarita-hand-sanitizer-spray/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revive Car Sanitizer Spray |Anti-Fungi, Bacteria &amp; Virus |Quality Car AC Sanitizer-Made in UK (100 ml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Anti-fungi, bacteria &amp; virus.
+   - Removes unpleasant odors caused by bacteria, virus and mold in AC, veltilation ducts and vehicle interiors.
+   - Odor removal for vehicle interiors and car A/C systems.
+   - Delivers a long lasting fragnance and removes foul odor.
+   - Premium UK product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61kZH1kd33L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81gHe-ifQ4L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://arcus-www.amazon.ae/Sanitizer-Anti-Fungi-Bacteria-Quality-Sanitizer-Made/dp/B08616FQ2B</t>
   </si>
   <si>
     <t xml:space="preserve">SEPHORA COLLECTION 10 HR Wear Perfection Foundation 8 Light Ivory - 25ml</t>
@@ -2033,6 +2162,41 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.sa/-/en/Sephora-Cream-Lip-Stain-Marvelous/dp/B081VPRBNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourjois Twist Up The Volume Black Balm Mascara 22 Black Balm 8 ml - 0.27Fl Oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mascara with transformable 2-in-1 brush that makes the lashes visibly longer and volumised.
+Spread teeth brush position lengthens and separates the lashes.
+Closed teeth brush position volumises and intensifies the lashes.
+Deep black formula provides full coverage and amazing volume on every single lash.
+Paraben-free formula.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51qypac9PyS._AC_SL1280_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41jeF6OU50S._AC_SL1280_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.eg/-/en/Bourjois-Twist-Black-Balm-Mascara/dp/B071H6XVDB?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Factor Colour Xpert Waterproof Eye Liner - 01 Deep Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A waterproof formula that gives an extra staying power against humidity, rain and water as it has a precision dip-in tip which creates bold and dramatic eyelid definition for an intense finish, transforming your look in one clean stroke. Design house: Max Factor. Series: Colour X-Pert Waterproof Eyeliner. Gender: Ladies. Category: Cosmetics. SubType: Eyeliner. Beauty group: Eyes. Size: 0.06 oz. Color: # 01 Deep Black. SKU: 42209522. Barcode: 0000042209522. Colour X-Pert Waterproof Eyeliner - # 01 Deep Black by Max Factor for Women - 0.06 oz Eyeliner.
+Barcode: 42209522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0709/7329/2817/products/3_19038d00-d544-4923-b1e4-da4e1cfa2b62_1024x1024.jpg?v=1675530815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0709/7329/2817/products/4_e4048191-a38c-45e8-abe7-4af0d379dd68_1024x1024.jpg?v=1675530815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://highstreetpakistan.com/products/max-factor-col-xpert-wp-liner-01-deep-black?pr_prod_strat=collection_fallback&amp;pr_rec_id=e65390d15&amp;pr_rec_pid=7179514642592&amp;pr_ref_pid=7215611248800&amp;pr_seq=uniform#images-4</t>
   </si>
   <si>
     <t xml:space="preserve">Homme Ideal Intense Guerlain perfume for men 100 ml</t>
@@ -3225,6 +3389,114 @@
     <t xml:space="preserve">https://www.aromaconcepts.co.uk/collections/30ml-travel-perfumes/products/just-peach-50ml</t>
   </si>
   <si>
+    <t xml:space="preserve">Ralph Lauren Polo Blue EDP 125ml 3 Piece Gift Set For Men</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://perfumeplugng.com/product/ralph-lauren-polo-blue-edp-125ml-3-piece-gift-set-for-men/?v=4874ed2a3309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212 VIP BLACK MEN 2 PIECE GIFT SET - 3.4 OZ EAU DE PARFUM SPRAY by CAROLINA HERRERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This fragrance comes in a new gift set which contains 2 piece gift set - 3.4 oz eau de parfum spray, 3.4 oz bath and shower gel. The product is for men.
+Refreshing, oriental, and woody fragrance leaves you feeling cool and confident
+Ideal for a variety of occasions
+A fragrance that has been widely accepted
+It?s light, refreshing and can be applied often.
+fragrance to make it last longer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.walmart.com/ip/212-VIP-BLACK-MEN-2-PIECE-GIFT-SET-3-4-OZ-EAU-DE-PARFUM-SPRAY-by-CAROLINA-HERRERA/149865480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giorgio Armani Si Intense Eau De Parfum, 100ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Giorgio Armani
+Item Form: 	Spray
+Item Volume: 	100 Millilitres
+Scent: 	Fresh
+Age Range (Description): 	Adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61ZSlb6lA8L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61dxWuBdJEL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/Giorgio-Armani-Intense-Parfum-100ml/dp/B00MOQ619W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paco Rabanne Olympea Eau De Parfum for Women, 2.7 Ounce, 80ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympia by Paco Rabanne is an irresistible fragrance for women. Every spray is an adventure, with notes of vanilla, mandarin, ginger, and jasmine combining to awaken your senses.
+Olympia comes in a beautiful dusky pink bottle with Paco Rabanne branding, which means it’ll make an exciting gift for any special lady. Choose the perfect size from our 30ml, 50ml, and 80ml options and get ready to enjoy your new signature scent.
+Notes: vanilla, jasmine, ginger, mandarin, ambergris, cashmere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/81nBh7rMNEL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/91lAq2Ov+zL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fragrancedirect.co.uk/se/en/18017-paco-rabanne-olympea-for-women-eau-de-parfum-80ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lattafa Ameer Al Oud Intense Oud for Unisex Eau de Parfum Spray, 3.4 Ounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ameer Al Oudh Intense Oud by Lattafa Perfumes is a Amber fragrance for women and men. This is a new fragrance. Ameer Al Oudh Intense Oud was launched in 2021. The scent is oriental-sweet. Projection and longevity are above-average. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/51fGLuZ0YEL.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/41zp17FdzQL.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Ameer-Al-Oud-Intense-Perfumes/dp/B08LS9QXZC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xoff By Mccarthy London Perfume Gift Pack Set, 40ml, Set of 4pcs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A perfume is a liquid used to emit a pleasant odour. It is formed from fragrant essential oils derived from plants and spices or synthetic aromatic compounds.
+Fragrances really pump up your mood and escalate your drive. A good fragrance will not only bring about a reaction that motivates you, it will improve your attitude and help you function smoothly throughout a hectic work day. 
+ It is light and not overpowering. The perfume fills you with lightness and freshness notes. The fragrance for the perfume offers a blissful experience each time you apply.
+- Irresistible fragrance for a refreshing feel.
+- Help provide a soothing experience throughout the day.
+- Long lasting effect to help keep you fresh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://assets.dragonmart.ae//pictures/0424003_xoff-by-mccarthy-london-perfume-gift-pack-set-40ml-set-of-4pcs.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://assets.dragonmart.ae//pictures/0424005_xoff-by-mccarthy-london-perfume-gift-pack-set-40ml-set-of-4pcs.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dragonmart.ae/xoff-by-mccarthy-london-perfume-gift-pack-set-40ml-set-of-4pcs/pdp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coach Dreams Perfume Gift Set for Women, 3 Pieces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type:   Perfume (Eau de Parfum)
+Brand:   Coach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i5.walmartimages.com/asr/128119ec-11cb-4a4f-b56b-9a72de463216.86098b4d5539aa8a7ba0c9f2a8c6df67.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=FFFFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i5.walmartimages.com/asr/b6cb099f-5163-4d90-8524-7c33680255e9.9a52f7972d638fcd99a1fc9a8a75dc23.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=FFFFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.walmart.com/ip/Coach-Dreams-Perfume-Gift-Set-for-Women-3-Pieces/599734338</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nivea Protect &amp; Care Anti-Perspirant Deodorant Stick</t>
   </si>
   <si>
@@ -3824,6 +4096,15 @@
     <t xml:space="preserve">https://shopandgo.ug/product/moroccan-beauty-al-tag-super-soap-with-argan-oil/</t>
   </si>
   <si>
+    <t xml:space="preserve">Dr. Garcia Snail Collagen Soap 135 Grams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A breakthrough in soap making after adding snail filtrate extracts which have a complex mixture of Hyaluronic acid, allantoin, collagen, elastin, glycolic acid, and peptides. A combination of this mixture to the herbal cold process soap helps soothes and moisturizes the skin thus delaying premature aging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shopee.ph/Renew-Placenta-Dr.-Garcia-Snail-Collagen-Soap-135-Grams-i.191707541.6513167748</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fairytale Shower Gel From Bath and Body Works</t>
   </si>
   <si>
@@ -3878,6 +4159,168 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.bathandbodyworks.in/p/winter-candy-apple-667553789327.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin Republic Stem Cell Plant Protein Face Mask Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look younger, revitalise and control the visible signs of aging by minimising the appearance of fine lines and wrinkles.
+Features and Benefits
+Look younger
+Improves skin elasticity
+Skin appears lifted and toned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0397/6426/3079/products/SkinRepublicStemCellFaceMaskArabic_1000x1000_fafcd064-1405-40d8-a3c5-404025885c13_2000x.png?v=1594133851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0397/6426/3079/products/Skin_Republic_How_to_-_Facial_Sheet_Mask_1000x1000_15112e41-7e52-4d35-ae31-3e2daac80703_2000x.jpg?v=1594133851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://theskinrepublic.me/products/stem-cell-plant-protein-face-mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin Republic Platinum Lift Face Mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduces visible signs of aging
+Antioxidant rich
+Skin appears firmer, toned and lifted
+Biodegradable mask
+Platinum, trehalose and pomegranate protect against environmental stressors. Lift and firm the appearance of the skin, enhancing texture and elasticity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0231/7772/3982/products/8809313490902-1_5000x.jpg?v=1637323629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0231/7772/3982/products/8809313490902-5_5000x.jpg?v=1637323631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://theskinrepublic.co.za/products/platinum-lift-face-mask#how-to-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin Republic Collagen Infusion Face Mask Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Younger-looking skin after one use
+Deep wrinkles reduced after 2 weeks
++27% increase in skin firmness after 3 weeks
+Biodegradable mask
+Clinically proven to dramatically improve deep wrinkles after 2 weeks with younger-looking skin after just one use."
+Independent Study, Instrumental test of skin using Cutometer® MPA 580, 20 participants, instantly after use, 7, 14 and 21 days after use. Independent Consumer Questionnaire, 20 participants, 21 days of use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0231/7772/3982/products/8809313490964-1_5000x.jpg?v=1637322797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0231/7772/3982/products/8809313490964-4_5000x.jpg?v=1668087887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://theskinrepublic.co.za/products/collagen-infusion-face-mask?variant=40572607201475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE BODY SHOP - Seaweed Balance Sheet Mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mattify and hydrate oily and combination skin in just 15 minutes with our vegan Seaweed Balance Sheet Mask. Enriched with cucumber extract, mineral-rich seaweed and Community Fair Trade organic aloe vera, this mask locks in 24hr hydration and leaves skin feeling instantly refreshed and mattified.
+Hydrating single-use sheet mask
+Formulated for oily and combination skin
+Skin feels hydrated, mattified and refreshed
+24hr hydration
+Easy to use for instant results
+Enriched with cucumber extract, mineral-rich seaweed from Ireland and Community Fair Trade organic aloe vera from Mexico
+Vegan
+Biodegradable sheet (not including packaging)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media.thebodyshop.com/i/thebodyshop/SEAWEED_BALANCE_SHEET_MASK_250ML_1_INRSAPS675.jpg?$product-zoom$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media.thebodyshop.com/i/thebodyshop/SEAWEED_BALANCE_SHEET_MASK_250ML_2_INRSAPS229.jpg?$product-zoom$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thebodyshop.com/en-hk/face/face-masks/seaweed-balance-sheet-mask/p/p003256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydra Bomb Hyaluronic Acid Pomegranate Hydrating Sheet Mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super hydrating and replumping sheet mask, enriched with Hyaluronic Acid + Pomegranate for dehydrated skin. Leaves skin looking more radiant, with a rejuvenated complexion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.garnier.com.au/-/media/project/loreal/brand-sites/garnier/apac/au/products/skincare/skin-active/hydrabomb/packshot-update/hydrabomb-reno-2021/6923700977554-_1.png?w=500&amp;rev=ed291cf8ec864da7b50b26ff54aee005&amp;hash=2F727E204A97AA285692A51EE80F2953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.garnier.com.au/-/media/project/loreal/brand-sites/garnier/apac/au/products/skincare/skin-active/3600542319539_4.png?w=500&amp;rev=0adacc1771d84bb6a0373b46719eaf1f&amp;hash=5486F07DFFC676BDB76BE7FB540FD051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.garnier.com.au/about-our-brands/skin-active/hydrabomb/hydra-bomb-sheet-face-mask-pomegranate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutrogena Purifying Boost Detox Hydrogel Mask – 30ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discover NEUTROGENA® Purifying Boost Hydrogel Recovery Mask, a proven detoxifier in a new generation of face masks designed in Korea. Made from 100% Hydrogel purifying formula enriched with Seaweed Extract, this innovative texture wraps perfectly around your face like a second skin to maximise absorption of active ingredients.
+Hydrogel masks deliver the equivalent of one 30ml bottle of concentrated detox serum to your skin in just 15 minutes. Skin feels purified, soft and complexion looks healthy.
+Instantly hydrates for refreshed skin. This peel-off hydrogel face mask with seaweed extract contains 50% more essence than ordinary paper masks leaving your skin purified &amp; healthy looking.
+USAGE:
+Cleanse your face.
+Peel the white backing film from the top mask sheet and place this side of the mask onto the face. Discard the white backing sheet. Repeat with the bottom mask sheet.
+Place hydrogel mask down on face and leave on from 15 to 30 minutes.
+Remove the mask and massage the remaining product into the face and neck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eshaistic.pk/wp-content/uploads/2021/07/Neutrogena-Skin-Detox-The-Purifier-100-Hydro-Gel-Mask-30ml.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eshaistic.pk/neutrogena-purifying-boost-detox-hydrogel-mask-30ml/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutrogena - The Illuminator Bright Boost Hydrogel Recovery Mask 30ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutrogena Bright Boost Hydrogel Recovery Mask brightens the skin, boosts radiance and smoothens its texture.
+Made from a unique 100% hydrogel formula, Neutrogena Bright Boost Hydrogel Recovery Mask has an innovative texture that contours your skin for optimal absorption of active ingredients to deliver clinically proven results.
+Gentle on the skin, Neutrogena Bright Boost Hydrogel Recovery Mask is enriched with vitamin B3 to leave your skin looking luminous, evenly toned and radiant.
+Get intense hydration with Neutrogena Bright Boost Hydrogel Recovery Mask!
+Features &amp; Benefits:
+Intensely hydrating &amp; brightens skin
+100% hydrogel formula enriched with vitamin B3
+Non-comedogenic (won’t clog pores)
+Suitable for sensitive skin
+Dermatologist tested
+About the brand:
+Neutrogena is a brand of the Johnson &amp; Johnson Family of Consumer Companies. Recommended by dermatologists worldwide, Neutrogena has brought clinically proven skincare solutions to consumers for over 60 years. By creating, innovating, and rethinking what is possible in skincare, Neutrogena products for the face and body deliver real results without compromises. Its wide range of beauty and skincare lines has some of the world’s most loved products. Today Neutrogena offers more than 650 products worldwide in the face, body, acne, sun protection, makeup, men’s care, and anti-wrinkle categories.
+How to use:
+Cleanse your face. Peel the white film backing from the mask sheet &amp; discard. Place the hydrogel mask on the face and leave it on for 15 to 30 minutes. Remove mask and massage remaining product onto face and neck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media.takealot.com/covers_images/84f9fde297de4bee94ceae5e66866e05/s-zoom.file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media.takealot.com/covers_images/4222ec368e984d95b0a7337bcd565dde/s-zoom.file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.takealot.com/neutrogena-the-illuminator-bright-boost-hydrogel-recovery-mask-3/PLID91476106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutrogena, The Super Hydrator, Hydro Boost Hydrogel Recovery Mask, 30ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intensely hydrating
+100% hydrogel formula enriched with active serum
+Non-comedogenic (won’t clog pores)
+Suitable for sensitive skin
+Dermatologist tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71-XIgU3ZPL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71Y3C3AxgpS._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.eg/-/en/Neutrogena-Super-Hydrator-Hydrogel-Recovery/dp/B07NRYLBDX</t>
   </si>
 </sst>
 </file>
@@ -3887,7 +4330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3913,6 +4356,14 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3947,7 +4398,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3971,8 +4422,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3989,19 +4443,88 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -4016,7 +4539,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
   </cols>
@@ -4128,7 +4651,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4158,33 +4681,33 @@
         <v>3821</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3823</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>384</v>
+      <c r="B3" s="6" t="s">
+        <v>421</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4192,19 +4715,19 @@
         <v>3826</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>700000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4212,19 +4735,19 @@
         <v>4097</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>394</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -4249,7 +4772,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4279,19 +4802,19 @@
         <v>3829</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,19 +4822,19 @@
         <v>3831</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4319,19 +4842,19 @@
         <v>3833</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4339,22 +4862,22 @@
         <v>4100</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4362,22 +4885,22 @@
         <v>4103</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4385,19 +4908,19 @@
         <v>4457</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>421</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -4422,7 +4945,7 @@
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4452,19 +4975,19 @@
         <v>3836</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4472,22 +4995,22 @@
         <v>4106</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>427</v>
+        <v>464</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4495,19 +5018,19 @@
         <v>4108</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4515,19 +5038,19 @@
         <v>4110</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4535,19 +5058,19 @@
         <v>4112</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4555,22 +5078,22 @@
         <v>4115</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4578,19 +5101,19 @@
         <v>4117</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4598,22 +5121,22 @@
         <v>4120</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>453</v>
+        <v>490</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4621,19 +5144,19 @@
         <v>4122</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4641,19 +5164,19 @@
         <v>4124</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4661,22 +5184,22 @@
         <v>4127</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4684,19 +5207,19 @@
         <v>4129</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4704,19 +5227,19 @@
         <v>4131</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>477</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4724,16 +5247,16 @@
         <v>4133</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>478</v>
+        <v>515</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4741,19 +5264,19 @@
         <v>4135</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>484</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4761,22 +5284,22 @@
         <v>4138</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>489</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4784,22 +5307,22 @@
         <v>4141</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>490</v>
+        <v>527</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>492</v>
+        <v>529</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>494</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4807,19 +5330,19 @@
         <v>4460</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>498</v>
+        <v>535</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>499</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4827,19 +5350,19 @@
         <v>4143</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>500</v>
+        <v>537</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4847,19 +5370,19 @@
         <v>4145</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4867,16 +5390,16 @@
         <v>4462</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>508</v>
+        <v>545</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>510</v>
+        <v>547</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>511</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4935,13 +5458,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4966,30 +5489,112 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>3840</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>512</v>
+      <c r="B2" s="6" t="s">
+        <v>549</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>516</v>
-      </c>
-    </row>
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4976</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4979</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="https://cdn.shopify.com/s/files/1/0709/7329/2817/products/4_e4048191-a38c-45e8-abe7-4af0d379dd68_1024x1024.jpg?v=1675530815"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5007,11 +5612,11 @@
   </sheetPr>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F78" activeCellId="0" sqref="F78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5041,19 +5646,19 @@
         <v>3521</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>517</v>
+        <v>564</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>518</v>
+        <v>565</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>519</v>
+        <v>566</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>520</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5061,39 +5666,39 @@
         <v>3523</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>521</v>
+        <v>568</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>522</v>
+        <v>569</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>523</v>
+        <v>570</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>524</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3569</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>525</v>
+      <c r="B4" s="6" t="s">
+        <v>572</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>526</v>
+        <v>573</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>527</v>
+        <v>574</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>528</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5101,22 +5706,22 @@
         <v>3527</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>529</v>
+        <v>576</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>530</v>
+        <v>577</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>531</v>
+        <v>578</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>532</v>
+        <v>579</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>533</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5124,22 +5729,22 @@
         <v>3531</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>534</v>
+        <v>581</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>535</v>
+        <v>582</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>536</v>
+        <v>583</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>537</v>
+        <v>584</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>538</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5147,22 +5752,22 @@
         <v>3534</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>539</v>
+        <v>586</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>540</v>
+        <v>587</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>700000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>541</v>
+        <v>588</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>542</v>
+        <v>589</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>543</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5170,22 +5775,22 @@
         <v>3538</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>544</v>
+        <v>591</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>545</v>
+        <v>592</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>546</v>
+        <v>593</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>547</v>
+        <v>594</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>548</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5193,22 +5798,22 @@
         <v>3559</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>549</v>
+        <v>596</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>550</v>
+        <v>597</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>551</v>
+        <v>598</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>552</v>
+        <v>599</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>553</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5216,22 +5821,22 @@
         <v>3541</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>554</v>
+        <v>601</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>555</v>
+        <v>602</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>556</v>
+        <v>603</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>557</v>
+        <v>604</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>558</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5239,22 +5844,22 @@
         <v>3571</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>559</v>
+        <v>606</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>560</v>
+        <v>607</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>561</v>
+        <v>608</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>562</v>
+        <v>609</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>563</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5262,22 +5867,22 @@
         <v>3544</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>565</v>
+        <v>612</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1300000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>566</v>
+        <v>613</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>567</v>
+        <v>614</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>568</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5285,22 +5890,22 @@
         <v>3547</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>569</v>
+        <v>616</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>570</v>
+        <v>617</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>571</v>
+        <v>618</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>572</v>
+        <v>619</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>573</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5308,19 +5913,19 @@
         <v>3550</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>574</v>
+        <v>621</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>575</v>
+        <v>622</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>577</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5328,19 +5933,19 @@
         <v>3552</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>578</v>
+        <v>625</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>579</v>
+        <v>626</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>580</v>
+        <v>627</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>581</v>
+        <v>628</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5348,22 +5953,22 @@
         <v>3555</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>582</v>
+        <v>629</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>583</v>
+        <v>630</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>584</v>
+        <v>631</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>585</v>
+        <v>632</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>586</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5371,22 +5976,22 @@
         <v>3843</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>587</v>
+        <v>634</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>588</v>
+        <v>635</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>589</v>
+        <v>636</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>590</v>
+        <v>637</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>591</v>
+        <v>638</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5394,19 +5999,19 @@
         <v>3845</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>592</v>
+        <v>639</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>593</v>
+        <v>640</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>594</v>
+        <v>641</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>595</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5414,22 +6019,22 @@
         <v>3848</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>596</v>
+        <v>643</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>597</v>
+        <v>644</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>598</v>
+        <v>645</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>599</v>
+        <v>646</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>600</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5437,19 +6042,19 @@
         <v>3850</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>601</v>
+        <v>648</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>602</v>
+        <v>649</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>603</v>
+        <v>650</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>604</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5457,22 +6062,22 @@
         <v>3853</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>605</v>
+        <v>652</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>606</v>
+        <v>653</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>607</v>
+        <v>654</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>608</v>
+        <v>655</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>609</v>
+        <v>656</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5480,22 +6085,22 @@
         <v>3863</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>610</v>
+        <v>657</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>611</v>
+        <v>658</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>612</v>
+        <v>659</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>613</v>
+        <v>660</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>614</v>
+        <v>661</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5503,19 +6108,19 @@
         <v>3855</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>615</v>
+        <v>662</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>616</v>
+        <v>663</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>617</v>
+        <v>664</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>618</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5523,22 +6128,22 @@
         <v>3858</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>619</v>
+        <v>666</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>620</v>
+        <v>667</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>621</v>
+        <v>668</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>622</v>
+        <v>669</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>623</v>
+        <v>670</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5546,19 +6151,19 @@
         <v>3860</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>624</v>
+        <v>671</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>625</v>
+        <v>672</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>626</v>
+        <v>673</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>627</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5566,22 +6171,22 @@
         <v>4148</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>628</v>
+        <v>675</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>629</v>
+        <v>676</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>630</v>
+        <v>677</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>631</v>
+        <v>678</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>632</v>
+        <v>679</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5589,22 +6194,22 @@
         <v>4151</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>633</v>
+        <v>680</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>634</v>
+        <v>681</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>635</v>
+        <v>682</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>636</v>
+        <v>683</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>637</v>
+        <v>684</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5612,16 +6217,16 @@
         <v>4153</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>638</v>
+        <v>685</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>639</v>
+        <v>686</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>640</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5629,19 +6234,19 @@
         <v>4156</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>641</v>
+        <v>688</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>642</v>
+        <v>689</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>643</v>
+        <v>690</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>644</v>
+        <v>691</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>645</v>
+        <v>692</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5649,22 +6254,22 @@
         <v>4159</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>646</v>
+        <v>693</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>647</v>
+        <v>694</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>648</v>
+        <v>695</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>649</v>
+        <v>696</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>650</v>
+        <v>697</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5672,22 +6277,22 @@
         <v>4162</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>651</v>
+        <v>698</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>652</v>
+        <v>699</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>653</v>
+        <v>700</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>654</v>
+        <v>701</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>655</v>
+        <v>702</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5695,19 +6300,19 @@
         <v>4164</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>656</v>
+        <v>703</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>657</v>
+        <v>704</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>658</v>
+        <v>705</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>659</v>
+        <v>706</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5715,22 +6320,22 @@
         <v>4167</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>660</v>
+        <v>707</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>661</v>
+        <v>708</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>662</v>
+        <v>709</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>663</v>
+        <v>710</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>664</v>
+        <v>711</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5738,19 +6343,19 @@
         <v>4169</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>665</v>
+        <v>712</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>666</v>
+        <v>713</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>667</v>
+        <v>714</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>668</v>
+        <v>715</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5758,19 +6363,19 @@
         <v>4171</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>669</v>
+        <v>716</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>670</v>
+        <v>717</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>671</v>
+        <v>718</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>672</v>
+        <v>719</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5778,19 +6383,19 @@
         <v>4173</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>673</v>
+        <v>720</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>674</v>
+        <v>721</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>675</v>
+        <v>722</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>676</v>
+        <v>723</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5798,22 +6403,22 @@
         <v>4176</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>677</v>
+        <v>724</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>678</v>
+        <v>725</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>679</v>
+        <v>726</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>680</v>
+        <v>727</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>681</v>
+        <v>728</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5821,19 +6426,19 @@
         <v>4178</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>682</v>
+        <v>729</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>682</v>
+        <v>729</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>280000</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>683</v>
+        <v>730</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>684</v>
+        <v>731</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5841,19 +6446,19 @@
         <v>4180</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>685</v>
+        <v>732</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>686</v>
+        <v>733</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>280000</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>687</v>
+        <v>734</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>688</v>
+        <v>735</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5861,22 +6466,22 @@
         <v>2558</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>689</v>
+        <v>736</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>690</v>
+        <v>737</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>1450000</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>691</v>
+        <v>738</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>692</v>
+        <v>739</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>693</v>
+        <v>740</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5884,22 +6489,22 @@
         <v>4183</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>694</v>
+        <v>741</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>695</v>
+        <v>742</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>696</v>
+        <v>743</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>697</v>
+        <v>744</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>698</v>
+        <v>745</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5907,22 +6512,22 @@
         <v>4186</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>699</v>
+        <v>746</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>700</v>
+        <v>747</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>480000</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>701</v>
+        <v>748</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>702</v>
+        <v>749</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>703</v>
+        <v>750</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5930,19 +6535,19 @@
         <v>4188</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>704</v>
+        <v>751</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>705</v>
+        <v>752</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>706</v>
+        <v>753</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>707</v>
+        <v>754</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5950,19 +6555,19 @@
         <v>4190</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>708</v>
+        <v>755</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>709</v>
+        <v>756</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>225000</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>710</v>
+        <v>757</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>711</v>
+        <v>758</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5970,7 +6575,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>712</v>
+        <v>759</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5978,22 +6583,22 @@
         <v>4193</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>713</v>
+        <v>760</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>714</v>
+        <v>761</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>715</v>
+        <v>762</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>716</v>
+        <v>763</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>717</v>
+        <v>764</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6001,22 +6606,22 @@
         <v>4196</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>718</v>
+        <v>765</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>719</v>
+        <v>766</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>720</v>
+        <v>767</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>721</v>
+        <v>768</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>722</v>
+        <v>769</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6024,22 +6629,22 @@
         <v>4199</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>724</v>
+        <v>771</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6047,22 +6652,22 @@
         <v>4202</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>728</v>
+        <v>775</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>729</v>
+        <v>776</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>730</v>
+        <v>777</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>731</v>
+        <v>778</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>732</v>
+        <v>779</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6070,22 +6675,22 @@
         <v>4205</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>733</v>
+        <v>780</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>734</v>
+        <v>781</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>735</v>
+        <v>782</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>736</v>
+        <v>783</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>737</v>
+        <v>784</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6093,19 +6698,19 @@
         <v>4207</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>738</v>
+        <v>785</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>739</v>
+        <v>786</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>740</v>
+        <v>787</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>741</v>
+        <v>788</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6113,19 +6718,19 @@
         <v>4209</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>742</v>
+        <v>789</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>743</v>
+        <v>790</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>650000</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>744</v>
+        <v>791</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>745</v>
+        <v>792</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6133,19 +6738,19 @@
         <v>4211</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>746</v>
+        <v>793</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>747</v>
+        <v>794</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>748</v>
+        <v>795</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>749</v>
+        <v>796</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6153,16 +6758,16 @@
         <v>4213</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>750</v>
+        <v>797</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>751</v>
+        <v>798</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>580000</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>752</v>
+        <v>799</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6170,19 +6775,19 @@
         <v>4215</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>753</v>
+        <v>800</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>754</v>
+        <v>801</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>755</v>
+        <v>802</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>755</v>
+        <v>802</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6190,22 +6795,22 @@
         <v>4218</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>756</v>
+        <v>803</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>757</v>
+        <v>804</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>758</v>
+        <v>805</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>759</v>
+        <v>806</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>760</v>
+        <v>807</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6213,19 +6818,19 @@
         <v>4220</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>761</v>
+        <v>808</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>762</v>
+        <v>809</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>480000</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>763</v>
+        <v>810</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>764</v>
+        <v>811</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6233,22 +6838,22 @@
         <v>4223</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>765</v>
+        <v>812</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>766</v>
+        <v>813</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>767</v>
+        <v>814</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>768</v>
+        <v>815</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>769</v>
+        <v>816</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6256,22 +6861,22 @@
         <v>4226</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>770</v>
+        <v>817</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>771</v>
+        <v>818</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>772</v>
+        <v>819</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>772</v>
+        <v>819</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>773</v>
+        <v>820</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6279,22 +6884,22 @@
         <v>4229</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>774</v>
+        <v>821</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>775</v>
+        <v>822</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>776</v>
+        <v>823</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>777</v>
+        <v>824</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>778</v>
+        <v>825</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6302,22 +6907,22 @@
         <v>4232</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>779</v>
+        <v>826</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>780</v>
+        <v>827</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>781</v>
+        <v>828</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>782</v>
+        <v>829</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>783</v>
+        <v>830</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6325,22 +6930,22 @@
         <v>4235</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>784</v>
+        <v>831</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>785</v>
+        <v>832</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>786</v>
+        <v>833</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>787</v>
+        <v>834</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>788</v>
+        <v>835</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6348,19 +6953,19 @@
         <v>4237</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>789</v>
+        <v>836</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>790</v>
+        <v>837</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>791</v>
+        <v>838</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>792</v>
+        <v>839</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6368,22 +6973,22 @@
         <v>4240</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>794</v>
+        <v>841</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>795</v>
+        <v>842</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>796</v>
+        <v>843</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>797</v>
+        <v>844</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6391,22 +6996,22 @@
         <v>4248</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>798</v>
+        <v>845</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>799</v>
+        <v>846</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>650000</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>800</v>
+        <v>847</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>801</v>
+        <v>848</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>802</v>
+        <v>849</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6414,22 +7019,22 @@
         <v>4251</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>803</v>
+        <v>850</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>804</v>
+        <v>851</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>805</v>
+        <v>852</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>806</v>
+        <v>853</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>807</v>
+        <v>854</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6437,19 +7042,19 @@
         <v>4254</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>808</v>
+        <v>855</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>809</v>
+        <v>856</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>810</v>
+        <v>857</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>811</v>
+        <v>858</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>812</v>
+        <v>859</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6457,22 +7062,22 @@
         <v>4257</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>813</v>
+        <v>860</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>814</v>
+        <v>861</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>815</v>
+        <v>862</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>816</v>
+        <v>863</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>817</v>
+        <v>864</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6480,28 +7085,164 @@
         <v>4465</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>818</v>
+        <v>865</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>819</v>
+        <v>866</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>820</v>
+        <v>867</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>821</v>
+        <v>868</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>5011</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>350000</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>5012</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>5015</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>5018</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>5021</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>5024</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>5032</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>550000</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>899</v>
+      </c>
+    </row>
     <row r="77" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="78" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -6522,11 +7263,11 @@
   </sheetPr>
   <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6556,22 +7297,22 @@
         <v>3867</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>823</v>
+        <v>900</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>824</v>
+        <v>901</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>825</v>
+        <v>902</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>826</v>
+        <v>903</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>827</v>
+        <v>904</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6579,19 +7320,19 @@
         <v>3912</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>828</v>
+        <v>905</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>829</v>
+        <v>906</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>830</v>
+        <v>907</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>831</v>
+        <v>908</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6599,22 +7340,22 @@
         <v>3870</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>832</v>
+        <v>909</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>833</v>
+        <v>910</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>834</v>
+        <v>911</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>835</v>
+        <v>912</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>836</v>
+        <v>913</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6622,19 +7363,19 @@
         <v>3872</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>837</v>
+        <v>914</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>838</v>
+        <v>915</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>839</v>
+        <v>916</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>840</v>
+        <v>917</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6642,19 +7383,19 @@
         <v>3874</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>841</v>
+        <v>918</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>842</v>
+        <v>919</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>155000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>843</v>
+        <v>920</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>844</v>
+        <v>921</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6662,16 +7403,16 @@
         <v>3876</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>845</v>
+        <v>922</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>846</v>
+        <v>923</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>847</v>
+        <v>924</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6679,19 +7420,19 @@
         <v>3914</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>848</v>
+        <v>925</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>849</v>
+        <v>926</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>850</v>
+        <v>927</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>851</v>
+        <v>928</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6699,19 +7440,19 @@
         <v>3878</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>852</v>
+        <v>929</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>853</v>
+        <v>930</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>854</v>
+        <v>931</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>855</v>
+        <v>932</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6719,19 +7460,19 @@
         <v>3918</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>856</v>
+        <v>933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>857</v>
+        <v>934</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>858</v>
+        <v>935</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>859</v>
+        <v>936</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6739,19 +7480,19 @@
         <v>3880</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>860</v>
+        <v>937</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>861</v>
+        <v>938</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>862</v>
+        <v>939</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>863</v>
+        <v>940</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6759,22 +7500,22 @@
         <v>3883</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>864</v>
+        <v>941</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>865</v>
+        <v>942</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>866</v>
+        <v>943</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>867</v>
+        <v>944</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>868</v>
+        <v>945</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6782,19 +7523,19 @@
         <v>3885</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>869</v>
+        <v>946</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>870</v>
+        <v>947</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>871</v>
+        <v>948</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>872</v>
+        <v>949</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6802,19 +7543,19 @@
         <v>3887</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>873</v>
+        <v>950</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>861</v>
+        <v>938</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>874</v>
+        <v>951</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>875</v>
+        <v>952</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6822,19 +7563,19 @@
         <v>3889</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>876</v>
+        <v>953</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>877</v>
+        <v>954</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>878</v>
+        <v>955</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>879</v>
+        <v>956</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6842,19 +7583,19 @@
         <v>3891</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>880</v>
+        <v>957</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>881</v>
+        <v>958</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>878</v>
+        <v>955</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>882</v>
+        <v>959</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6862,19 +7603,19 @@
         <v>3893</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>883</v>
+        <v>960</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>884</v>
+        <v>961</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>885</v>
+        <v>962</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>886</v>
+        <v>963</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6882,19 +7623,19 @@
         <v>3895</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>887</v>
+        <v>964</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>888</v>
+        <v>965</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>889</v>
+        <v>966</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>890</v>
+        <v>967</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6902,19 +7643,19 @@
         <v>3897</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>891</v>
+        <v>968</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>892</v>
+        <v>969</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>893</v>
+        <v>970</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>894</v>
+        <v>971</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6922,22 +7663,22 @@
         <v>3900</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>895</v>
+        <v>972</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>896</v>
+        <v>973</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>897</v>
+        <v>974</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>898</v>
+        <v>975</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>899</v>
+        <v>976</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6945,19 +7686,19 @@
         <v>3916</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>900</v>
+        <v>977</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>901</v>
+        <v>978</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>902</v>
+        <v>979</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>903</v>
+        <v>980</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6965,22 +7706,22 @@
         <v>3903</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>904</v>
+        <v>981</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>905</v>
+        <v>982</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>866</v>
+        <v>943</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>867</v>
+        <v>944</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>868</v>
+        <v>945</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6988,19 +7729,19 @@
         <v>3905</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>906</v>
+        <v>983</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>907</v>
+        <v>984</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>908</v>
+        <v>985</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>909</v>
+        <v>986</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7008,22 +7749,22 @@
         <v>3908</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>910</v>
+        <v>987</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>911</v>
+        <v>988</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>912</v>
+        <v>989</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>913</v>
+        <v>990</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>914</v>
+        <v>991</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7031,19 +7772,19 @@
         <v>3910</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>915</v>
+        <v>992</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>916</v>
+        <v>993</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>917</v>
+        <v>994</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>918</v>
+        <v>995</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7051,19 +7792,19 @@
         <v>4468</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>919</v>
+        <v>996</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>920</v>
+        <v>997</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>921</v>
+        <v>998</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>922</v>
+        <v>999</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>923</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7260,7 +8001,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7290,19 +8031,19 @@
         <v>4259</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>924</v>
+        <v>1001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>925</v>
+        <v>1002</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>926</v>
+        <v>1003</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>927</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7310,19 +8051,19 @@
         <v>4261</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>928</v>
+        <v>1005</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>929</v>
+        <v>1006</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>930</v>
+        <v>1007</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>931</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7330,19 +8071,19 @@
         <v>4263</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>932</v>
+        <v>1009</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>933</v>
+        <v>1010</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>934</v>
+        <v>1011</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>935</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7350,19 +8091,19 @@
         <v>4265</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>936</v>
+        <v>1013</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>937</v>
+        <v>1014</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>938</v>
+        <v>1015</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>939</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7370,19 +8111,19 @@
         <v>4267</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>940</v>
+        <v>1017</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>941</v>
+        <v>1018</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>942</v>
+        <v>1019</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>943</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7390,19 +8131,19 @@
         <v>4269</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>944</v>
+        <v>1021</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>945</v>
+        <v>1022</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>946</v>
+        <v>1023</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>947</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7410,19 +8151,19 @@
         <v>4271</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>948</v>
+        <v>1025</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>949</v>
+        <v>1026</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>950</v>
+        <v>1027</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>951</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7430,19 +8171,19 @@
         <v>4273</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>952</v>
+        <v>1029</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>953</v>
+        <v>1030</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>954</v>
+        <v>1031</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>955</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7450,19 +8191,19 @@
         <v>4275</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>956</v>
+        <v>1033</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>957</v>
+        <v>1034</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>958</v>
+        <v>1035</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>959</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7470,19 +8211,19 @@
         <v>4277</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>960</v>
+        <v>1037</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>961</v>
+        <v>1038</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>962</v>
+        <v>1039</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>963</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7490,16 +8231,16 @@
         <v>4279</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>964</v>
+        <v>1041</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>965</v>
+        <v>1042</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>966</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7507,19 +8248,19 @@
         <v>4281</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>967</v>
+        <v>1044</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>968</v>
+        <v>1045</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>969</v>
+        <v>1046</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>970</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -7538,13 +8279,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7574,19 +8315,19 @@
         <v>4283</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>971</v>
+        <v>1048</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>972</v>
+        <v>1049</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>973</v>
+        <v>1050</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>974</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7594,19 +8335,19 @@
         <v>4285</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>975</v>
+        <v>1052</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>976</v>
+        <v>1053</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>977</v>
+        <v>1054</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>978</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7614,19 +8355,36 @@
         <v>4287</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>979</v>
+        <v>1056</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>980</v>
+        <v>1057</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>95000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>981</v>
+        <v>1058</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>982</v>
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5037</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>64000</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>1062</v>
       </c>
     </row>
   </sheetData>
@@ -7647,11 +8405,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7681,16 +8439,16 @@
         <v>4298</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>983</v>
+        <v>1063</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>984</v>
+        <v>1064</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>985</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7698,19 +8456,19 @@
         <v>4300</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>986</v>
+        <v>1066</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>987</v>
+        <v>1067</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>988</v>
+        <v>1068</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>989</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7718,22 +8476,22 @@
         <v>4303</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>990</v>
+        <v>1070</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>991</v>
+        <v>1071</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>992</v>
+        <v>1072</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>993</v>
+        <v>1073</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>994</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7741,22 +8499,397 @@
         <v>4305</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>995</v>
+        <v>1075</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>996</v>
+        <v>1076</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>997</v>
+        <v>1077</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>998</v>
+        <v>1078</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G149"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4982</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4985</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4988</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4991</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4994</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4996</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4997</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://cdn.shopify.com/s/files/1/0397/6426/3079/products/Skin_Republic_How_to_-_Facial_Sheet_Mask_1000x1000_15112e41-7e52-4d35-ae31-3e2daac80703_2000x.jpg?v=1594133851"/>
+    <hyperlink ref="E6" r:id="rId2" display="https://www.garnier.com.au/-/media/project/loreal/brand-sites/garnier/apac/au/products/skincare/skin-active/hydrabomb/packshot-update/hydrabomb-reno-2021/6923700977554-_1.png?w=500&amp;rev=ed291cf8ec864da7b50b26ff54aee005&amp;hash=2F727E204A97AA285692A51EE80F2953"/>
+    <hyperlink ref="E7" r:id="rId3" display="https://www.eshaistic.pk/wp-content/uploads/2021/07/Neutrogena-Skin-Detox-The-Purifier-100-Hydro-Gel-Mask-30ml.jpg"/>
+    <hyperlink ref="E9" r:id="rId4" display="https://m.media-amazon.com/images/I/71-XIgU3ZPL._AC_SL1500_.jpg"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7772,13 +8905,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7860,7 +8993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>3760</v>
       </c>
@@ -7918,6 +9051,26 @@
       </c>
       <c r="G7" s="0" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5004</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -7942,7 +9095,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7972,19 +9125,19 @@
         <v>3777</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7992,19 +9145,19 @@
         <v>3779</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>320000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8012,19 +9165,19 @@
         <v>3781</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8032,19 +9185,19 @@
         <v>3783</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8052,19 +9205,19 @@
         <v>3785</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8072,10 +9225,10 @@
         <v>4453</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>300000</v>
@@ -8097,13 +9250,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8133,16 +9286,16 @@
         <v>3216</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>240000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8150,19 +9303,19 @@
         <v>3220</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>110000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8170,19 +9323,19 @@
         <v>3786</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8190,16 +9343,16 @@
         <v>3224</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8207,19 +9360,19 @@
         <v>3226</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8227,19 +9380,19 @@
         <v>3228</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8247,19 +9400,19 @@
         <v>3230</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8267,19 +9420,19 @@
         <v>3232</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8287,19 +9440,19 @@
         <v>3234</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8307,19 +9460,19 @@
         <v>3236</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8327,19 +9480,19 @@
         <v>3789</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8347,22 +9500,22 @@
         <v>3964</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8370,19 +9523,19 @@
         <v>3966</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8390,19 +9543,19 @@
         <v>3968</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>130000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8410,22 +9563,22 @@
         <v>3971</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8433,19 +9586,19 @@
         <v>3973</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>130000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8453,16 +9606,16 @@
         <v>3975</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>130000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8470,22 +9623,22 @@
         <v>3978</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8493,22 +9646,22 @@
         <v>4005</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>130000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8516,19 +9669,19 @@
         <v>3980</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8536,16 +9689,16 @@
         <v>3982</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8553,19 +9706,19 @@
         <v>3984</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8573,19 +9726,19 @@
         <v>3986</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8593,16 +9746,16 @@
         <v>3988</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8610,22 +9763,22 @@
         <v>3991</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8633,19 +9786,19 @@
         <v>3993</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8653,19 +9806,19 @@
         <v>3995</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8673,16 +9826,16 @@
         <v>3997</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8690,19 +9843,19 @@
         <v>3999</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8710,25 +9863,61 @@
         <v>4002</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F20" r:id="rId1" display="https://cdn.store-assets.com/s/139218/i/36105290.jpg"/>
@@ -8754,7 +9943,7 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8784,19 +9973,19 @@
         <v>3794</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8804,19 +9993,19 @@
         <v>3793</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>210000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8824,16 +10013,16 @@
         <v>4007</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8841,19 +10030,19 @@
         <v>4009</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8861,22 +10050,22 @@
         <v>4012</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8884,19 +10073,19 @@
         <v>4014</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8904,22 +10093,22 @@
         <v>4017</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8927,19 +10116,19 @@
         <v>4019</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8947,19 +10136,19 @@
         <v>4021</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8967,19 +10156,19 @@
         <v>4023</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8987,22 +10176,22 @@
         <v>4026</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9010,16 +10199,16 @@
         <v>4031</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -9044,7 +10233,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -9074,22 +10263,22 @@
         <v>3801</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9097,16 +10286,16 @@
         <v>3798</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>190000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9114,22 +10303,22 @@
         <v>3804</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9137,22 +10326,22 @@
         <v>4029</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>160000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -9171,13 +10360,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -9207,19 +10396,19 @@
         <v>3807</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>170000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9227,22 +10416,22 @@
         <v>3810</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>240000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9250,19 +10439,19 @@
         <v>4033</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9270,22 +10459,22 @@
         <v>4036</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9293,19 +10482,19 @@
         <v>4038</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9313,22 +10502,22 @@
         <v>4041</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9336,19 +10525,19 @@
         <v>4044</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9356,22 +10545,22 @@
         <v>4047</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9379,22 +10568,22 @@
         <v>4050</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9402,19 +10591,19 @@
         <v>4052</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9422,19 +10611,19 @@
         <v>4054</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>70000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9442,19 +10631,19 @@
         <v>4056</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>70000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9462,22 +10651,22 @@
         <v>4059</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9485,142 +10674,235 @@
         <v>4061</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>4063</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>4066</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>4068</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>4070</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>130000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>4072</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>80000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>4074</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>332</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>4964</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>4965</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>4967</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>5007</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E24" r:id="rId1" display="https://im.hgscosmetics.com/wp-content/uploads/2022/03/37.jpg"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -9636,13 +10918,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -9672,19 +10954,19 @@
         <v>3813</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9692,7 +10974,7 @@
         <v>4454</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>60000</v>
@@ -9703,59 +10985,82 @@
         <v>4076</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4078</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>4080</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>348</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5010</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -9774,13 +11079,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -9805,158 +11110,187 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>3816</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>80000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3818</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>4083</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4086</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>4089</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>4092</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>4095</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>380</v>
-      </c>
-    </row>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/sheets/cosmetics.xlsx
+++ b/sheets/cosmetics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="serums" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1113">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -712,23 +712,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.africaproducts.nl/collections/body/products/nature-secrete-lightening-moisturizer-body-lotion-350-ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Shapers Hot Belt Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Shapers Hot Belt Power are fitness wear designed with Neotex smart fabric technology that increases core temperature helping your body sweat, sweat, sweat &amp; sweat more while wearing them during daily activities. The Hot Shapers Hot Belt Power is a unique belt designed to shape and preserve the figure for those who want rapid results in reducing sizes. This product will not only make you sweat where you need to but will gradually start molding your waist and abdomen area.
-Its design will maintain perfect back support and posture due to adjustable double flex bands and flex vertical bars. The Neotex smart fabric in Hot Shapers increases core temperature during exercise, sports, walking, running, at home or during any physical activity. Hot Shapers clothing can be worn while active regardless of what you are doing. Just put them on and feel the results!!
-Hot Shapers' unique NEOTEX sweat fabric makes all products lightweight, flexible, comfortable and great for increasing calorie burn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://media.takealot.com/covers_images/50ad3692ef8e40b2b8901e21c8f7215f/s-zoom.file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://media.takealot.com/covers_images/0563e957467f40b4bce1b968df9bfec9/s-zoom.file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.takealot.com/hot-shapers-hot-belt-power/PLID91472893?utm_source=oweb&amp;utm_medium=product_page</t>
   </si>
   <si>
     <t xml:space="preserve">AVEENO® Baby Daily Care Hair and Body Wash, 250ml</t>
@@ -4539,7 +4522,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
   </cols>
@@ -4651,7 +4634,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4681,16 +4664,16 @@
         <v>3821</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4698,16 +4681,16 @@
         <v>3823</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4715,19 +4698,19 @@
         <v>3826</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>700000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4735,19 +4718,19 @@
         <v>4097</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -4772,7 +4755,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4802,19 +4785,19 @@
         <v>3829</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4822,19 +4805,19 @@
         <v>3831</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,19 +4825,19 @@
         <v>3833</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4862,22 +4845,22 @@
         <v>4100</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4885,22 +4868,22 @@
         <v>4103</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4908,19 +4891,19 @@
         <v>4457</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -4945,7 +4928,7 @@
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4975,19 +4958,19 @@
         <v>3836</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4995,22 +4978,22 @@
         <v>4106</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5018,19 +5001,19 @@
         <v>4108</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5038,19 +5021,19 @@
         <v>4110</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5058,19 +5041,19 @@
         <v>4112</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5078,22 +5061,22 @@
         <v>4115</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5101,19 +5084,19 @@
         <v>4117</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5121,22 +5104,22 @@
         <v>4120</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5144,19 +5127,19 @@
         <v>4122</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5164,19 +5147,19 @@
         <v>4124</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5184,22 +5167,22 @@
         <v>4127</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5207,19 +5190,19 @@
         <v>4129</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5227,19 +5210,19 @@
         <v>4131</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5247,16 +5230,16 @@
         <v>4133</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5264,19 +5247,19 @@
         <v>4135</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5284,22 +5267,22 @@
         <v>4138</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5307,22 +5290,22 @@
         <v>4141</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5330,19 +5313,19 @@
         <v>4460</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5350,19 +5333,19 @@
         <v>4143</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5370,19 +5353,19 @@
         <v>4145</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5390,16 +5373,16 @@
         <v>4462</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5464,7 +5447,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5494,22 +5477,22 @@
         <v>3840</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5517,22 +5500,22 @@
         <v>4976</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5540,22 +5523,22 @@
         <v>4979</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>200000</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5616,7 +5599,7 @@
       <selection pane="topLeft" activeCell="F78" activeCellId="0" sqref="F78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5646,19 +5629,19 @@
         <v>3521</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5666,19 +5649,19 @@
         <v>3523</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5686,19 +5669,19 @@
         <v>3569</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5706,22 +5689,22 @@
         <v>3527</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5729,22 +5712,22 @@
         <v>3531</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5752,22 +5735,22 @@
         <v>3534</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>700000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5775,22 +5758,22 @@
         <v>3538</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5798,22 +5781,22 @@
         <v>3559</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5821,22 +5804,22 @@
         <v>3541</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5844,22 +5827,22 @@
         <v>3571</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5867,22 +5850,22 @@
         <v>3544</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1300000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5890,22 +5873,22 @@
         <v>3547</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5913,19 +5896,19 @@
         <v>3550</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5933,19 +5916,19 @@
         <v>3552</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5953,22 +5936,22 @@
         <v>3555</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5976,22 +5959,22 @@
         <v>3843</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5999,19 +5982,19 @@
         <v>3845</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6019,22 +6002,22 @@
         <v>3848</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6042,19 +6025,19 @@
         <v>3850</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6062,22 +6045,22 @@
         <v>3853</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6085,22 +6068,22 @@
         <v>3863</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6108,19 +6091,19 @@
         <v>3855</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6128,22 +6111,22 @@
         <v>3858</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6151,19 +6134,19 @@
         <v>3860</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6171,22 +6154,22 @@
         <v>4148</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6194,22 +6177,22 @@
         <v>4151</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6217,16 +6200,16 @@
         <v>4153</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6234,19 +6217,19 @@
         <v>4156</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6254,22 +6237,22 @@
         <v>4159</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6277,22 +6260,22 @@
         <v>4162</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6300,19 +6283,19 @@
         <v>4164</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6320,22 +6303,22 @@
         <v>4167</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6343,19 +6326,19 @@
         <v>4169</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6363,19 +6346,19 @@
         <v>4171</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6383,19 +6366,19 @@
         <v>4173</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6403,22 +6386,22 @@
         <v>4176</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6426,19 +6409,19 @@
         <v>4178</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>280000</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6446,19 +6429,19 @@
         <v>4180</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>280000</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6466,22 +6449,22 @@
         <v>2558</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>1450000</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6489,22 +6472,22 @@
         <v>4183</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6512,22 +6495,22 @@
         <v>4186</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>480000</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6535,19 +6518,19 @@
         <v>4188</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6555,19 +6538,19 @@
         <v>4190</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>225000</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6575,7 +6558,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6583,22 +6566,22 @@
         <v>4193</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6606,22 +6589,22 @@
         <v>4196</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6629,22 +6612,22 @@
         <v>4199</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6652,22 +6635,22 @@
         <v>4202</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6675,22 +6658,22 @@
         <v>4205</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6698,19 +6681,19 @@
         <v>4207</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6718,19 +6701,19 @@
         <v>4209</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>650000</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6738,19 +6721,19 @@
         <v>4211</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6758,16 +6741,16 @@
         <v>4213</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>580000</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6775,19 +6758,19 @@
         <v>4215</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6795,22 +6778,22 @@
         <v>4218</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6818,19 +6801,19 @@
         <v>4220</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>480000</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6838,22 +6821,22 @@
         <v>4223</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6861,22 +6844,22 @@
         <v>4226</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6884,22 +6867,22 @@
         <v>4229</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6907,22 +6890,22 @@
         <v>4232</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6930,22 +6913,22 @@
         <v>4235</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6953,19 +6936,19 @@
         <v>4237</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6973,22 +6956,22 @@
         <v>4240</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6996,22 +6979,22 @@
         <v>4248</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>650000</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7019,22 +7002,22 @@
         <v>4251</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7042,19 +7025,19 @@
         <v>4254</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7062,22 +7045,22 @@
         <v>4257</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7085,19 +7068,19 @@
         <v>4465</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7105,13 +7088,13 @@
         <v>5011</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>350000</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7119,16 +7102,16 @@
         <v>5012</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7136,22 +7119,22 @@
         <v>5015</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7159,22 +7142,22 @@
         <v>5018</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7182,19 +7165,19 @@
         <v>5021</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7202,22 +7185,22 @@
         <v>5024</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7225,22 +7208,22 @@
         <v>5032</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>550000</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7267,7 +7250,7 @@
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7297,22 +7280,22 @@
         <v>3867</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7320,19 +7303,19 @@
         <v>3912</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7340,22 +7323,22 @@
         <v>3870</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7363,19 +7346,19 @@
         <v>3872</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7383,19 +7366,19 @@
         <v>3874</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>155000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7403,16 +7386,16 @@
         <v>3876</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7420,19 +7403,19 @@
         <v>3914</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7440,19 +7423,19 @@
         <v>3878</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7460,19 +7443,19 @@
         <v>3918</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7480,19 +7463,19 @@
         <v>3880</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7500,22 +7483,22 @@
         <v>3883</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7523,19 +7506,19 @@
         <v>3885</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7543,19 +7526,19 @@
         <v>3887</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7563,19 +7546,19 @@
         <v>3889</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7583,19 +7566,19 @@
         <v>3891</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7603,19 +7586,19 @@
         <v>3893</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7623,19 +7606,19 @@
         <v>3895</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7643,19 +7626,19 @@
         <v>3897</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7663,22 +7646,22 @@
         <v>3900</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7686,19 +7669,19 @@
         <v>3916</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7706,22 +7689,22 @@
         <v>3903</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7729,19 +7712,19 @@
         <v>3905</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7749,22 +7732,22 @@
         <v>3908</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7772,19 +7755,19 @@
         <v>3910</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7792,19 +7775,19 @@
         <v>4468</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8001,7 +7984,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8031,19 +8014,19 @@
         <v>4259</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8051,19 +8034,19 @@
         <v>4261</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8071,19 +8054,19 @@
         <v>4263</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8091,19 +8074,19 @@
         <v>4265</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8111,19 +8094,19 @@
         <v>4267</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8131,19 +8114,19 @@
         <v>4269</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8151,19 +8134,19 @@
         <v>4271</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8171,19 +8154,19 @@
         <v>4273</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8191,19 +8174,19 @@
         <v>4275</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8211,19 +8194,19 @@
         <v>4277</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8231,16 +8214,16 @@
         <v>4279</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8248,19 +8231,19 @@
         <v>4281</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
   </sheetData>
@@ -8281,11 +8264,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8315,19 +8298,19 @@
         <v>4283</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8335,19 +8318,19 @@
         <v>4285</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8355,19 +8338,19 @@
         <v>4287</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>95000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8375,16 +8358,16 @@
         <v>5037</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>64000</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
   </sheetData>
@@ -8409,7 +8392,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8439,16 +8422,16 @@
         <v>4298</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8456,19 +8439,19 @@
         <v>4300</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8476,22 +8459,22 @@
         <v>4303</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8499,19 +8482,19 @@
         <v>4305</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
   </sheetData>
@@ -8532,11 +8515,11 @@
   </sheetPr>
   <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8566,22 +8549,22 @@
         <v>4982</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>35000</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8589,22 +8572,22 @@
         <v>4985</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>35000</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8612,22 +8595,22 @@
         <v>4988</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>35000</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8635,22 +8618,22 @@
         <v>4991</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>35000</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8658,22 +8641,22 @@
         <v>4994</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>30000</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8681,20 +8664,20 @@
         <v>4996</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>30000</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8702,22 +8685,22 @@
         <v>4997</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>30000</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8725,22 +8708,22 @@
         <v>5000</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>30000</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8908,10 +8891,10 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -9095,7 +9078,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -9253,10 +9236,10 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -9882,6 +9865,9 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>5185</v>
+      </c>
       <c r="B32" s="0" t="s">
         <v>187</v>
       </c>
@@ -9898,26 +9884,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>150000</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
+    <row r="33" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F20" r:id="rId1" display="https://cdn.store-assets.com/s/139218/i/36105290.jpg"/>
@@ -9943,7 +9910,7 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -9973,19 +9940,19 @@
         <v>3794</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9993,19 +9960,19 @@
         <v>3793</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>210000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10013,16 +9980,16 @@
         <v>4007</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10030,19 +9997,19 @@
         <v>4009</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10050,22 +10017,22 @@
         <v>4012</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10073,19 +10040,19 @@
         <v>4014</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10093,22 +10060,22 @@
         <v>4017</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10116,19 +10083,19 @@
         <v>4019</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10136,19 +10103,19 @@
         <v>4021</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10156,19 +10123,19 @@
         <v>4023</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10176,22 +10143,22 @@
         <v>4026</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10199,16 +10166,16 @@
         <v>4031</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -10233,7 +10200,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -10263,22 +10230,22 @@
         <v>3801</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10286,16 +10253,16 @@
         <v>3798</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>190000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10303,22 +10270,22 @@
         <v>3804</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10326,22 +10293,22 @@
         <v>4029</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>160000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -10366,7 +10333,7 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -10396,19 +10363,19 @@
         <v>3807</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>170000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10416,22 +10383,22 @@
         <v>3810</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>240000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10439,19 +10406,19 @@
         <v>4033</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10459,22 +10426,22 @@
         <v>4036</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10482,19 +10449,19 @@
         <v>4038</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10502,22 +10469,22 @@
         <v>4041</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10525,19 +10492,19 @@
         <v>4044</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10545,22 +10512,22 @@
         <v>4047</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10568,22 +10535,22 @@
         <v>4050</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10591,19 +10558,19 @@
         <v>4052</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10611,19 +10578,19 @@
         <v>4054</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>70000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10631,19 +10598,19 @@
         <v>4056</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>70000</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10651,22 +10618,22 @@
         <v>4059</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10674,19 +10641,19 @@
         <v>4061</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10694,16 +10661,16 @@
         <v>4063</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10711,22 +10678,22 @@
         <v>4066</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10734,19 +10701,19 @@
         <v>4068</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>140000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10754,19 +10721,19 @@
         <v>4070</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>130000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10774,19 +10741,19 @@
         <v>4072</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>80000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10794,19 +10761,19 @@
         <v>4074</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10814,22 +10781,22 @@
         <v>4964</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>200000</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10837,22 +10804,22 @@
         <v>4965</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>150000</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10860,20 +10827,20 @@
         <v>4967</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>200000</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10881,22 +10848,22 @@
         <v>5007</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -10924,7 +10891,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -10954,19 +10921,19 @@
         <v>3813</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10974,7 +10941,7 @@
         <v>4454</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>60000</v>
@@ -10985,19 +10952,19 @@
         <v>4076</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11005,19 +10972,19 @@
         <v>4078</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11025,19 +10992,19 @@
         <v>4080</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11045,22 +11012,22 @@
         <v>5010</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -11085,7 +11052,7 @@
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -11115,19 +11082,19 @@
         <v>3816</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>80000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11135,19 +11102,19 @@
         <v>3818</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11155,22 +11122,22 @@
         <v>4083</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11178,22 +11145,22 @@
         <v>4086</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11201,22 +11168,22 @@
         <v>4089</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11224,22 +11191,22 @@
         <v>4092</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11247,19 +11214,19 @@
         <v>4095</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
